--- a/data/hotels_by_city/Denver/Denver_shard_80.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_80.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33456-d123338-Reviews-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Tech-Center-Central.h200706.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1511 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r595113487-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>33456</t>
+  </si>
+  <si>
+    <t>123338</t>
+  </si>
+  <si>
+    <t>595113487</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>When we first wallked into the room, it smelled musty to the point that I wondered if I had accidentally requested a smoking room. The heat was on when it was 90 degrees in there and the a/c did not work well. The door to the bathroom wouldn't close. There were have empty bottles in the fridge and under the bed. Saying the place was not clean would be an understantment. The "fully-equpped kitchen" only had 2 plates, bowls, and silverware as well as a pot and pan. But you have to request it. We requested a coffee maker, toaster, drying rack,and dish towels but they didn't have any available dispite us being there for a week. Our remote control looked like a dog had used it as a chew toy. The walls are really thin and let in every single noise and the employees don't endorse the quiet hours well. The breakfast was almost always out and there was rarely anyone at the desk. The fitness center contained a treadmill and elliptical and that's all. There is also only about 10 tv channels. In short this place was awful.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>When we first wallked into the room, it smelled musty to the point that I wondered if I had accidentally requested a smoking room. The heat was on when it was 90 degrees in there and the a/c did not work well. The door to the bathroom wouldn't close. There were have empty bottles in the fridge and under the bed. Saying the place was not clean would be an understantment. The "fully-equpped kitchen" only had 2 plates, bowls, and silverware as well as a pot and pan. But you have to request it. We requested a coffee maker, toaster, drying rack,and dish towels but they didn't have any available dispite us being there for a week. Our remote control looked like a dog had used it as a chew toy. The walls are really thin and let in every single noise and the employees don't endorse the quiet hours well. The breakfast was almost always out and there was rarely anyone at the desk. The fitness center contained a treadmill and elliptical and that's all. There is also only about 10 tv channels. In short this place was awful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r590718256-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>590718256</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleanest </t>
+  </si>
+  <si>
+    <t>I have enjoyed being here at the extended stay the staff here is outstanding and they always keep it clean the property is nice and the cries is unbelievable I recommend this hotel to anyone who comes to Colorado I want to recognize Alicia Davis the manager Rolondo the mantaince man and Brittany Washington and all the other staff members they care about your stay and always make sure you’re happy MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>I have enjoyed being here at the extended stay the staff here is outstanding and they always keep it clean the property is nice and the cries is unbelievable I recommend this hotel to anyone who comes to Colorado I want to recognize Alicia Davis the manager Rolondo the mantaince man and Brittany Washington and all the other staff members they care about your stay and always make sure you’re happy More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r590410282-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>590410282</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Would not stay there again.</t>
+  </si>
+  <si>
+    <t>Very run down, and dirty., bugs in bathroom and kitchenette area...Garbage littered walkway and parking lots..... I picked this hotel because it was on the  Southwest airlines recommended list, very surprising since most of the other recommended hotels I stayed in the past were all great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very run down, and dirty., bugs in bathroom and kitchenette area...Garbage littered walkway and parking lots..... I picked this hotel because it was on the  Southwest airlines recommended list, very surprising since most of the other recommended hotels I stayed in the past were all great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r587920317-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>587920317</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO NOT STAY </t>
+  </si>
+  <si>
+    <t>This place is TRASHED! Trash under stairways trash on the ground and trash in the room. We should of walked out when a gentleman walked in saying his room he just checked into was dirty and had no toilet paper. When we checked in they told us they had no towels and they they had to wash some. Then when we got to our room, avoiding all the nasty stuff on the stairs we walked in to a dirty room with cigarette burns in the sheets and it smelt very strong of smoke. Granted it was a NON SMOKING room after all. Then to top it off.....a condom wrapper...didn’t want to look farther for any more so we left MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2018</t>
+  </si>
+  <si>
+    <t>This place is TRASHED! Trash under stairways trash on the ground and trash in the room. We should of walked out when a gentleman walked in saying his room he just checked into was dirty and had no toilet paper. When we checked in they told us they had no towels and they they had to wash some. Then when we got to our room, avoiding all the nasty stuff on the stairs we walked in to a dirty room with cigarette burns in the sheets and it smelt very strong of smoke. Granted it was a NON SMOKING room after all. Then to top it off.....a condom wrapper...didn’t want to look farther for any more so we left More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r585182429-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>585182429</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>No Complaints</t>
+  </si>
+  <si>
+    <t>I’ve enjoyed the service from Brittney in the lobby.. Even when bombarded with many tenants, she still takes the time to tend to the needs of everyone in a very timely &amp; professional manner! Great Employee MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>I’ve enjoyed the service from Brittney in the lobby.. Even when bombarded with many tenants, she still takes the time to tend to the needs of everyone in a very timely &amp; professional manner! Great Employee More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r584218855-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>584218855</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Better then the last..</t>
+  </si>
+  <si>
+    <t>This was one of the more pleasant extended stays ive been too.. Especially if ive been to 30 in the last year for my job. The front desk worker Brittney is also a help she was always there with the right help if i ever needed somethings.... Need more workers like herMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>This was one of the more pleasant extended stays ive been too.. Especially if ive been to 30 in the last year for my job. The front desk worker Brittney is also a help she was always there with the right help if i ever needed somethings.... Need more workers like herMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r576537250-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>576537250</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>One night is enough</t>
+  </si>
+  <si>
+    <t>I recently spent a night at this motel.  I was on a tight budget and had never stayed with this chain before.  The lesson is you get what you pay for.  First the good: low price in a good location.  Now for the not so good: fairly noisy, stained furniture, carpet and ceiling, no drinking cup, and internet service that did not work. The front desk help is friendly and did the best they could do with what they have.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded April 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2018</t>
+  </si>
+  <si>
+    <t>I recently spent a night at this motel.  I was on a tight budget and had never stayed with this chain before.  The lesson is you get what you pay for.  First the good: low price in a good location.  Now for the not so good: fairly noisy, stained furniture, carpet and ceiling, no drinking cup, and internet service that did not work. The front desk help is friendly and did the best they could do with what they have.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r572067683-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>572067683</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>America Stay Away</t>
+  </si>
+  <si>
+    <t>Go to Marriott where the rooms are clean and don't smell like an ash tray full of cigarettes.  Very dirty and disgusting rooms  I arrived and did not even stay, once I check out the room went across I25 over to the Marriott and booked a room which was clean, and did not smell like a cigaretteMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Go to Marriott where the rooms are clean and don't smell like an ash tray full of cigarettes.  Very dirty and disgusting rooms  I arrived and did not even stay, once I check out the room went across I25 over to the Marriott and booked a room which was clean, and did not smell like a cigaretteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r570170041-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>570170041</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Abysmal</t>
+  </si>
+  <si>
+    <t>I usually read reviews before I book, but it was late and we were in a hurry.  Big mistake.  We tried - and rejected - four rooms, then left and stayed at another hotel nearby, even though the room was pre-paid and non-refundable.Filthiest property I've ever seen:  three of the non-smoking rooms smelled of smoke and/or strong chemicals.  There were cigarette burns in the linen and hair in the showers.  Save yourself a disgusting experience and skip this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>I usually read reviews before I book, but it was late and we were in a hurry.  Big mistake.  We tried - and rejected - four rooms, then left and stayed at another hotel nearby, even though the room was pre-paid and non-refundable.Filthiest property I've ever seen:  three of the non-smoking rooms smelled of smoke and/or strong chemicals.  There were cigarette burns in the linen and hair in the showers.  Save yourself a disgusting experience and skip this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r557648644-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>557648644</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful!! </t>
+  </si>
+  <si>
+    <t>We just recently moved to Colorado from Ohio. The extended stay is wonderful! It's a perfect location and everything is only a few mins away. We will be staying here for at least 6 months and we really enjoy it here. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>We just recently moved to Colorado from Ohio. The extended stay is wonderful! It's a perfect location and everything is only a few mins away. We will be staying here for at least 6 months and we really enjoy it here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r552543583-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>552543583</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Best place to stay</t>
+  </si>
+  <si>
+    <t>I stay here every time I'm in Denver its the best location for the price the staff is always willing to help you and they will always go out of there way to make sure you are happy you can't ask much more.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>I stay here every time I'm in Denver its the best location for the price the staff is always willing to help you and they will always go out of there way to make sure you are happy you can't ask much more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r541223423-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>541223423</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Personal trip</t>
+  </si>
+  <si>
+    <t>Hotel room was musty needed to be aired out. Severely out of date. Only redeeming factor close to highway and next to Papadeaux.A bit noisey. Personnel were very good. Overall could not recommend and I have good luck other locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Hotel room was musty needed to be aired out. Severely out of date. Only redeeming factor close to highway and next to Papadeaux.A bit noisey. Personnel were very good. Overall could not recommend and I have good luck other locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r540191250-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>540191250</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked out immediately </t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 5 years ago and it was great.  This time we arrived at 7:30 pm with dinner.  We asked for dishes/silverware... they were out...extra towels... in the dryer... sheets for sofa bed...being cleaned would be 1 to 1 1/2 hours.   Planned to spend 4 days.  Desk clerk had very poor attitude.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 5 years ago and it was great.  This time we arrived at 7:30 pm with dinner.  We asked for dishes/silverware... they were out...extra towels... in the dryer... sheets for sofa bed...being cleaned would be 1 to 1 1/2 hours.   Planned to spend 4 days.  Desk clerk had very poor attitude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r536449045-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>536449045</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>WORST HOTEL EVER (read the reviews - they're all accurate)</t>
+  </si>
+  <si>
+    <t>We had the same experience everyone else did  - the room wasn't clean when we arrive (the toilet was literally clogged with feces), they do not provide cookware, cooking utensils or cutlery (as advertised), the room was in disrepair, there was no breakfast (as advertised) and the facilities were dirty and felt unsafe.  There was a fight in the parking lots, parties in the rooms, room doors were left open and people would come and go frequently.
+The bigger problem is that management does nothing to resolve these issue.  There was never a manager available on site, and the staff' refused to resolve a single issue we brought up. They refused to clean our room, or even unclog the toilet, because their policy is that they don't clean rooms during guest stays.  They refused to provide sheets and pillows for the fold out bed because they "ran out."   They didn't provide kitchen utensils because their policy is not to provide them.  I asked about a lack of breakfast, and they respond with a disinterested shrug.  They don't even clean up the trash that people pile in the halls (because they don't provide trash service).
+We booked via Hotels.com, and there are 6 months worth of 1 and 2 star reviews, each with a "management" response apologizing for the issue and saying they'll fix the problem.  But the complaints written 6 months ago are exactly the same problems we experienced last...We had the same experience everyone else did  - the room wasn't clean when we arrive (the toilet was literally clogged with feces), they do not provide cookware, cooking utensils or cutlery (as advertised), the room was in disrepair, there was no breakfast (as advertised) and the facilities were dirty and felt unsafe.  There was a fight in the parking lots, parties in the rooms, room doors were left open and people would come and go frequently.The bigger problem is that management does nothing to resolve these issue.  There was never a manager available on site, and the staff' refused to resolve a single issue we brought up. They refused to clean our room, or even unclog the toilet, because their policy is that they don't clean rooms during guest stays.  They refused to provide sheets and pillows for the fold out bed because they "ran out."   They didn't provide kitchen utensils because their policy is not to provide them.  I asked about a lack of breakfast, and they respond with a disinterested shrug.  They don't even clean up the trash that people pile in the halls (because they don't provide trash service).We booked via Hotels.com, and there are 6 months worth of 1 and 2 star reviews, each with a "management" response apologizing for the issue and saying they'll fix the problem.  But the complaints written 6 months ago are exactly the same problems we experienced last week, so clearly they haven't done anything to fix the situation.  And when we called corporate customer service, after spending hours on hold, they refused to do anything other than claim they sent someone to clean the room (but no one ever arrived).When we contacted Hotels.com, they said it's not their problem and we had to take it up with the hotel.The police showed up twice during our 6 day stay.  They wouldn't tell us who called them or why they were there, but the cop we spoke with said they were called there regularly and suggested we move our family to a different hotel.  I suggest you do the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded October 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2017</t>
+  </si>
+  <si>
+    <t>We had the same experience everyone else did  - the room wasn't clean when we arrive (the toilet was literally clogged with feces), they do not provide cookware, cooking utensils or cutlery (as advertised), the room was in disrepair, there was no breakfast (as advertised) and the facilities were dirty and felt unsafe.  There was a fight in the parking lots, parties in the rooms, room doors were left open and people would come and go frequently.
+The bigger problem is that management does nothing to resolve these issue.  There was never a manager available on site, and the staff' refused to resolve a single issue we brought up. They refused to clean our room, or even unclog the toilet, because their policy is that they don't clean rooms during guest stays.  They refused to provide sheets and pillows for the fold out bed because they "ran out."   They didn't provide kitchen utensils because their policy is not to provide them.  I asked about a lack of breakfast, and they respond with a disinterested shrug.  They don't even clean up the trash that people pile in the halls (because they don't provide trash service).
+We booked via Hotels.com, and there are 6 months worth of 1 and 2 star reviews, each with a "management" response apologizing for the issue and saying they'll fix the problem.  But the complaints written 6 months ago are exactly the same problems we experienced last...We had the same experience everyone else did  - the room wasn't clean when we arrive (the toilet was literally clogged with feces), they do not provide cookware, cooking utensils or cutlery (as advertised), the room was in disrepair, there was no breakfast (as advertised) and the facilities were dirty and felt unsafe.  There was a fight in the parking lots, parties in the rooms, room doors were left open and people would come and go frequently.The bigger problem is that management does nothing to resolve these issue.  There was never a manager available on site, and the staff' refused to resolve a single issue we brought up. They refused to clean our room, or even unclog the toilet, because their policy is that they don't clean rooms during guest stays.  They refused to provide sheets and pillows for the fold out bed because they "ran out."   They didn't provide kitchen utensils because their policy is not to provide them.  I asked about a lack of breakfast, and they respond with a disinterested shrug.  They don't even clean up the trash that people pile in the halls (because they don't provide trash service).We booked via Hotels.com, and there are 6 months worth of 1 and 2 star reviews, each with a "management" response apologizing for the issue and saying they'll fix the problem.  But the complaints written 6 months ago are exactly the same problems we experienced last week, so clearly they haven't done anything to fix the situation.  And when we called corporate customer service, after spending hours on hold, they refused to do anything other than claim they sent someone to clean the room (but no one ever arrived).When we contacted Hotels.com, they said it's not their problem and we had to take it up with the hotel.The police showed up twice during our 6 day stay.  They wouldn't tell us who called them or why they were there, but the cop we spoke with said they were called there regularly and suggested we move our family to a different hotel.  I suggest you do the same.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r533734262-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>533734262</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>THE WORST!  WEAR GLOVES, actually, just leave</t>
+  </si>
+  <si>
+    <t>Gross, filthy, terrible bed, smelly, broken down...UGLY WORST PLACE AWARD!!!  No wash cloths.  Large dark stains on carpet.  Electric outlets exposed, no cover plates with dry wall crumbling underneath.  Smeary sticky TV remote.  Chair seat with large stains. OMG recent patched ceiling in large areas, will the ceiling cave in next??MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Gross, filthy, terrible bed, smelly, broken down...UGLY WORST PLACE AWARD!!!  No wash cloths.  Large dark stains on carpet.  Electric outlets exposed, no cover plates with dry wall crumbling underneath.  Smeary sticky TV remote.  Chair seat with large stains. OMG recent patched ceiling in large areas, will the ceiling cave in next??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r510094537-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>510094537</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>I would have felt safer in a post apocalyptic movie</t>
+  </si>
+  <si>
+    <t>My wife and I booked a room here via Hotwire but didn't end up staying here. I have to say the only pleasant part of the trip was the excellent service we received from Hotwire support who came through with a booking at another hotel after we decided we could not stay here and the amazing service we received at our alternate hotel. The first red flag was the drive in when we noticed piles of trash everywhere. Next was the sign on the wall next to the front desk stating that our information and IDs would be retained for Law Enforcement. Watching as the front desk lady slowly compared our IDs to a pile of photocopied driver’s licenses, I'm assuming to see if we were on some sort of a no go list, was at the very least disconcerting. The girl at the front desk was at least very pleasant but that far outweighs the feeling of uneasiness that only became worse as our stay marched on towards it's inevitable end. We eventually were given a room and handed a pair of room keys. Leaving the lobby, we were greeted in the parking lot by two police officers entering the lobby for what reasons we weren't sure but decided to make our way to the room. Walking up the stairs to the outdoor entry rooms and hallway was a tour through some of the most disgusting sights and smells...My wife and I booked a room here via Hotwire but didn't end up staying here. I have to say the only pleasant part of the trip was the excellent service we received from Hotwire support who came through with a booking at another hotel after we decided we could not stay here and the amazing service we received at our alternate hotel. The first red flag was the drive in when we noticed piles of trash everywhere. Next was the sign on the wall next to the front desk stating that our information and IDs would be retained for Law Enforcement. Watching as the front desk lady slowly compared our IDs to a pile of photocopied driver’s licenses, I'm assuming to see if we were on some sort of a no go list, was at the very least disconcerting. The girl at the front desk was at least very pleasant but that far outweighs the feeling of uneasiness that only became worse as our stay marched on towards it's inevitable end. We eventually were given a room and handed a pair of room keys. Leaving the lobby, we were greeted in the parking lot by two police officers entering the lobby for what reasons we weren't sure but decided to make our way to the room. Walking up the stairs to the outdoor entry rooms and hallway was a tour through some of the most disgusting sights and smells we've ever seen. The unknown goo oozing down the stairwell may have made for an interesting forensics examination, and admittedly was a fun recreation of an Indiana Jones movie as we carefully stepped around it but all in all was pretty gross. Finding our room was easy enough thanks to the map provided by the front desk girl. Opening the door was a little more difficult. Big shout out to that sticky door for trying to keep us out of that disgusting room… The room smelled of too much air freshener desperately trying to mask the odor of stale cigarette smoke, sweat and filth. Quite honestly we didn’t spend much time in the room itself and didn’t closely examine what our senses were telling us might actually be a crime scene and not a hotel room. Going back to the lobby to ask for a different room, one that is preferably clean and doesn’t come with the overwhelming smell of ashtray, we noticed an increased police presence in the parking lot. There was now another police car sitting there as if waiting for a crime they knew was coming soon. We handed in our keys to the first room and gained access to the second. The girl at the desk seemed unfazed by our wanting another room. Making me think that this happens often. The second room we saw was equally as horrible as the first but included some very unusual stains on the carpet. sofa, bedding and walls. We paused briefly to wonder if you could get an STD from breathing the air in the room before leaving and calling Hotwire support. As we exited the second room we were once again greeted by an increased police presence as more police cars were now in the lot, lying in wait for some seemingly inevitable crime. I asked my wife (an officer herself in a police department across the state), How many police cars are too many for a hotel? She commented grimly that she has seen fewer at her police station. Needless to say we refused to stay in the hotel that night so can’t comment about the overnight experience or the breakfast included with the stay. As we drove away from the post-apocalyptic hotel we finally saw what the police were after that night as they led several scantily clad women away in hand cuffs. “Prostitution round up” my wife murmured as we made our way out of the lot, with the sort of certainty that comes only from experience and leaves little room for doubt.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I booked a room here via Hotwire but didn't end up staying here. I have to say the only pleasant part of the trip was the excellent service we received from Hotwire support who came through with a booking at another hotel after we decided we could not stay here and the amazing service we received at our alternate hotel. The first red flag was the drive in when we noticed piles of trash everywhere. Next was the sign on the wall next to the front desk stating that our information and IDs would be retained for Law Enforcement. Watching as the front desk lady slowly compared our IDs to a pile of photocopied driver’s licenses, I'm assuming to see if we were on some sort of a no go list, was at the very least disconcerting. The girl at the front desk was at least very pleasant but that far outweighs the feeling of uneasiness that only became worse as our stay marched on towards it's inevitable end. We eventually were given a room and handed a pair of room keys. Leaving the lobby, we were greeted in the parking lot by two police officers entering the lobby for what reasons we weren't sure but decided to make our way to the room. Walking up the stairs to the outdoor entry rooms and hallway was a tour through some of the most disgusting sights and smells...My wife and I booked a room here via Hotwire but didn't end up staying here. I have to say the only pleasant part of the trip was the excellent service we received from Hotwire support who came through with a booking at another hotel after we decided we could not stay here and the amazing service we received at our alternate hotel. The first red flag was the drive in when we noticed piles of trash everywhere. Next was the sign on the wall next to the front desk stating that our information and IDs would be retained for Law Enforcement. Watching as the front desk lady slowly compared our IDs to a pile of photocopied driver’s licenses, I'm assuming to see if we were on some sort of a no go list, was at the very least disconcerting. The girl at the front desk was at least very pleasant but that far outweighs the feeling of uneasiness that only became worse as our stay marched on towards it's inevitable end. We eventually were given a room and handed a pair of room keys. Leaving the lobby, we were greeted in the parking lot by two police officers entering the lobby for what reasons we weren't sure but decided to make our way to the room. Walking up the stairs to the outdoor entry rooms and hallway was a tour through some of the most disgusting sights and smells we've ever seen. The unknown goo oozing down the stairwell may have made for an interesting forensics examination, and admittedly was a fun recreation of an Indiana Jones movie as we carefully stepped around it but all in all was pretty gross. Finding our room was easy enough thanks to the map provided by the front desk girl. Opening the door was a little more difficult. Big shout out to that sticky door for trying to keep us out of that disgusting room… The room smelled of too much air freshener desperately trying to mask the odor of stale cigarette smoke, sweat and filth. Quite honestly we didn’t spend much time in the room itself and didn’t closely examine what our senses were telling us might actually be a crime scene and not a hotel room. Going back to the lobby to ask for a different room, one that is preferably clean and doesn’t come with the overwhelming smell of ashtray, we noticed an increased police presence in the parking lot. There was now another police car sitting there as if waiting for a crime they knew was coming soon. We handed in our keys to the first room and gained access to the second. The girl at the desk seemed unfazed by our wanting another room. Making me think that this happens often. The second room we saw was equally as horrible as the first but included some very unusual stains on the carpet. sofa, bedding and walls. We paused briefly to wonder if you could get an STD from breathing the air in the room before leaving and calling Hotwire support. As we exited the second room we were once again greeted by an increased police presence as more police cars were now in the lot, lying in wait for some seemingly inevitable crime. I asked my wife (an officer herself in a police department across the state), How many police cars are too many for a hotel? She commented grimly that she has seen fewer at her police station. Needless to say we refused to stay in the hotel that night so can’t comment about the overnight experience or the breakfast included with the stay. As we drove away from the post-apocalyptic hotel we finally saw what the police were after that night as they led several scantily clad women away in hand cuffs. “Prostitution round up” my wife murmured as we made our way out of the lot, with the sort of certainty that comes only from experience and leaves little room for doubt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r508888011-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>508888011</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Run fast!!!!</t>
+  </si>
+  <si>
+    <t>Bed linens were old and sweat stained.  Room smelled of cigarettes although it was non-smoking. Tub didn't drain. Carpet was stained. Very noisy- freezer sounded like a ping pong game was being played inside.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Bed linens were old and sweat stained.  Room smelled of cigarettes although it was non-smoking. Tub didn't drain. Carpet was stained. Very noisy- freezer sounded like a ping pong game was being played inside.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r507765659-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>507765659</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>2 thumbs down</t>
+  </si>
+  <si>
+    <t>Room was dirty, housekeeping never came to clean the room. Property itself was run down and there was trash and cigarette butts everywhere. Diss appointed with the overall experience, especially for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Room was dirty, housekeeping never came to clean the room. Property itself was run down and there was trash and cigarette butts everywhere. Diss appointed with the overall experience, especially for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r506456966-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>506456966</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>This hotel is a great value. Awesome location and very convenient off of 25. Staff is very friendly and the rooms are cozy. I wouldn't hesitate to recommend to friends visiting. Thanks Extended stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is a great value. Awesome location and very convenient off of 25. Staff is very friendly and the rooms are cozy. I wouldn't hesitate to recommend to friends visiting. Thanks Extended stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r505170414-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>505170414</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Unclean</t>
+  </si>
+  <si>
+    <t>Very unclear had to go out and purchase cleaning products to fully clean our room. They ran out of toilet paper!! We renting this place so we didn't have to buy food out and we could cook, would have if they had dishes don't waste your money with what I spent on cleaning products toilet paper and disposable dishes I could have paid more for a different hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Very unclear had to go out and purchase cleaning products to fully clean our room. They ran out of toilet paper!! We renting this place so we didn't have to buy food out and we could cook, would have if they had dishes don't waste your money with what I spent on cleaning products toilet paper and disposable dishes I could have paid more for a different hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r504098973-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>504098973</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Only for suckers</t>
+  </si>
+  <si>
+    <t>Please stay away? unless you can put up with dirts and the smell. We checked in 2 adults and two children. 8 and 10 years old. And they gave us two pillows and two towels only. And I called the front desk for additional two more pillows and two more towel. And the service never provided. Ekkkkk! MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Please stay away? unless you can put up with dirts and the smell. We checked in 2 adults and two children. 8 and 10 years old. And they gave us two pillows and two towels only. And I called the front desk for additional two more pillows and two more towel. And the service never provided. Ekkkkk! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r497525564-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>497525564</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Brittany Osborne</t>
+  </si>
+  <si>
+    <t>Great  Service loves going there would highly recommend it  would really come back employees are great service is good check in is always good lovely place great location all my friends about it  thank you for the great serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Great  Service loves going there would highly recommend it  would really come back employees are great service is good check in is always good lovely place great location all my friends about it  thank you for the great serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r496386546-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>496386546</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Dirty socks</t>
+  </si>
+  <si>
+    <t>The room was being renovated and was not fit to rent at the time. We dont mind the fact that it was a work in progress but house keeping missed a pair of dirty socks drying on top of the lamp and stinking the room up. Staff was friendly and surprisingly was a quiet stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>The room was being renovated and was not fit to rent at the time. We dont mind the fact that it was a work in progress but house keeping missed a pair of dirty socks drying on top of the lamp and stinking the room up. Staff was friendly and surprisingly was a quiet stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r495393972-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>495393972</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Below average</t>
+  </si>
+  <si>
+    <t>Check in was friendly but marred by being assigned to an occupied room and being reassigned.Room not very clean.  No smoking room smells heavily of cigarette smoke.  Lots of minor room damage, stained carpet and broken fixtures (heater wall mount, electrical socket cover plate, smoke detector hanging by a wire).  Amenities included kitchenette, super SLOW internet (0.85 up, 0.41 down measured by Ookla Speedtest).  Room price is around $115 USD.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Check in was friendly but marred by being assigned to an occupied room and being reassigned.Room not very clean.  No smoking room smells heavily of cigarette smoke.  Lots of minor room damage, stained carpet and broken fixtures (heater wall mount, electrical socket cover plate, smoke detector hanging by a wire).  Amenities included kitchenette, super SLOW internet (0.85 up, 0.41 down measured by Ookla Speedtest).  Room price is around $115 USD.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r493663739-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>493663739</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Stay Away..far away.</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a group of international students my company is hosting for training. I chose hotel because of price and perceived quality.  Problems abound with this stay. I booked 7 rooms over a month in advance. We show up to be told rooms are "not available". After protest, management does find rooms but they are not in configured in way reserved. Most are smoking when I reserved non-smoking. I reserved 4 double bed rooms...two are one bed with a pullout(not what I reserved). All rooms dirty and smelly. A/C not working in most rooms. The facility is rundown, dirty, and sketchy people coming thru all hrs of night.  I was overcharged and caught it, had to go to office to get them to refund excess after I complained. I asked for dishes/pans on day 1 (my international students like to cook home style food)...have yet to see them. (Over a week in). Rooms not cleaned after 7 days as it is supposed to. I could go on and on. VERY UNHAPPY. There are lots of "permanent" residents here...scruffy characters hanging out all over the place 24/7. Unfortunately 7 rooms for 20+ nights are had to find and I made a bad choice. Wish I could move hotels, but I am kinda stuck. My company's reputation has taken a hit with customer for putting students in this substandard hotel. I would advise you find somewhere else. The rooms...I booked this hotel for a group of international students my company is hosting for training. I chose hotel because of price and perceived quality.  Problems abound with this stay. I booked 7 rooms over a month in advance. We show up to be told rooms are "not available". After protest, management does find rooms but they are not in configured in way reserved. Most are smoking when I reserved non-smoking. I reserved 4 double bed rooms...two are one bed with a pullout(not what I reserved). All rooms dirty and smelly. A/C not working in most rooms. The facility is rundown, dirty, and sketchy people coming thru all hrs of night.  I was overcharged and caught it, had to go to office to get them to refund excess after I complained. I asked for dishes/pans on day 1 (my international students like to cook home style food)...have yet to see them. (Over a week in). Rooms not cleaned after 7 days as it is supposed to. I could go on and on. VERY UNHAPPY. There are lots of "permanent" residents here...scruffy characters hanging out all over the place 24/7. Unfortunately 7 rooms for 20+ nights are had to find and I made a bad choice. Wish I could move hotels, but I am kinda stuck. My company's reputation has taken a hit with customer for putting students in this substandard hotel. I would advise you find somewhere else. The rooms are dirty and smelly.Carpets stained..needed to be replaced years ago. They all smell like smoke(even the non smoking). Shady characters, run down, GO SOMEPLACE ELSE!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel for a group of international students my company is hosting for training. I chose hotel because of price and perceived quality.  Problems abound with this stay. I booked 7 rooms over a month in advance. We show up to be told rooms are "not available". After protest, management does find rooms but they are not in configured in way reserved. Most are smoking when I reserved non-smoking. I reserved 4 double bed rooms...two are one bed with a pullout(not what I reserved). All rooms dirty and smelly. A/C not working in most rooms. The facility is rundown, dirty, and sketchy people coming thru all hrs of night.  I was overcharged and caught it, had to go to office to get them to refund excess after I complained. I asked for dishes/pans on day 1 (my international students like to cook home style food)...have yet to see them. (Over a week in). Rooms not cleaned after 7 days as it is supposed to. I could go on and on. VERY UNHAPPY. There are lots of "permanent" residents here...scruffy characters hanging out all over the place 24/7. Unfortunately 7 rooms for 20+ nights are had to find and I made a bad choice. Wish I could move hotels, but I am kinda stuck. My company's reputation has taken a hit with customer for putting students in this substandard hotel. I would advise you find somewhere else. The rooms...I booked this hotel for a group of international students my company is hosting for training. I chose hotel because of price and perceived quality.  Problems abound with this stay. I booked 7 rooms over a month in advance. We show up to be told rooms are "not available". After protest, management does find rooms but they are not in configured in way reserved. Most are smoking when I reserved non-smoking. I reserved 4 double bed rooms...two are one bed with a pullout(not what I reserved). All rooms dirty and smelly. A/C not working in most rooms. The facility is rundown, dirty, and sketchy people coming thru all hrs of night.  I was overcharged and caught it, had to go to office to get them to refund excess after I complained. I asked for dishes/pans on day 1 (my international students like to cook home style food)...have yet to see them. (Over a week in). Rooms not cleaned after 7 days as it is supposed to. I could go on and on. VERY UNHAPPY. There are lots of "permanent" residents here...scruffy characters hanging out all over the place 24/7. Unfortunately 7 rooms for 20+ nights are had to find and I made a bad choice. Wish I could move hotels, but I am kinda stuck. My company's reputation has taken a hit with customer for putting students in this substandard hotel. I would advise you find somewhere else. The rooms are dirty and smelly.Carpets stained..needed to be replaced years ago. They all smell like smoke(even the non smoking). Shady characters, run down, GO SOMEPLACE ELSE!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r492755171-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>492755171</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Having fun</t>
+  </si>
+  <si>
+    <t>Hi Sindhu chubby Broadway hu you have received w you still waiting to the game e it's just us with the game's release you have any money from the car is the car is my phone is the car the trailer and Quincy MA I eMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Hi Sindhu chubby Broadway hu you have received w you still waiting to the game e it's just us with the game's release you have any money from the car is the car is my phone is the car the trailer and Quincy MA I eMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r491623967-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>491623967</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>It has been a privilege I love this hotel everyone here the staff the management the maintenance is wonderful and the property is always clean I recommend everyone to this hotel and I always sleep very well MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>It has been a privilege I love this hotel everyone here the staff the management the maintenance is wonderful and the property is always clean I recommend everyone to this hotel and I always sleep very well More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r465588961-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>465588961</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Less than Terrible!! why can't I choose Terrible on Rating?</t>
+  </si>
+  <si>
+    <t>nasty, unclean room, the only service you'll get is from the residents. I have several photos of room condition and there's no reason anybody should have to stay in those conditions. This used to be a decent hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>nasty, unclean room, the only service you'll get is from the residents. I have several photos of room condition and there's no reason anybody should have to stay in those conditions. This used to be a decent hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r462460392-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>462460392</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>NOT clean!! but had good features</t>
+  </si>
+  <si>
+    <t>I lit a candle for the smell and wore shoes at all time to protect my feet from the nasty carpet. There were food drippings on the stove, crumbs on the counter, splashes in the sinks, etc. It was GROSS, but the setup was awesome! Full-size fridge with stove/oven, sink, cabinets, counter, pull-out couch in front of a flatscreen TV and a desk chair. Nice color scheme etc. I wasn't given any pillows for the pull-out couch, but at least the sheets for that and the bed appeared to be clean. I used the luggage rack (which prevent bedbugs from infesting your luggage-use it people), and there was a high shelf to hang clothes under. The bathroom was nigh impossible to shut the door once you were inside though since it scraped against the toilet and tub when it opened. Like I said, it was gross, but the features were near ideal. The free breakfast was only one type of granola bar and coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>I lit a candle for the smell and wore shoes at all time to protect my feet from the nasty carpet. There were food drippings on the stove, crumbs on the counter, splashes in the sinks, etc. It was GROSS, but the setup was awesome! Full-size fridge with stove/oven, sink, cabinets, counter, pull-out couch in front of a flatscreen TV and a desk chair. Nice color scheme etc. I wasn't given any pillows for the pull-out couch, but at least the sheets for that and the bed appeared to be clean. I used the luggage rack (which prevent bedbugs from infesting your luggage-use it people), and there was a high shelf to hang clothes under. The bathroom was nigh impossible to shut the door once you were inside though since it scraped against the toilet and tub when it opened. Like I said, it was gross, but the features were near ideal. The free breakfast was only one type of granola bar and coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r462044674-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>462044674</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Place</t>
+  </si>
+  <si>
+    <t>A new place tkc call home. Since I have been here the staff has been wonderful helping me in any way they can to make my stay comfortable. I just moved from new York and this is a perfect temporary home. The front desk and manager Priscilla are exceptional. Always quick to help anyone in need. Mr. DAI DAI as well always helps me out with anything. This place is great because of them. If you are in need of a place for the night or long term I would highly suggest you stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>A new place tkc call home. Since I have been here the staff has been wonderful helping me in any way they can to make my stay comfortable. I just moved from new York and this is a perfect temporary home. The front desk and manager Priscilla are exceptional. Always quick to help anyone in need. Mr. DAI DAI as well always helps me out with anything. This place is great because of them. If you are in need of a place for the night or long term I would highly suggest you stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r455753276-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>455753276</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Overcharged after the stay</t>
+  </si>
+  <si>
+    <t>I have been busy, and I am just getting back to writing reviews. My wife and I stayed here for 4 weeks in August for some time near the mountains and family. First off, the bed was pretty good, so I was not fully disappointed. We were in the king suite, but kitchen did not have a microwave. We ended up buying our own. The hotel does allow animals, so that is nice. The location is fantastic as well. When I checked out, I think the girl at the desk didn't check us out on time because she was on the phone and we left a few days early. However, we took our key to the front, told them the room number, said no receipt needed, and she said ok. Then a week or so later I was charged 2 different times. One for 135.72 and another for 150.00. At the time I emailed mgmt, then called a few times. I never received a reply.  Time went on and work got busy, so I just let it go. The place seemed safe but often, the police drove through the parking lot. Pappadeaux is right by the hotel, that was some good food. I ended up paying about 2500 for the 4 weeks that I was there. People were living full time there, so I am sure I was helping subsidize them as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded January 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2017</t>
+  </si>
+  <si>
+    <t>I have been busy, and I am just getting back to writing reviews. My wife and I stayed here for 4 weeks in August for some time near the mountains and family. First off, the bed was pretty good, so I was not fully disappointed. We were in the king suite, but kitchen did not have a microwave. We ended up buying our own. The hotel does allow animals, so that is nice. The location is fantastic as well. When I checked out, I think the girl at the desk didn't check us out on time because she was on the phone and we left a few days early. However, we took our key to the front, told them the room number, said no receipt needed, and she said ok. Then a week or so later I was charged 2 different times. One for 135.72 and another for 150.00. At the time I emailed mgmt, then called a few times. I never received a reply.  Time went on and work got busy, so I just let it go. The place seemed safe but often, the police drove through the parking lot. Pappadeaux is right by the hotel, that was some good food. I ended up paying about 2500 for the 4 weeks that I was there. People were living full time there, so I am sure I was helping subsidize them as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r453619050-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>453619050</t>
+  </si>
+  <si>
+    <t>01/20/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Clean room, very friendly and helpful staff. Shower had a tricky faucet. Plenty of towels provided and fully stocked kitchenette. I saw several poor reviews but we had no issues what so ever. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Clean room, very friendly and helpful staff. Shower had a tricky faucet. Plenty of towels provided and fully stocked kitchenette. I saw several poor reviews but we had no issues what so ever. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r451924134-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>451924134</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>3-Story Walk-up - Avoid this property!</t>
+  </si>
+  <si>
+    <t>Let me start with some positive feedback: 
+1. The staff (not management) is friendly and I believe are trying to provide good service. 
+2. The location of the property is convenient to most of Southern Denver
+3. Parking is adequate and well lit. 
+Don't get the wrong idea though, those are about all of the positive features of this hotel, because this is a warning not a review.  
+The Problems:
+1. The elevator was out of service during my entire stay and other guests of longer term have reported that the elevator's performance has been spotty at best to non-existent over the past two months. 
+2. Guests on the third floor are commonly short changed in terms of cleaning and fresh towels because the clean towels are on the first floor and housekeeping is delayed in bringing them up for service. My room upon checkin only had one towel in the entire room.
+3. Maintenance is either being deferred, not being performed or projects are beginning but not being completed, there are radiator parts in the hall ways, HVAC components are laying on the floor in guest rooms and wiring is exposed from the front of the unit in the room. 
+4. The smoke detector in my first room on the third floor malfunctioned at around 1:00 AM and there was no one at the property or that could be reached capable of disabling it, repairing or otherwise taking action...Let me start with some positive feedback: 1. The staff (not management) is friendly and I believe are trying to provide good service. 2. The location of the property is convenient to most of Southern Denver3. Parking is adequate and well lit. Don't get the wrong idea though, those are about all of the positive features of this hotel, because this is a warning not a review.  The Problems:1. The elevator was out of service during my entire stay and other guests of longer term have reported that the elevator's performance has been spotty at best to non-existent over the past two months. 2. Guests on the third floor are commonly short changed in terms of cleaning and fresh towels because the clean towels are on the first floor and housekeeping is delayed in bringing them up for service. My room upon checkin only had one towel in the entire room.3. Maintenance is either being deferred, not being performed or projects are beginning but not being completed, there are radiator parts in the hall ways, HVAC components are laying on the floor in guest rooms and wiring is exposed from the front of the unit in the room. 4. The smoke detector in my first room on the third floor malfunctioned at around 1:00 AM and there was no one at the property or that could be reached capable of disabling it, repairing or otherwise taking action to stop it. The front desk attendant was actually a housekeeper (which may explain the cleanliness issues on the premises) and was not familiar with how to change rooms. The attendant attempted to contact the General Manager who did not respond during the 45-minutes I was standing in the lobby, finally I was able to get a Reservation line supervisor to walk the employee at the front desk through the process of changing rooms. This was done at my own initiative because the Property's general manager was unresponsive. 5. I left a note at the front desk requesting that the General Manager of the property get in touch with me the next day. As of the writing of this post this has not occurred. 6. I generally have little confidence that l will hear anything back from the General Manager as when I was checking-in to the property, I asked to speak to the General manager, who slammed the office door adjacent to the front desk so as to avoid having to converse with me. 7. I have contacted the guest relations hotline, which is apparently woefully understaffed or the quality (or lack thereof) has led to a huge volume of calls as it took over 25 minutes to speak to a representative and my hold-time for a supervisor was longer still. 8. Finally, while waiting for the general manager during the early morning hours, I was able to look at the staff communication manual, I was interested in a note that read: DO NOT GIVE EXTRA TOWELS TO GUESTS, EVER. This message went on to explain that they would only exchange towels. So remember this hotel is one towel per room so every time you take a shower, wash your face, your hands you'll need to walk from the third floor to the front desk to exchange your towel. Have fun!I hope that this review serves as a warning to any one thinking of staying at this property, I would advise you stay elsewhere there are multiple hotels adjacent with comparable rates. These issues are endemic of terrible management at the hotel that neither values or supports its employees, the maintenance of its property or providing outstanding service to its guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Let me start with some positive feedback: 
+1. The staff (not management) is friendly and I believe are trying to provide good service. 
+2. The location of the property is convenient to most of Southern Denver
+3. Parking is adequate and well lit. 
+Don't get the wrong idea though, those are about all of the positive features of this hotel, because this is a warning not a review.  
+The Problems:
+1. The elevator was out of service during my entire stay and other guests of longer term have reported that the elevator's performance has been spotty at best to non-existent over the past two months. 
+2. Guests on the third floor are commonly short changed in terms of cleaning and fresh towels because the clean towels are on the first floor and housekeeping is delayed in bringing them up for service. My room upon checkin only had one towel in the entire room.
+3. Maintenance is either being deferred, not being performed or projects are beginning but not being completed, there are radiator parts in the hall ways, HVAC components are laying on the floor in guest rooms and wiring is exposed from the front of the unit in the room. 
+4. The smoke detector in my first room on the third floor malfunctioned at around 1:00 AM and there was no one at the property or that could be reached capable of disabling it, repairing or otherwise taking action...Let me start with some positive feedback: 1. The staff (not management) is friendly and I believe are trying to provide good service. 2. The location of the property is convenient to most of Southern Denver3. Parking is adequate and well lit. Don't get the wrong idea though, those are about all of the positive features of this hotel, because this is a warning not a review.  The Problems:1. The elevator was out of service during my entire stay and other guests of longer term have reported that the elevator's performance has been spotty at best to non-existent over the past two months. 2. Guests on the third floor are commonly short changed in terms of cleaning and fresh towels because the clean towels are on the first floor and housekeeping is delayed in bringing them up for service. My room upon checkin only had one towel in the entire room.3. Maintenance is either being deferred, not being performed or projects are beginning but not being completed, there are radiator parts in the hall ways, HVAC components are laying on the floor in guest rooms and wiring is exposed from the front of the unit in the room. 4. The smoke detector in my first room on the third floor malfunctioned at around 1:00 AM and there was no one at the property or that could be reached capable of disabling it, repairing or otherwise taking action to stop it. The front desk attendant was actually a housekeeper (which may explain the cleanliness issues on the premises) and was not familiar with how to change rooms. The attendant attempted to contact the General Manager who did not respond during the 45-minutes I was standing in the lobby, finally I was able to get a Reservation line supervisor to walk the employee at the front desk through the process of changing rooms. This was done at my own initiative because the Property's general manager was unresponsive. 5. I left a note at the front desk requesting that the General Manager of the property get in touch with me the next day. As of the writing of this post this has not occurred. 6. I generally have little confidence that l will hear anything back from the General Manager as when I was checking-in to the property, I asked to speak to the General manager, who slammed the office door adjacent to the front desk so as to avoid having to converse with me. 7. I have contacted the guest relations hotline, which is apparently woefully understaffed or the quality (or lack thereof) has led to a huge volume of calls as it took over 25 minutes to speak to a representative and my hold-time for a supervisor was longer still. 8. Finally, while waiting for the general manager during the early morning hours, I was able to look at the staff communication manual, I was interested in a note that read: DO NOT GIVE EXTRA TOWELS TO GUESTS, EVER. This message went on to explain that they would only exchange towels. So remember this hotel is one towel per room so every time you take a shower, wash your face, your hands you'll need to walk from the third floor to the front desk to exchange your towel. Have fun!I hope that this review serves as a warning to any one thinking of staying at this property, I would advise you stay elsewhere there are multiple hotels adjacent with comparable rates. These issues are endemic of terrible management at the hotel that neither values or supports its employees, the maintenance of its property or providing outstanding service to its guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r434692766-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>434692766</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>good stay experience</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful, the room was clean and very quiet....when i needed replacement items sheets, towels or anything else they were willing to assist....I also liked the pots, plates ect they offer for guestsMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful, the room was clean and very quiet....when i needed replacement items sheets, towels or anything else they were willing to assist....I also liked the pots, plates ect they offer for guestsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r426126453-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>426126453</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Over all a great experience</t>
+  </si>
+  <si>
+    <t>The assistant manager Andre has been great during my stay here. In the process of moving and he and his staff have done a great job making the environment feel like home. I would recommend you stay here if you are needing an extended hotel stay. The rooms were always clean and plus it close to the light rail station. Also great resutrsnts nearby in the area. Thank you Andre and your staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>The assistant manager Andre has been great during my stay here. In the process of moving and he and his staff have done a great job making the environment feel like home. I would recommend you stay here if you are needing an extended hotel stay. The rooms were always clean and plus it close to the light rail station. Also great resutrsnts nearby in the area. Thank you Andre and your staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r407203207-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>407203207</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Worst experience Ive had ever!!!</t>
+  </si>
+  <si>
+    <t>Staff was horrible, bad attitudes, didnt know what they were doing. Checked in was given key cards to wrong room, then was given key to someone else's room and finally was given a room that smelled so bad of smoke and was DIRTY.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2016</t>
+  </si>
+  <si>
+    <t>Staff was horrible, bad attitudes, didnt know what they were doing. Checked in was given key cards to wrong room, then was given key to someone else's room and finally was given a room that smelled so bad of smoke and was DIRTY.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r396641215-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>396641215</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>rwg july2016</t>
+  </si>
+  <si>
+    <t>This location, without a doubt, was the worst motel I have ever stayed in, over the past 35 plus years.  No kitchen utensils, glasses, plates &amp; etc., nor any bath towels.  The room smelled like a dirty &amp; wet ash tray, even after the room was marked as a non-smoking room, with an additional fee for smokers if caught.   Since the alarm clock would not ring for a wake up alert, I attempted to contacted the desk and they never answered after 3 attempts over a 40 minute period.    PS: not even a microwave was in the unit, nor available.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>This location, without a doubt, was the worst motel I have ever stayed in, over the past 35 plus years.  No kitchen utensils, glasses, plates &amp; etc., nor any bath towels.  The room smelled like a dirty &amp; wet ash tray, even after the room was marked as a non-smoking room, with an additional fee for smokers if caught.   Since the alarm clock would not ring for a wake up alert, I attempted to contacted the desk and they never answered after 3 attempts over a 40 minute period.    PS: not even a microwave was in the unit, nor available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r393266290-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>393266290</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Extended hospitality</t>
+  </si>
+  <si>
+    <t>Andre Montgomery has been above and beyond in helping me with my stay. Thoroughly this tough time and having him on my side had been a great help and burden lifted of my shoulders. So if you stay here. All the staff is very wonderful and they will be more then welcome to help with any of the needs traveling, will burden you with.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Andre Montgomery has been above and beyond in helping me with my stay. Thoroughly this tough time and having him on my side had been a great help and burden lifted of my shoulders. So if you stay here. All the staff is very wonderful and they will be more then welcome to help with any of the needs traveling, will burden you with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r391491341-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>391491341</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>5 star treatment all the way around!!</t>
+  </si>
+  <si>
+    <t>This was by far the most pleasant stay away from home that my family has ever had!! We have stayed at several extended stays throughout Denver, such as Crossland, Intown, ect and this extended stay of America by far surpasses them all!! Amazing hospitality through and through!! During our stay Andre and Alicia made us feel like "family" and were more than happy to make us feel at home!! From the cleanliness of the room and property to the convenience of location, this place won't let you down!! Exceptional value!! We will never stay anywhere else!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2016</t>
+  </si>
+  <si>
+    <t>This was by far the most pleasant stay away from home that my family has ever had!! We have stayed at several extended stays throughout Denver, such as Crossland, Intown, ect and this extended stay of America by far surpasses them all!! Amazing hospitality through and through!! During our stay Andre and Alicia made us feel like "family" and were more than happy to make us feel at home!! From the cleanliness of the room and property to the convenience of location, this place won't let you down!! Exceptional value!! We will never stay anywhere else!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r381454962-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>381454962</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>Had a blast great place to stay..Friendly people. Came for cousins wedding and another hotel down the street was overbooked so they told us to go across the street. Better choice. Much nicer staff. All in all check in process was almost two hours. An hour and a half spent at the first hotel before they told us we could not stay or check in because the hotel was overbooked. 15 minutes to get checked in to the hotel across the street. I will always recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Had a blast great place to stay..Friendly people. Came for cousins wedding and another hotel down the street was overbooked so they told us to go across the street. Better choice. Much nicer staff. All in all check in process was almost two hours. An hour and a half spent at the first hotel before they told us we could not stay or check in because the hotel was overbooked. 15 minutes to get checked in to the hotel across the street. I will always recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r378437701-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>378437701</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Wonderful program for cancer patienta</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here the past month, while she has undergone chemo and daily radiation at the Anschutz Cancer Center during the week. Arrangements for our room were made through the American Cancer Society. Andre and the staff have taken good care of us. Our room is a little dated, but clean and the bed is comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here the past month, while she has undergone chemo and daily radiation at the Anschutz Cancer Center during the week. Arrangements for our room were made through the American Cancer Society. Andre and the staff have taken good care of us. Our room is a little dated, but clean and the bed is comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r377195391-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>377195391</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>The best in the area!</t>
+  </si>
+  <si>
+    <t>Checking in here was a breeze and and supprisingly enjoyable. After a long day the staff were all so friendly and eager to help you settle in comfortably. Ayub in particular was a joy to work with but the entire staff was pleasant.Our room was very spacious and homie with a full fridge, stove and dish washer! I was pleased to wake up to muffins and coffee provided by the office and watch the news. BEST EXTENDED STAY LOCATION!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Checking in here was a breeze and and supprisingly enjoyable. After a long day the staff were all so friendly and eager to help you settle in comfortably. Ayub in particular was a joy to work with but the entire staff was pleasant.Our room was very spacious and homie with a full fridge, stove and dish washer! I was pleased to wake up to muffins and coffee provided by the office and watch the news. BEST EXTENDED STAY LOCATION!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r349216217-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>349216217</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Extended Stay In Greenwood Village</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at the Extended Stay America - Denver - Tech Center - Central from the beginning of January through February 19, 2016.I found the accommodations clean and comfortable and the staff friendly and always helpful.I recommend this location to my fellow business travelers seeking an extended stay in the Denver - Aurora area at an affordable rate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r301817331-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>301817331</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Horrific. Avoid this place at all costs! Please don't stay here.</t>
+  </si>
+  <si>
+    <t>I could not believe how terrible this hotel was. Upon opening the door we were greeted with a thick smoke smell that was almost unbearable.  The room was absolutely filthy; carpets, walls, furniture.  Everything. There was one towel in the bathroom and no soaps or anything like that. There was only one cup in the kitchen.  To top it all off we found a box of handgun ammunition between the mattress and box spring! What kind of hotel is this?! Booked through Hotwire and it wasn't cheap but not too expensive so normally I'd say , "you get what you pay for" but this was beyond bad. In order to get towels we had to walk to the main office and waited about 20 minutes to get them.  While there I had the chance to hear some other horror stories from other guest. One gentleman who was staying for an extended period of time said he had to go to the office every night because his room key would reset at 11pm and every night and lock him out. This hotel is an absolute joke. Do yourself a favor and just pay the extra money for a decent hotel in this area. Note: I don't think I'll ever use Hotwire again because of this.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>I could not believe how terrible this hotel was. Upon opening the door we were greeted with a thick smoke smell that was almost unbearable.  The room was absolutely filthy; carpets, walls, furniture.  Everything. There was one towel in the bathroom and no soaps or anything like that. There was only one cup in the kitchen.  To top it all off we found a box of handgun ammunition between the mattress and box spring! What kind of hotel is this?! Booked through Hotwire and it wasn't cheap but not too expensive so normally I'd say , "you get what you pay for" but this was beyond bad. In order to get towels we had to walk to the main office and waited about 20 minutes to get them.  While there I had the chance to hear some other horror stories from other guest. One gentleman who was staying for an extended period of time said he had to go to the office every night because his room key would reset at 11pm and every night and lock him out. This hotel is an absolute joke. Do yourself a favor and just pay the extra money for a decent hotel in this area. Note: I don't think I'll ever use Hotwire again because of this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r301587795-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>301587795</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Worst place I've ever stayed</t>
+  </si>
+  <si>
+    <t>This is an extended stay hotel, that claims kitchenettes that are stocked, but aren't. If you need more than one roll of toilet paper you have to go to the office, or extra towels, go to the office, or cups, or glasses, go to the office. If you  stay less than a week there is no maid service, if you stay for personal reasons you are put on the highway side of the building. There is trash lying around the place in numerous places that hasn't bee picked up in the four days we've been here. I have pictures. For the person who says there are worse, I'll have to keep looking. The WI-FI is throttled, so you'll order the faster data rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an extended stay hotel, that claims kitchenettes that are stocked, but aren't. If you need more than one roll of toilet paper you have to go to the office, or extra towels, go to the office, or cups, or glasses, go to the office. If you  stay less than a week there is no maid service, if you stay for personal reasons you are put on the highway side of the building. There is trash lying around the place in numerous places that hasn't bee picked up in the four days we've been here. I have pictures. For the person who says there are worse, I'll have to keep looking. The WI-FI is throttled, so you'll order the faster data rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r298430612-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>298430612</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Poor, but there is worse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor service. Treat different customers differently. Made me wait an hour in the lobby to check in, even though my room was ready. Watched multiple others get checked in prior to 3. Multiple times waited in the lobby, during the middle of the day with nobody working the desk. Rooms were tolerable. Probably a 6/10. No kitchen towels. No kitchen appliances. Multiple microwaves, but neither with all the parts. Dish washer is pretty torn up. Most of the workers were pleasant.. One particular little man was very rude. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r296752913-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>296752913</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Stay AWAY!</t>
+  </si>
+  <si>
+    <t>The first room was a little dirty and not well maintained.  The AC did not work at all.  The room had an overwhelming smell of smoke and cleaner to try and cover it.  I was told by staff they couldn't not smell it but it was so bad I had to wait outside until I could be moved to another room (which they did promptly).  The second room had a slight smell but at least a working AC, it also had a poorly fitted door, as in I could clearly see the daylight coming in, so therefore little sound and/or weather barrier. Plus I did not feel the safest.  At this point I figured I probably couldn't do much better so I kept it.  However my PJs smelled of smoky/musky smell when I took it out to wash once home.  In both rooms there were stains on the carpet (worse in the first), the second room had a good part of the couch fabric torn off and a horrible job of trying to cover it up.  There was dust on certain appliances and areas around the room, shoveling falling out of the wall, and nothing supplied in the kitchenette.  In addition, the internet did not work so I couldn't even work.  I also entered in a promo code when booking but was told when checking in that if would not apply until after I checked out.  I still need to...The first room was a little dirty and not well maintained.  The AC did not work at all.  The room had an overwhelming smell of smoke and cleaner to try and cover it.  I was told by staff they couldn't not smell it but it was so bad I had to wait outside until I could be moved to another room (which they did promptly).  The second room had a slight smell but at least a working AC, it also had a poorly fitted door, as in I could clearly see the daylight coming in, so therefore little sound and/or weather barrier. Plus I did not feel the safest.  At this point I figured I probably couldn't do much better so I kept it.  However my PJs smelled of smoky/musky smell when I took it out to wash once home.  In both rooms there were stains on the carpet (worse in the first), the second room had a good part of the couch fabric torn off and a horrible job of trying to cover it up.  There was dust on certain appliances and areas around the room, shoveling falling out of the wall, and nothing supplied in the kitchenette.  In addition, the internet did not work so I couldn't even work.  I also entered in a promo code when booking but was told when checking in that if would not apply until after I checked out.  I still need to check my bill but wouldn't be surprise if they charged the full amount.  The only reason why I stayed was due to my relocation budget otherwise I would have just "eaten" the cost and stayed someplace else if I could.MoreShow less</t>
+  </si>
+  <si>
+    <t>The first room was a little dirty and not well maintained.  The AC did not work at all.  The room had an overwhelming smell of smoke and cleaner to try and cover it.  I was told by staff they couldn't not smell it but it was so bad I had to wait outside until I could be moved to another room (which they did promptly).  The second room had a slight smell but at least a working AC, it also had a poorly fitted door, as in I could clearly see the daylight coming in, so therefore little sound and/or weather barrier. Plus I did not feel the safest.  At this point I figured I probably couldn't do much better so I kept it.  However my PJs smelled of smoky/musky smell when I took it out to wash once home.  In both rooms there were stains on the carpet (worse in the first), the second room had a good part of the couch fabric torn off and a horrible job of trying to cover it up.  There was dust on certain appliances and areas around the room, shoveling falling out of the wall, and nothing supplied in the kitchenette.  In addition, the internet did not work so I couldn't even work.  I also entered in a promo code when booking but was told when checking in that if would not apply until after I checked out.  I still need to...The first room was a little dirty and not well maintained.  The AC did not work at all.  The room had an overwhelming smell of smoke and cleaner to try and cover it.  I was told by staff they couldn't not smell it but it was so bad I had to wait outside until I could be moved to another room (which they did promptly).  The second room had a slight smell but at least a working AC, it also had a poorly fitted door, as in I could clearly see the daylight coming in, so therefore little sound and/or weather barrier. Plus I did not feel the safest.  At this point I figured I probably couldn't do much better so I kept it.  However my PJs smelled of smoky/musky smell when I took it out to wash once home.  In both rooms there were stains on the carpet (worse in the first), the second room had a good part of the couch fabric torn off and a horrible job of trying to cover it up.  There was dust on certain appliances and areas around the room, shoveling falling out of the wall, and nothing supplied in the kitchenette.  In addition, the internet did not work so I couldn't even work.  I also entered in a promo code when booking but was told when checking in that if would not apply until after I checked out.  I still need to check my bill but wouldn't be surprise if they charged the full amount.  The only reason why I stayed was due to my relocation budget otherwise I would have just "eaten" the cost and stayed someplace else if I could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r290901320-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>290901320</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Everything about this hotel was kinda an afterthought</t>
+  </si>
+  <si>
+    <t>The customer service was awful, the room was semi-clean, and the bathroom was horrible! The toilet was not cleaned but heavily used, the water pressure was non-existent, and you either got HOT scalding water or freezing water. Also the "fitness" room was just an empty spare room with two work out machines tossed in there.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>The customer service was awful, the room was semi-clean, and the bathroom was horrible! The toilet was not cleaned but heavily used, the water pressure was non-existent, and you either got HOT scalding water or freezing water. Also the "fitness" room was just an empty spare room with two work out machines tossed in there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r281841358-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>281841358</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>The customer service is awful</t>
+  </si>
+  <si>
+    <t>I called to speak with someone about getting my discounts applied after checkout. The woman at the front desk was rude to me and hung up on me and wouldn't let me talk to the manager. So who knows if I'll ever get my discounts.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r277817947-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>277817947</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>The worst place I've stayed in in my life</t>
+  </si>
+  <si>
+    <t>I've always stayed in extended stay in different city but was completely in shock to see how this location was being maintained. I could have stayed at motel 6 and probably received better service. Room was not clean. Bed sheets looked filthy and the white sheets were grey. I couldn't get myself to sleep in the sheets because I didn't know the status of what year they were cleaned in. There was no phone in our room. Carpet had dirt all over. They don't provide you with the local number... So if you want to reach management.... Good luck. I would urge all my friends and family Never tocome here! Soo gross!MoreShow less</t>
+  </si>
+  <si>
+    <t>I've always stayed in extended stay in different city but was completely in shock to see how this location was being maintained. I could have stayed at motel 6 and probably received better service. Room was not clean. Bed sheets looked filthy and the white sheets were grey. I couldn't get myself to sleep in the sheets because I didn't know the status of what year they were cleaned in. There was no phone in our room. Carpet had dirt all over. They don't provide you with the local number... So if you want to reach management.... Good luck. I would urge all my friends and family Never tocome here! Soo gross!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r273833587-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>273833587</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>"RECENTLY RENOVATED??" Don't Believe It!</t>
+  </si>
+  <si>
+    <t>First, let me start by saying, all of these negative reviews seem to have NO effect on management, because this "hotel" is still terribly run! I was looking forward to staying at this location because they claim to be "recently renovated." Riiiight. I guess putting in a flat-screen tv(that only has small a handful of channels)qualifies as "renovated." I'm not sure if every ESA is managed like this location, but if so, my family will NEVER give our business to another one. Unfortunately, we're currently stuck here, waiting for our new home to be ready. However we will be checking out in a couple days, and finding a cleaner, better managed hotel to stay in. The day after our arrival, my husband noticed we were already charged for the room, when they clearly state credit cards will be charged upon check-out. We were also overcharged. When questioning this, the girl at the front desk gave him the run-around, &amp; said we were mistaken about the price. Customer service at its finest! ESA states every room comes equipped with cutlery, cookware &amp; utensils. What they Don't say is you have to hunt someone down for this stuff, &amp; lug it back to your room yourself! I tried calling "0" on the in-room phone for assistance, &amp; after 10 mins of silence (I had to make sure a few times someone was still on the other end), I was told,"I made a...First, let me start by saying, all of these negative reviews seem to have NO effect on management, because this "hotel" is still terribly run! I was looking forward to staying at this location because they claim to be "recently renovated." Riiiight. I guess putting in a flat-screen tv(that only has small a handful of channels)qualifies as "renovated." I'm not sure if every ESA is managed like this location, but if so, my family will NEVER give our business to another one. Unfortunately, we're currently stuck here, waiting for our new home to be ready. However we will be checking out in a couple days, and finding a cleaner, better managed hotel to stay in. The day after our arrival, my husband noticed we were already charged for the room, when they clearly state credit cards will be charged upon check-out. We were also overcharged. When questioning this, the girl at the front desk gave him the run-around, &amp; said we were mistaken about the price. Customer service at its finest! ESA states every room comes equipped with cutlery, cookware &amp; utensils. What they Don't say is you have to hunt someone down for this stuff, &amp; lug it back to your room yourself! I tried calling "0" on the in-room phone for assistance, &amp; after 10 mins of silence (I had to make sure a few times someone was still on the other end), I was told,"I made a ticket for you, &amp; when someone returns to the front desk, they will help you." 3 days later, I'm still waiting! However, given the old &amp; dirty condition of everything else here, im no longer interested in using any cookware from this place! I'm questioning whether our room was even cleaned before our arrival, because there are long black hairs around the kitchen &amp; bathroom sinks &amp; in the bathtub-along with a nasty shower head &amp; dirty ring around the drain! There's old spaghetti on the floor, near the fridge that has dents all over it. Dirty counters &amp; kitchen table, vinyl pull-out couch with stains on back cushions(I won't pull out the bed due to fear of what I'll find)! The "Free" WiFi is straight from the dial-up days, but we can upgrade "for a fee." Carpets are stained, we have to get our own towels, &amp; toiletries consist of 2 small bars of soap! Breakfast consists of 2 kinds of crunchy granola bars, oatmeal packets, an apple or orange, muffins before 7 a.m., &amp; coffee without real milk to put in it. Also, the police were 2 doors down 3 times in 1 day(restraining order issues &amp; drug interrogation), resulting in 2 arrests. When my husband brought our concerns to the front desk, he was told, "That was just a one-time occurrence." Not from other reviews I'm now reading about this place!  The saddest part of all this: I don't expect ANY kind of attention, resolution or refund from Management. Unless you count the "apology" response from "Management" after every poor review on this site, as a resolution...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>First, let me start by saying, all of these negative reviews seem to have NO effect on management, because this "hotel" is still terribly run! I was looking forward to staying at this location because they claim to be "recently renovated." Riiiight. I guess putting in a flat-screen tv(that only has small a handful of channels)qualifies as "renovated." I'm not sure if every ESA is managed like this location, but if so, my family will NEVER give our business to another one. Unfortunately, we're currently stuck here, waiting for our new home to be ready. However we will be checking out in a couple days, and finding a cleaner, better managed hotel to stay in. The day after our arrival, my husband noticed we were already charged for the room, when they clearly state credit cards will be charged upon check-out. We were also overcharged. When questioning this, the girl at the front desk gave him the run-around, &amp; said we were mistaken about the price. Customer service at its finest! ESA states every room comes equipped with cutlery, cookware &amp; utensils. What they Don't say is you have to hunt someone down for this stuff, &amp; lug it back to your room yourself! I tried calling "0" on the in-room phone for assistance, &amp; after 10 mins of silence (I had to make sure a few times someone was still on the other end), I was told,"I made a...First, let me start by saying, all of these negative reviews seem to have NO effect on management, because this "hotel" is still terribly run! I was looking forward to staying at this location because they claim to be "recently renovated." Riiiight. I guess putting in a flat-screen tv(that only has small a handful of channels)qualifies as "renovated." I'm not sure if every ESA is managed like this location, but if so, my family will NEVER give our business to another one. Unfortunately, we're currently stuck here, waiting for our new home to be ready. However we will be checking out in a couple days, and finding a cleaner, better managed hotel to stay in. The day after our arrival, my husband noticed we were already charged for the room, when they clearly state credit cards will be charged upon check-out. We were also overcharged. When questioning this, the girl at the front desk gave him the run-around, &amp; said we were mistaken about the price. Customer service at its finest! ESA states every room comes equipped with cutlery, cookware &amp; utensils. What they Don't say is you have to hunt someone down for this stuff, &amp; lug it back to your room yourself! I tried calling "0" on the in-room phone for assistance, &amp; after 10 mins of silence (I had to make sure a few times someone was still on the other end), I was told,"I made a ticket for you, &amp; when someone returns to the front desk, they will help you." 3 days later, I'm still waiting! However, given the old &amp; dirty condition of everything else here, im no longer interested in using any cookware from this place! I'm questioning whether our room was even cleaned before our arrival, because there are long black hairs around the kitchen &amp; bathroom sinks &amp; in the bathtub-along with a nasty shower head &amp; dirty ring around the drain! There's old spaghetti on the floor, near the fridge that has dents all over it. Dirty counters &amp; kitchen table, vinyl pull-out couch with stains on back cushions(I won't pull out the bed due to fear of what I'll find)! The "Free" WiFi is straight from the dial-up days, but we can upgrade "for a fee." Carpets are stained, we have to get our own towels, &amp; toiletries consist of 2 small bars of soap! Breakfast consists of 2 kinds of crunchy granola bars, oatmeal packets, an apple or orange, muffins before 7 a.m., &amp; coffee without real milk to put in it. Also, the police were 2 doors down 3 times in 1 day(restraining order issues &amp; drug interrogation), resulting in 2 arrests. When my husband brought our concerns to the front desk, he was told, "That was just a one-time occurrence." Not from other reviews I'm now reading about this place!  The saddest part of all this: I don't expect ANY kind of attention, resolution or refund from Management. Unless you count the "apology" response from "Management" after every poor review on this site, as a resolution...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r254305769-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>254305769</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Newly renovation via painting over all the old bad</t>
+  </si>
+  <si>
+    <t>This has to be the worst place I have ever stayed! My room was a train wreck of problems, from the door not shutting unless you slammed it, to the TV not turning to a watchable spot because the TV cable was far to short, the kitchen was worse than horrible! The fridge looked like they picked it up off the freeway after it fell off a truck, to the freezer not working at all, the burners on the stove stuck up at crazy angles, the cabinets were seriously water damaged inside, and one of the doors was hung crooked! All of the caulking around everything was cracked and falling out, the desk/table was falling off the wall, the water pressure in the bathroom was a joke. Don't stay here! This hotel is more suited to a skid row by the hour than extended staying! MoreShow less</t>
+  </si>
+  <si>
+    <t>This has to be the worst place I have ever stayed! My room was a train wreck of problems, from the door not shutting unless you slammed it, to the TV not turning to a watchable spot because the TV cable was far to short, the kitchen was worse than horrible! The fridge looked like they picked it up off the freeway after it fell off a truck, to the freezer not working at all, the burners on the stove stuck up at crazy angles, the cabinets were seriously water damaged inside, and one of the doors was hung crooked! All of the caulking around everything was cracked and falling out, the desk/table was falling off the wall, the water pressure in the bathroom was a joke. Don't stay here! This hotel is more suited to a skid row by the hour than extended staying! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r253735060-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>253735060</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t>Bait and Switch Be Careful</t>
+  </si>
+  <si>
+    <t>Don't stay at this hotel, danger danger, warning. Upon attempting to check into this hotel I was informed by the manager that they had been overbooked and that she had to give my room to another patron which was as good as saying I'm getting a higher price from this other reservation. She told me to sit on the couch and call Expedia and that they would take care of my problem in a few minutes. Two and half hours later, fuming, and really thinking why was this my problem I had a confirmed reservation and confirmation number. The manager of the hotel flitted off and left her employee to the mercy of my dissatisfaction. If you want to be certain of a reservation with a confirmation number from a travel service use another hotel. This experience was atrocious.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Don't stay at this hotel, danger danger, warning. Upon attempting to check into this hotel I was informed by the manager that they had been overbooked and that she had to give my room to another patron which was as good as saying I'm getting a higher price from this other reservation. She told me to sit on the couch and call Expedia and that they would take care of my problem in a few minutes. Two and half hours later, fuming, and really thinking why was this my problem I had a confirmed reservation and confirmation number. The manager of the hotel flitted off and left her employee to the mercy of my dissatisfaction. If you want to be certain of a reservation with a confirmation number from a travel service use another hotel. This experience was atrocious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r251504182-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>251504182</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>This I know as TRUTH</t>
+  </si>
+  <si>
+    <t>I highly recommend this location; the rooms were IMMACULATELY clean; do NOT make the mistake of going to the other one down the road. I was extremely impressed with the Extended Stay manager - BRANDI TANNER. She was patient with us as we changed our mind about room size after we already "moved in" to a room; she never showed anything but a POSITIVE attitude; I witnessed her many times show compassion to a few of the residents; Brandi is the quality manager example that all others should be measured by - TRUTH</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r227769627-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>227769627</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Should tear this place down</t>
+  </si>
+  <si>
+    <t>Started with reservations... we wanted a nonsmoking right from the start, when made reservations through a 3rd party about 1 month before travel, was smoking &amp;  NOT Nonsmoking as requested. Called the hotel directly to correct immediately , was told it would cost more, complained and then was hung up on at the hotel. Did not get the room promised, filed a complaint with corporate and was upgraded to an even better room at the same rate.We called and confirmed 13 hrs. prior to arrival and they could have said something then! But when we arrived, they first put us into a filthy room that was not what was promised, the bed was made, but counters were dirty, dried food on the couch and MOLD in the ice maker Room 213. Put us in a smoking room and promised to make things right the next day (this was around midnight and we had been driving 13 hrs) Brandi tried to make things right, but in fact could not give us the room promised. She comped to room stay for which I appreciate her efforts. But the condition of this hotel is just too dilapidated and needs a complete refurbishing. The microwave didn't work , you have to make your own ice as they don't have an ice machine, and you have to ask for and tote any kitchen utensils, glasses  or plates, cups yourself. The internet is free - but...Started with reservations... we wanted a nonsmoking right from the start, when made reservations through a 3rd party about 1 month before travel, was smoking &amp;  NOT Nonsmoking as requested. Called the hotel directly to correct immediately , was told it would cost more, complained and then was hung up on at the hotel. Did not get the room promised, filed a complaint with corporate and was upgraded to an even better room at the same rate.We called and confirmed 13 hrs. prior to arrival and they could have said something then! But when we arrived, they first put us into a filthy room that was not what was promised, the bed was made, but counters were dirty, dried food on the couch and MOLD in the ice maker Room 213. Put us in a smoking room and promised to make things right the next day (this was around midnight and we had been driving 13 hrs) Brandi tried to make things right, but in fact could not give us the room promised. She comped to room stay for which I appreciate her efforts. But the condition of this hotel is just too dilapidated and needs a complete refurbishing. The microwave didn't work , you have to make your own ice as they don't have an ice machine, and you have to ask for and tote any kitchen utensils, glasses  or plates, cups yourself. The internet is free - but it's slower than dial up- but they will "upgrade" for a fee!!! The grab and go breakfast is a ?? didn't use but only very little bit.. don't think you get a "free breakfast". WE were in Denver to move our son into his freshman dorm. He "escaped" on day two... but we were unable to get out of this "deal".  I would recommend another hotel by any means.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Started with reservations... we wanted a nonsmoking right from the start, when made reservations through a 3rd party about 1 month before travel, was smoking &amp;  NOT Nonsmoking as requested. Called the hotel directly to correct immediately , was told it would cost more, complained and then was hung up on at the hotel. Did not get the room promised, filed a complaint with corporate and was upgraded to an even better room at the same rate.We called and confirmed 13 hrs. prior to arrival and they could have said something then! But when we arrived, they first put us into a filthy room that was not what was promised, the bed was made, but counters were dirty, dried food on the couch and MOLD in the ice maker Room 213. Put us in a smoking room and promised to make things right the next day (this was around midnight and we had been driving 13 hrs) Brandi tried to make things right, but in fact could not give us the room promised. She comped to room stay for which I appreciate her efforts. But the condition of this hotel is just too dilapidated and needs a complete refurbishing. The microwave didn't work , you have to make your own ice as they don't have an ice machine, and you have to ask for and tote any kitchen utensils, glasses  or plates, cups yourself. The internet is free - but...Started with reservations... we wanted a nonsmoking right from the start, when made reservations through a 3rd party about 1 month before travel, was smoking &amp;  NOT Nonsmoking as requested. Called the hotel directly to correct immediately , was told it would cost more, complained and then was hung up on at the hotel. Did not get the room promised, filed a complaint with corporate and was upgraded to an even better room at the same rate.We called and confirmed 13 hrs. prior to arrival and they could have said something then! But when we arrived, they first put us into a filthy room that was not what was promised, the bed was made, but counters were dirty, dried food on the couch and MOLD in the ice maker Room 213. Put us in a smoking room and promised to make things right the next day (this was around midnight and we had been driving 13 hrs) Brandi tried to make things right, but in fact could not give us the room promised. She comped to room stay for which I appreciate her efforts. But the condition of this hotel is just too dilapidated and needs a complete refurbishing. The microwave didn't work , you have to make your own ice as they don't have an ice machine, and you have to ask for and tote any kitchen utensils, glasses  or plates, cups yourself. The internet is free - but it's slower than dial up- but they will "upgrade" for a fee!!! The grab and go breakfast is a ?? didn't use but only very little bit.. don't think you get a "free breakfast". WE were in Denver to move our son into his freshman dorm. He "escaped" on day two... but we were unable to get out of this "deal".  I would recommend another hotel by any means.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r226185884-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>226185884</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Stay Away From This Place</t>
+  </si>
+  <si>
+    <t>The reservation was for 4 people and the room was described as having a queen bed and a sofa bed. There were two pillows in the room and when I went to the front desk to ask for some more I was told they didn't have anymore pillows. The woman at the desk told me that all of the other quests had already gotten them all. I also had to ask for bedding for the sofa bed. When I unfolded the blanket they had given me, droppings of some kind were in the blanket. The ammenities described were not present. There were people hanging out around the motel. I would not recommend this motel and was given my money back. Worst motel experience of my life.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>The reservation was for 4 people and the room was described as having a queen bed and a sofa bed. There were two pillows in the room and when I went to the front desk to ask for some more I was told they didn't have anymore pillows. The woman at the desk told me that all of the other quests had already gotten them all. I also had to ask for bedding for the sofa bed. When I unfolded the blanket they had given me, droppings of some kind were in the blanket. The ammenities described were not present. There were people hanging out around the motel. I would not recommend this motel and was given my money back. Worst motel experience of my life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r223306435-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>223306435</t>
+  </si>
+  <si>
+    <t>08/20/2014</t>
+  </si>
+  <si>
+    <t>Don't you dare...</t>
+  </si>
+  <si>
+    <t>I am a college student from Milwaukee attending school here in CO. My mom and I arrived at the hotel (of which I had not picked no offense to my parents) and the check in process took a long time due to inexperienced employees. We get our room and go to the second floor with our luggage. Upon opening the door a deep stale smell of cigarette smoke came from the room. Cabinets were left open, the AC only blasted hot air, and the pull out bed was one of the grossest and poorly maintained beds of all time. So we finally went back to the desk and requested a new room. A lot of hassle and it's just not worth the price. Very bad experience here, pay a little extra to not stay at this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a college student from Milwaukee attending school here in CO. My mom and I arrived at the hotel (of which I had not picked no offense to my parents) and the check in process took a long time due to inexperienced employees. We get our room and go to the second floor with our luggage. Upon opening the door a deep stale smell of cigarette smoke came from the room. Cabinets were left open, the AC only blasted hot air, and the pull out bed was one of the grossest and poorly maintained beds of all time. So we finally went back to the desk and requested a new room. A lot of hassle and it's just not worth the price. Very bad experience here, pay a little extra to not stay at this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r220846907-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>220846907</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Big disappointment</t>
+  </si>
+  <si>
+    <t>This is the worst Extended Care America I have ever stayed in.  Dirty, old and rundown, with sleazy looking people hanging around outside.  Ashtrays in corridors overflowing with old cigarette butts.  No wash cloths, cups or dishes of any kind in the kitchen.  Bedspreads stained and dirty.  Carpets gummy.  Room smelled bad!  Never stay here again and doubt that ECA will get my business again, no matter where!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r218233986-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>218233986</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Warning Do Not Stay Here!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For newly renovated it is very lackluster. Someone had smoked in our room and it reaked. No toilet paper, towles or wash clothes were left in the room.  Had to go back twice just to get towles. The beds here are as stiff as a board. The rest of our family showed uo the next day and had the reservations all messed up. I would not recommend this place or any of their other properties. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r217064797-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>217064797</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Weekend started with credit card fraud, ended with overcharges.</t>
+  </si>
+  <si>
+    <t>Arrive early morning with a reservation from the night before to find that my reservation has already been filled by someone else and using my credit card information.  The front desk staff asks what I think she should do and I say, of course, 'Call the police'.  That doesn't happen.  She gets me a different room and then proceeds to disbelieve the total on my reservation, and so charges me the wrong amount for my stay.  I will have to wait for a chargeback to fix the problem apparently.  This alone would make for a terrible rating.
+I get into the room, and find through the course of that night that the air conditioner doesn't work and it's the hottest week in July.  We end up spending the night with the door open to try and get cool air in.  At least the place was clean.  The next day we report the air conditioning problem to the front desk and they say they'll have someone come look at it, and the man came by and reported through broken english that it was fixed.  It was not.  At the front desk they then moved us into a different room which finally had working air conditioning.  At least that night I was able to get sleep.  
+Unfortunately, the story didn't end there.  I needed toiletries, and they were out for the entire hotel.  Toiletries seems like a minor thing, and it is,...Arrive early morning with a reservation from the night before to find that my reservation has already been filled by someone else and using my credit card information.  The front desk staff asks what I think she should do and I say, of course, 'Call the police'.  That doesn't happen.  She gets me a different room and then proceeds to disbelieve the total on my reservation, and so charges me the wrong amount for my stay.  I will have to wait for a chargeback to fix the problem apparently.  This alone would make for a terrible rating.I get into the room, and find through the course of that night that the air conditioner doesn't work and it's the hottest week in July.  We end up spending the night with the door open to try and get cool air in.  At least the place was clean.  The next day we report the air conditioning problem to the front desk and they say they'll have someone come look at it, and the man came by and reported through broken english that it was fixed.  It was not.  At the front desk they then moved us into a different room which finally had working air conditioning.  At least that night I was able to get sleep.  Unfortunately, the story didn't end there.  I needed toiletries, and they were out for the entire hotel.  Toiletries seems like a minor thing, and it is, but I would point out that they're not exactly perishable.  For an entire hotel to run out of toiletries speaks to a level of incompetence that is downright bizarre.  Finally after it was all said and done, I find that the chargeback for the previous wrong amount, was also at an incorrect amount.  They still owe me money.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Arrive early morning with a reservation from the night before to find that my reservation has already been filled by someone else and using my credit card information.  The front desk staff asks what I think she should do and I say, of course, 'Call the police'.  That doesn't happen.  She gets me a different room and then proceeds to disbelieve the total on my reservation, and so charges me the wrong amount for my stay.  I will have to wait for a chargeback to fix the problem apparently.  This alone would make for a terrible rating.
+I get into the room, and find through the course of that night that the air conditioner doesn't work and it's the hottest week in July.  We end up spending the night with the door open to try and get cool air in.  At least the place was clean.  The next day we report the air conditioning problem to the front desk and they say they'll have someone come look at it, and the man came by and reported through broken english that it was fixed.  It was not.  At the front desk they then moved us into a different room which finally had working air conditioning.  At least that night I was able to get sleep.  
+Unfortunately, the story didn't end there.  I needed toiletries, and they were out for the entire hotel.  Toiletries seems like a minor thing, and it is,...Arrive early morning with a reservation from the night before to find that my reservation has already been filled by someone else and using my credit card information.  The front desk staff asks what I think she should do and I say, of course, 'Call the police'.  That doesn't happen.  She gets me a different room and then proceeds to disbelieve the total on my reservation, and so charges me the wrong amount for my stay.  I will have to wait for a chargeback to fix the problem apparently.  This alone would make for a terrible rating.I get into the room, and find through the course of that night that the air conditioner doesn't work and it's the hottest week in July.  We end up spending the night with the door open to try and get cool air in.  At least the place was clean.  The next day we report the air conditioning problem to the front desk and they say they'll have someone come look at it, and the man came by and reported through broken english that it was fixed.  It was not.  At the front desk they then moved us into a different room which finally had working air conditioning.  At least that night I was able to get sleep.  Unfortunately, the story didn't end there.  I needed toiletries, and they were out for the entire hotel.  Toiletries seems like a minor thing, and it is, but I would point out that they're not exactly perishable.  For an entire hotel to run out of toiletries speaks to a level of incompetence that is downright bizarre.  Finally after it was all said and done, I find that the chargeback for the previous wrong amount, was also at an incorrect amount.  They still owe me money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r206973550-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>206973550</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>There was toothpaste on the sink &amp; mirror. The table/counter was sticky. The sheets didn't look clean. The room smelled of stale smoke &amp; air freshener. The other guests were more like residents living at the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r205867777-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>205867777</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Worst I have seen so far</t>
+  </si>
+  <si>
+    <t>I travel a lot for my sales job. A co-worker suggested this option. Upon check in, the lady was very nice. Could not help but notice the converted hotel room to the left of the checkin counter. Wide open, with treadmill and stepper. TV and vending machines all together in same room for everyone to see you working out while the check in. 
+Upon climbing the stairs to my room, I had to walk right past a huge pile of trash. Not sure why it was still sitting there at 10pm. 
+Opened the door to my room, and whoaaaaa, the cigarette smoke smell almost knocked me over. Horrible horrible horrible smell. And it never subsided. Every time the air conditioner started up, it made it even worse. Hard a hard time sleeping with that smell. 
+Room was dated and worn. There was a TV but no remote control for it. I called the front desk. She said it would be in the side table drawer. It wasn't. I looked everywhere. No remote and no offer from front desk to get me a remote. 
+Walls must be thin. I could hear a man next door singing and speaking very loudly with middle eastern accent. This went on almost all night. Again making it very hard to sleep. 
+No shampoo. Only one wash cloth in the bathroom. 
+Upon checkout, the clerk did not understand how CLC worked. He had to call the...I travel a lot for my sales job. A co-worker suggested this option. Upon check in, the lady was very nice. Could not help but notice the converted hotel room to the left of the checkin counter. Wide open, with treadmill and stepper. TV and vending machines all together in same room for everyone to see you working out while the check in. Upon climbing the stairs to my room, I had to walk right past a huge pile of trash. Not sure why it was still sitting there at 10pm. Opened the door to my room, and whoaaaaa, the cigarette smoke smell almost knocked me over. Horrible horrible horrible smell. And it never subsided. Every time the air conditioner started up, it made it even worse. Hard a hard time sleeping with that smell. Room was dated and worn. There was a TV but no remote control for it. I called the front desk. She said it would be in the side table drawer. It wasn't. I looked everywhere. No remote and no offer from front desk to get me a remote. Walls must be thin. I could hear a man next door singing and speaking very loudly with middle eastern accent. This went on almost all night. Again making it very hard to sleep. No shampoo. Only one wash cloth in the bathroom. Upon checkout, the clerk did not understand how CLC worked. He had to call the manager twice. When I met up with one of my co-workers, he said he had to sleep in the vinyl chair all night because he found bed bugs under his pillow and would not touch the bed. He took picture of his findings for complaint.  OH MY GOSH!!!!!!!!!!  ARE you kidding me......Have never been so disgusted. Gave my travel agent the nix for this place. Remove them from your options. There are shady looking people all over the place. Morning and night. Run away from this place. Would expect better in the tech area. Starting to see a trend. Stopped in one of these places in No KC last week and it also had an 'under construction' sign and 'help wanted' out front. After walking in that front door, left immediately. Low price is NOT worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I travel a lot for my sales job. A co-worker suggested this option. Upon check in, the lady was very nice. Could not help but notice the converted hotel room to the left of the checkin counter. Wide open, with treadmill and stepper. TV and vending machines all together in same room for everyone to see you working out while the check in. 
+Upon climbing the stairs to my room, I had to walk right past a huge pile of trash. Not sure why it was still sitting there at 10pm. 
+Opened the door to my room, and whoaaaaa, the cigarette smoke smell almost knocked me over. Horrible horrible horrible smell. And it never subsided. Every time the air conditioner started up, it made it even worse. Hard a hard time sleeping with that smell. 
+Room was dated and worn. There was a TV but no remote control for it. I called the front desk. She said it would be in the side table drawer. It wasn't. I looked everywhere. No remote and no offer from front desk to get me a remote. 
+Walls must be thin. I could hear a man next door singing and speaking very loudly with middle eastern accent. This went on almost all night. Again making it very hard to sleep. 
+No shampoo. Only one wash cloth in the bathroom. 
+Upon checkout, the clerk did not understand how CLC worked. He had to call the...I travel a lot for my sales job. A co-worker suggested this option. Upon check in, the lady was very nice. Could not help but notice the converted hotel room to the left of the checkin counter. Wide open, with treadmill and stepper. TV and vending machines all together in same room for everyone to see you working out while the check in. Upon climbing the stairs to my room, I had to walk right past a huge pile of trash. Not sure why it was still sitting there at 10pm. Opened the door to my room, and whoaaaaa, the cigarette smoke smell almost knocked me over. Horrible horrible horrible smell. And it never subsided. Every time the air conditioner started up, it made it even worse. Hard a hard time sleeping with that smell. Room was dated and worn. There was a TV but no remote control for it. I called the front desk. She said it would be in the side table drawer. It wasn't. I looked everywhere. No remote and no offer from front desk to get me a remote. Walls must be thin. I could hear a man next door singing and speaking very loudly with middle eastern accent. This went on almost all night. Again making it very hard to sleep. No shampoo. Only one wash cloth in the bathroom. Upon checkout, the clerk did not understand how CLC worked. He had to call the manager twice. When I met up with one of my co-workers, he said he had to sleep in the vinyl chair all night because he found bed bugs under his pillow and would not touch the bed. He took picture of his findings for complaint.  OH MY GOSH!!!!!!!!!!  ARE you kidding me......Have never been so disgusted. Gave my travel agent the nix for this place. Remove them from your options. There are shady looking people all over the place. Morning and night. Run away from this place. Would expect better in the tech area. Starting to see a trend. Stopped in one of these places in No KC last week and it also had an 'under construction' sign and 'help wanted' out front. After walking in that front door, left immediately. Low price is NOT worth it.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2046,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2078,3979 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>149</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>218</v>
+      </c>
+      <c r="X21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>234</v>
+      </c>
+      <c r="X23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O26" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>266</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" t="s">
+        <v>273</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>274</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>275</v>
+      </c>
+      <c r="X28" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" t="s">
+        <v>280</v>
+      </c>
+      <c r="K29" t="s">
+        <v>281</v>
+      </c>
+      <c r="L29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>283</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>284</v>
+      </c>
+      <c r="X29" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+      <c r="K30" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" t="s">
+        <v>291</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>292</v>
+      </c>
+      <c r="O30" t="s">
+        <v>149</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>293</v>
+      </c>
+      <c r="X30" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>297</v>
+      </c>
+      <c r="J31" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" t="s">
+        <v>300</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>301</v>
+      </c>
+      <c r="X31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>318</v>
+      </c>
+      <c r="X33" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" t="s">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O34" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>327</v>
+      </c>
+      <c r="X34" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>331</v>
+      </c>
+      <c r="J35" t="s">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s">
+        <v>333</v>
+      </c>
+      <c r="L35" t="s">
+        <v>334</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>335</v>
+      </c>
+      <c r="X35" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>339</v>
+      </c>
+      <c r="J36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K36" t="s">
+        <v>341</v>
+      </c>
+      <c r="L36" t="s">
+        <v>342</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>343</v>
+      </c>
+      <c r="O36" t="s">
+        <v>149</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>344</v>
+      </c>
+      <c r="X36" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>348</v>
+      </c>
+      <c r="J37" t="s">
+        <v>349</v>
+      </c>
+      <c r="K37" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37" t="s">
+        <v>351</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>352</v>
+      </c>
+      <c r="X37" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>355</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" t="s">
+        <v>357</v>
+      </c>
+      <c r="K38" t="s">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s">
+        <v>359</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>360</v>
+      </c>
+      <c r="O38" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>361</v>
+      </c>
+      <c r="X38" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>364</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>365</v>
+      </c>
+      <c r="J39" t="s">
+        <v>366</v>
+      </c>
+      <c r="K39" t="s">
+        <v>367</v>
+      </c>
+      <c r="L39" t="s">
+        <v>368</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>369</v>
+      </c>
+      <c r="X39" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>372</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>373</v>
+      </c>
+      <c r="J40" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" t="s">
+        <v>375</v>
+      </c>
+      <c r="L40" t="s">
+        <v>376</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>377</v>
+      </c>
+      <c r="O40" t="s">
+        <v>149</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>378</v>
+      </c>
+      <c r="X40" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>381</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>382</v>
+      </c>
+      <c r="J41" t="s">
+        <v>383</v>
+      </c>
+      <c r="K41" t="s">
+        <v>384</v>
+      </c>
+      <c r="L41" t="s">
+        <v>385</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>377</v>
+      </c>
+      <c r="O41" t="s">
+        <v>149</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>386</v>
+      </c>
+      <c r="X41" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>389</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>390</v>
+      </c>
+      <c r="J42" t="s">
+        <v>391</v>
+      </c>
+      <c r="K42" t="s">
+        <v>392</v>
+      </c>
+      <c r="L42" t="s">
+        <v>393</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>394</v>
+      </c>
+      <c r="O42" t="s">
+        <v>149</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>395</v>
+      </c>
+      <c r="X42" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>398</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>399</v>
+      </c>
+      <c r="J43" t="s">
+        <v>400</v>
+      </c>
+      <c r="K43" t="s">
+        <v>401</v>
+      </c>
+      <c r="L43" t="s">
+        <v>402</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>394</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>403</v>
+      </c>
+      <c r="X43" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>406</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>407</v>
+      </c>
+      <c r="J44" t="s">
+        <v>408</v>
+      </c>
+      <c r="K44" t="s">
+        <v>409</v>
+      </c>
+      <c r="L44" t="s">
+        <v>410</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>411</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>412</v>
+      </c>
+      <c r="J45" t="s">
+        <v>413</v>
+      </c>
+      <c r="K45" t="s">
+        <v>414</v>
+      </c>
+      <c r="L45" t="s">
+        <v>415</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>416</v>
+      </c>
+      <c r="O45" t="s">
+        <v>149</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>417</v>
+      </c>
+      <c r="X45" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>420</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>421</v>
+      </c>
+      <c r="J46" t="s">
+        <v>422</v>
+      </c>
+      <c r="K46" t="s">
+        <v>423</v>
+      </c>
+      <c r="L46" t="s">
+        <v>424</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>416</v>
+      </c>
+      <c r="O46" t="s">
+        <v>149</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>426</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>427</v>
+      </c>
+      <c r="J47" t="s">
+        <v>428</v>
+      </c>
+      <c r="K47" t="s">
+        <v>429</v>
+      </c>
+      <c r="L47" t="s">
+        <v>430</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>416</v>
+      </c>
+      <c r="O47" t="s">
+        <v>95</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>431</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>432</v>
+      </c>
+      <c r="J48" t="s">
+        <v>433</v>
+      </c>
+      <c r="K48" t="s">
+        <v>434</v>
+      </c>
+      <c r="L48" t="s">
+        <v>435</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>416</v>
+      </c>
+      <c r="O48" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>438</v>
+      </c>
+      <c r="J49" t="s">
+        <v>439</v>
+      </c>
+      <c r="K49" t="s">
+        <v>440</v>
+      </c>
+      <c r="L49" t="s">
+        <v>441</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>442</v>
+      </c>
+      <c r="O49" t="s">
+        <v>443</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>444</v>
+      </c>
+      <c r="X49" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>448</v>
+      </c>
+      <c r="J50" t="s">
+        <v>449</v>
+      </c>
+      <c r="K50" t="s">
+        <v>450</v>
+      </c>
+      <c r="L50" t="s">
+        <v>451</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>452</v>
+      </c>
+      <c r="O50" t="s">
+        <v>149</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>453</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>454</v>
+      </c>
+      <c r="J51" t="s">
+        <v>455</v>
+      </c>
+      <c r="K51" t="s">
+        <v>456</v>
+      </c>
+      <c r="L51" t="s">
+        <v>457</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>452</v>
+      </c>
+      <c r="O51" t="s">
+        <v>149</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>459</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>460</v>
+      </c>
+      <c r="J52" t="s">
+        <v>461</v>
+      </c>
+      <c r="K52" t="s">
+        <v>462</v>
+      </c>
+      <c r="L52" t="s">
+        <v>463</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>464</v>
+      </c>
+      <c r="O52" t="s">
+        <v>149</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>466</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>467</v>
+      </c>
+      <c r="J53" t="s">
+        <v>468</v>
+      </c>
+      <c r="K53" t="s">
+        <v>469</v>
+      </c>
+      <c r="L53" t="s">
+        <v>470</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>472</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>473</v>
+      </c>
+      <c r="J54" t="s">
+        <v>474</v>
+      </c>
+      <c r="K54" t="s">
+        <v>475</v>
+      </c>
+      <c r="L54" t="s">
+        <v>476</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>477</v>
+      </c>
+      <c r="O54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>479</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>480</v>
+      </c>
+      <c r="J55" t="s">
+        <v>481</v>
+      </c>
+      <c r="K55" t="s">
+        <v>482</v>
+      </c>
+      <c r="L55" t="s">
+        <v>483</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>484</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>485</v>
+      </c>
+      <c r="J56" t="s">
+        <v>486</v>
+      </c>
+      <c r="K56" t="s">
+        <v>487</v>
+      </c>
+      <c r="L56" t="s">
+        <v>488</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>489</v>
+      </c>
+      <c r="O56" t="s">
+        <v>149</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" t="s">
+        <v>493</v>
+      </c>
+      <c r="K57" t="s">
+        <v>494</v>
+      </c>
+      <c r="L57" t="s">
+        <v>495</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>496</v>
+      </c>
+      <c r="O57" t="s">
+        <v>149</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>498</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>499</v>
+      </c>
+      <c r="J58" t="s">
+        <v>500</v>
+      </c>
+      <c r="K58" t="s">
+        <v>501</v>
+      </c>
+      <c r="L58" t="s">
+        <v>502</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>496</v>
+      </c>
+      <c r="O58" t="s">
+        <v>149</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>504</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>505</v>
+      </c>
+      <c r="J59" t="s">
+        <v>506</v>
+      </c>
+      <c r="K59" t="s">
+        <v>507</v>
+      </c>
+      <c r="L59" t="s">
+        <v>508</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>496</v>
+      </c>
+      <c r="O59" t="s">
+        <v>95</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>509</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>510</v>
+      </c>
+      <c r="J60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K60" t="s">
+        <v>512</v>
+      </c>
+      <c r="L60" t="s">
+        <v>513</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>514</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>515</v>
+      </c>
+      <c r="J61" t="s">
+        <v>516</v>
+      </c>
+      <c r="K61" t="s">
+        <v>517</v>
+      </c>
+      <c r="L61" t="s">
+        <v>518</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>519</v>
+      </c>
+      <c r="O61" t="s">
+        <v>95</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>521</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>522</v>
+      </c>
+      <c r="J62" t="s">
+        <v>523</v>
+      </c>
+      <c r="K62" t="s">
+        <v>524</v>
+      </c>
+      <c r="L62" t="s">
+        <v>525</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>526</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>527</v>
+      </c>
+      <c r="J63" t="s">
+        <v>528</v>
+      </c>
+      <c r="K63" t="s">
+        <v>529</v>
+      </c>
+      <c r="L63" t="s">
+        <v>530</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>531</v>
+      </c>
+      <c r="O63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_80.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_80.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="857">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,180 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r611050107-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>33456</t>
+  </si>
+  <si>
+    <t>123338</t>
+  </si>
+  <si>
+    <t>611050107</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>Like an old creepy apartment complex</t>
+  </si>
+  <si>
+    <t>The only thing good about this place was the location.
+The grab and go breakfast is literally a basket of granola bars.  The coffee was a joke.  Every morning we went over to get coffee they were out of creamer, the coffee was empty or cold.  You would think they would have a rotating system of more than one coffee pot per bold, medium, decaf, etc so there would always be coffee.  So we hung out in the lobby every morning waiting for the coffee.  Super irritating.  The vending machines were sold out ALL WEEKEND.  No one cared to restock anything. We asked.  It was a no.  So we couldn't even buy a water bottle.  
+The beds are awful and stained and tattered "comforter".  I can't even really call it a comforter.  I felt gross even sleeping in the bed and wished I had brought my own pillow and blanket.  
+The best part of the stay was the maintenance crew SCREAMING at one another at 6am right outside my window for over an hour and were drilling in the room next door.  Like a power drill. Apparently 6am is the time to start working and The walls are so thin I could hear the upstairs peoples AC turning on and them coughing all night.  
+I wore earplugs the rest of my stay there.
+I get it, it's not anything nice or swanky.  But can we get some coffee and make...The only thing good about this place was the location.The grab and go breakfast is literally a basket of granola bars.  The coffee was a joke.  Every morning we went over to get coffee they were out of creamer, the coffee was empty or cold.  You would think they would have a rotating system of more than one coffee pot per bold, medium, decaf, etc so there would always be coffee.  So we hung out in the lobby every morning waiting for the coffee.  Super irritating.  The vending machines were sold out ALL WEEKEND.  No one cared to restock anything. We asked.  It was a no.  So we couldn't even buy a water bottle.  The beds are awful and stained and tattered "comforter".  I can't even really call it a comforter.  I felt gross even sleeping in the bed and wished I had brought my own pillow and blanket.  The best part of the stay was the maintenance crew SCREAMING at one another at 6am right outside my window for over an hour and were drilling in the room next door.  Like a power drill. Apparently 6am is the time to start working and The walls are so thin I could hear the upstairs peoples AC turning on and them coughing all night.  I wore earplugs the rest of my stay there.I get it, it's not anything nice or swanky.  But can we get some coffee and make the staff aware to not be shouting and removing air conditioners and televisions at the crack of dawn?? It's pretty shabby, kinda shady, and super ew.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>The only thing good about this place was the location.
+The grab and go breakfast is literally a basket of granola bars.  The coffee was a joke.  Every morning we went over to get coffee they were out of creamer, the coffee was empty or cold.  You would think they would have a rotating system of more than one coffee pot per bold, medium, decaf, etc so there would always be coffee.  So we hung out in the lobby every morning waiting for the coffee.  Super irritating.  The vending machines were sold out ALL WEEKEND.  No one cared to restock anything. We asked.  It was a no.  So we couldn't even buy a water bottle.  
+The beds are awful and stained and tattered "comforter".  I can't even really call it a comforter.  I felt gross even sleeping in the bed and wished I had brought my own pillow and blanket.  
+The best part of the stay was the maintenance crew SCREAMING at one another at 6am right outside my window for over an hour and were drilling in the room next door.  Like a power drill. Apparently 6am is the time to start working and The walls are so thin I could hear the upstairs peoples AC turning on and them coughing all night.  
+I wore earplugs the rest of my stay there.
+I get it, it's not anything nice or swanky.  But can we get some coffee and make...The only thing good about this place was the location.The grab and go breakfast is literally a basket of granola bars.  The coffee was a joke.  Every morning we went over to get coffee they were out of creamer, the coffee was empty or cold.  You would think they would have a rotating system of more than one coffee pot per bold, medium, decaf, etc so there would always be coffee.  So we hung out in the lobby every morning waiting for the coffee.  Super irritating.  The vending machines were sold out ALL WEEKEND.  No one cared to restock anything. We asked.  It was a no.  So we couldn't even buy a water bottle.  The beds are awful and stained and tattered "comforter".  I can't even really call it a comforter.  I felt gross even sleeping in the bed and wished I had brought my own pillow and blanket.  The best part of the stay was the maintenance crew SCREAMING at one another at 6am right outside my window for over an hour and were drilling in the room next door.  Like a power drill. Apparently 6am is the time to start working and The walls are so thin I could hear the upstairs peoples AC turning on and them coughing all night.  I wore earplugs the rest of my stay there.I get it, it's not anything nice or swanky.  But can we get some coffee and make the staff aware to not be shouting and removing air conditioners and televisions at the crack of dawn?? It's pretty shabby, kinda shady, and super ew.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r610705814-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>610705814</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>RATED A 1 BECAUSE 0 WASN'T AN OPTION</t>
+  </si>
+  <si>
+    <t>We arrived Thursday night at midnight.  The room should not have been rented.  There was a stench of body/foot odor.  Unhealthy stains on carpet and headboard. The room was a health hazard.  We could not sleep and had nowhere else to go at 1:00 in the morning.  The shower head flooded the bathroom.  The manager Alicia Davis was not available when we went to office and when we called later.  She wouldn’t call us back.  We left Friday at 8 am.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r607583872-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>607583872</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>Lazy employees that don't clean.</t>
+  </si>
+  <si>
+    <t>Little to no cleanning done. Got to walk through garbage leaked from trash bags on the way to the room. Kitchen was not stocked what so ever. A drawer was missing. The refrigerator was dinged up missing yet another drawer, the other drawer was broken.  The carpet was stained all over the place. The one chair didn't recline back. Water had a yellow tent to it when it filled up the bathtub.My husband booked this through his phone, when I pulled the hotel up on trip advisor after we booked most people have stated it is horrible. It is horrible, staff is responding but obviously nothing has been done to improve the horrible customer service.My suggestion fire the entire crew and start over, lazy employees too lazy to clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Little to no cleanning done. Got to walk through garbage leaked from trash bags on the way to the room. Kitchen was not stocked what so ever. A drawer was missing. The refrigerator was dinged up missing yet another drawer, the other drawer was broken.  The carpet was stained all over the place. The one chair didn't recline back. Water had a yellow tent to it when it filled up the bathtub.My husband booked this through his phone, when I pulled the hotel up on trip advisor after we booked most people have stated it is horrible. It is horrible, staff is responding but obviously nothing has been done to improve the horrible customer service.My suggestion fire the entire crew and start over, lazy employees too lazy to clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r605553938-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>605553938</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>I was staying here for three months. I’ll be honest most of my stay was not great, the cleaning service are terrible, a majority of the front desk service is awful. Except for Mike. He was amazing during my stay here and always made sure to fix every problem that came up and made this stay the best it could be. He cares so much about his guests and takes a personal interest in ensuring their stay is as best as it can be. If you’re looking for a nice long term hotel maybe look else where, but if you’re looking for a long term hotel where you’re treated like family and want to feel at home come see Mike here at Extended Stay. Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I was staying here for three months. I’ll be honest most of my stay was not great, the cleaning service are terrible, a majority of the front desk service is awful. Except for Mike. He was amazing during my stay here and always made sure to fix every problem that came up and made this stay the best it could be. He cares so much about his guests and takes a personal interest in ensuring their stay is as best as it can be. If you’re looking for a nice long term hotel maybe look else where, but if you’re looking for a long term hotel where you’re treated like family and want to feel at home come see Mike here at Extended Stay. Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r601593125-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>601593125</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Very Bad GO ELSE WHERE</t>
+  </si>
+  <si>
+    <t>First the good. The AC worked quite well, the refrigerator, and microwave also worked, the bed appeared to be clean with fresh linens.
+Now the rest.
+Upon arrival unable to see any sign that indicated where the entrance was.
+Had a reservation for a nonsmoking king with a sofa sleeper for $137.80. Upon arrival Britney indicate that they did not have that room. They had a SMOKING queen for more $. After discussion I was left with taking that room or no room. Due to time and other constrains I took that room with the understanding that I would not be charged more than my reservation. Since I had not paid for room online when making the reservation, had to use the credit card machine to pay for room. I never had to sign and was given no receipt even after asking. More later! 
+The room was very dark and dreary. One light by the bed plus other lights. Unable to turn the tv so it faced the bed (only part way). The carpet was dirty. The refrigerator had several dents in it. The ice cube tray was filthy, would not use even though I would need ice for my insulin the next day. Required stop at gas station to purchase ice. Only one chair and a vinyl covered couch. No glasses for the bathroom sink. The bed was comprised of two box springs with a mattress. The mattress was...First the good. The AC worked quite well, the refrigerator, and microwave also worked, the bed appeared to be clean with fresh linens.Now the rest.Upon arrival unable to see any sign that indicated where the entrance was.Had a reservation for a nonsmoking king with a sofa sleeper for $137.80. Upon arrival Britney indicate that they did not have that room. They had a SMOKING queen for more $. After discussion I was left with taking that room or no room. Due to time and other constrains I took that room with the understanding that I would not be charged more than my reservation. Since I had not paid for room online when making the reservation, had to use the credit card machine to pay for room. I never had to sign and was given no receipt even after asking. More later! The room was very dark and dreary. One light by the bed plus other lights. Unable to turn the tv so it faced the bed (only part way). The carpet was dirty. The refrigerator had several dents in it. The ice cube tray was filthy, would not use even though I would need ice for my insulin the next day. Required stop at gas station to purchase ice. Only one chair and a vinyl covered couch. No glasses for the bathroom sink. The bed was comprised of two box springs with a mattress. The mattress was about 2” lower in the middle. May have been caused by a bed frame with no center support. We both rolled towards the middle all night. Not a good night’s sleep. The walls had been spot painted in many spots with a close matched paint (incorrect sheen). The wall next to the bed had what appeared to be several areas where a liquid had run down the wall. Unsure if it was bodily fluid or something else. DID not touch walls. The faucet for the tub was plumbed incorrectly such that when the knob was turned towards cold or got hot water. Do not believe that room that start with a 1 are on the groundfloor. Room 117 is second level.Upon arrival home checked or credit card history and found a charge from the hotel for $159.86.  Called hotel to see when this would be fixed. Called hotel and had to talk to front desk was informed that the manager was busy and to call back, not “I will have the manager return your call, can you give me with a phone number.” Front desk person very hard to understand. Called national number and was told they would email my concerns to the hotel and they would be in touch within 48 hours. 7 days later was notified by email that a refund had been issued to correct the room price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>First the good. The AC worked quite well, the refrigerator, and microwave also worked, the bed appeared to be clean with fresh linens.
+Now the rest.
+Upon arrival unable to see any sign that indicated where the entrance was.
+Had a reservation for a nonsmoking king with a sofa sleeper for $137.80. Upon arrival Britney indicate that they did not have that room. They had a SMOKING queen for more $. After discussion I was left with taking that room or no room. Due to time and other constrains I took that room with the understanding that I would not be charged more than my reservation. Since I had not paid for room online when making the reservation, had to use the credit card machine to pay for room. I never had to sign and was given no receipt even after asking. More later! 
+The room was very dark and dreary. One light by the bed plus other lights. Unable to turn the tv so it faced the bed (only part way). The carpet was dirty. The refrigerator had several dents in it. The ice cube tray was filthy, would not use even though I would need ice for my insulin the next day. Required stop at gas station to purchase ice. Only one chair and a vinyl covered couch. No glasses for the bathroom sink. The bed was comprised of two box springs with a mattress. The mattress was...First the good. The AC worked quite well, the refrigerator, and microwave also worked, the bed appeared to be clean with fresh linens.Now the rest.Upon arrival unable to see any sign that indicated where the entrance was.Had a reservation for a nonsmoking king with a sofa sleeper for $137.80. Upon arrival Britney indicate that they did not have that room. They had a SMOKING queen for more $. After discussion I was left with taking that room or no room. Due to time and other constrains I took that room with the understanding that I would not be charged more than my reservation. Since I had not paid for room online when making the reservation, had to use the credit card machine to pay for room. I never had to sign and was given no receipt even after asking. More later! The room was very dark and dreary. One light by the bed plus other lights. Unable to turn the tv so it faced the bed (only part way). The carpet was dirty. The refrigerator had several dents in it. The ice cube tray was filthy, would not use even though I would need ice for my insulin the next day. Required stop at gas station to purchase ice. Only one chair and a vinyl covered couch. No glasses for the bathroom sink. The bed was comprised of two box springs with a mattress. The mattress was about 2” lower in the middle. May have been caused by a bed frame with no center support. We both rolled towards the middle all night. Not a good night’s sleep. The walls had been spot painted in many spots with a close matched paint (incorrect sheen). The wall next to the bed had what appeared to be several areas where a liquid had run down the wall. Unsure if it was bodily fluid or something else. DID not touch walls. The faucet for the tub was plumbed incorrectly such that when the knob was turned towards cold or got hot water. Do not believe that room that start with a 1 are on the groundfloor. Room 117 is second level.Upon arrival home checked or credit card history and found a charge from the hotel for $159.86.  Called hotel to see when this would be fixed. Called hotel and had to talk to front desk was informed that the manager was busy and to call back, not “I will have the manager return your call, can you give me with a phone number.” Front desk person very hard to understand. Called national number and was told they would email my concerns to the hotel and they would be in touch within 48 hours. 7 days later was notified by email that a refund had been issued to correct the room price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r600398974-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>600398974</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Not so nice!</t>
+  </si>
+  <si>
+    <t>I will start out by saying that the employees at this hotel were very friendly and helpful. Unfortunately it was very hard to locate them most of the time. I guess I would consider this the slum of Colorado. Upon researching hotels the photos online made the establishment look VERY nice and I had no apprehensions in booking the room as it was mildly cheaper than a lot of other ones around the area. I never realized how much photos could lie until this trip.  When we pulled up it was pretty clear this was the slum of Colorado. Looked as though people lived in the hotel and treated the place as it was their own. The front lobby had garbage and old food laying all over the floor, bathroom toilet was clogged, we had to walk over marijuana containers and pipes to get to our room which by the way smelled absolutely foul, and the sofa bed Came Crashing to the ground when we pulled it out.  I guess I can honestly say I've never felt so unsanitary at a hotel in all my life. We left immediately in the morning after our first night stay, when a family member reported feeling very itchy upon waking up which later turned into red bumps.  If I could give one piece of advice I would just say don't risk staying here because nobody wants to go home with bed bugs!MoreShow less</t>
+  </si>
+  <si>
+    <t>I will start out by saying that the employees at this hotel were very friendly and helpful. Unfortunately it was very hard to locate them most of the time. I guess I would consider this the slum of Colorado. Upon researching hotels the photos online made the establishment look VERY nice and I had no apprehensions in booking the room as it was mildly cheaper than a lot of other ones around the area. I never realized how much photos could lie until this trip.  When we pulled up it was pretty clear this was the slum of Colorado. Looked as though people lived in the hotel and treated the place as it was their own. The front lobby had garbage and old food laying all over the floor, bathroom toilet was clogged, we had to walk over marijuana containers and pipes to get to our room which by the way smelled absolutely foul, and the sofa bed Came Crashing to the ground when we pulled it out.  I guess I can honestly say I've never felt so unsanitary at a hotel in all my life. We left immediately in the morning after our first night stay, when a family member reported feeling very itchy upon waking up which later turned into red bumps.  If I could give one piece of advice I would just say don't risk staying here because nobody wants to go home with bed bugs!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r595113487-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
-    <t>33456</t>
-  </si>
-  <si>
-    <t>123338</t>
-  </si>
-  <si>
     <t>595113487</t>
   </si>
   <si>
@@ -174,16 +336,10 @@
     <t>When we first wallked into the room, it smelled musty to the point that I wondered if I had accidentally requested a smoking room. The heat was on when it was 90 degrees in there and the a/c did not work well. The door to the bathroom wouldn't close. There were have empty bottles in the fridge and under the bed. Saying the place was not clean would be an understantment. The "fully-equpped kitchen" only had 2 plates, bowls, and silverware as well as a pot and pan. But you have to request it. We requested a coffee maker, toaster, drying rack,and dish towels but they didn't have any available dispite us being there for a week. Our remote control looked like a dog had used it as a chew toy. The walls are really thin and let in every single noise and the employees don't endorse the quiet hours well. The breakfast was almost always out and there was rarely anyone at the desk. The fitness center contained a treadmill and elliptical and that's all. There is also only about 10 tv channels. In short this place was awful.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
   </si>
   <si>
     <t>When we first wallked into the room, it smelled musty to the point that I wondered if I had accidentally requested a smoking room. The heat was on when it was 90 degrees in there and the a/c did not work well. The door to the bathroom wouldn't close. There were have empty bottles in the fridge and under the bed. Saying the place was not clean would be an understantment. The "fully-equpped kitchen" only had 2 plates, bowls, and silverware as well as a pot and pan. But you have to request it. We requested a coffee maker, toaster, drying rack,and dish towels but they didn't have any available dispite us being there for a week. Our remote control looked like a dog had used it as a chew toy. The walls are really thin and let in every single noise and the employees don't endorse the quiet hours well. The breakfast was almost always out and there was rarely anyone at the desk. The fitness center contained a treadmill and elliptical and that's all. There is also only about 10 tv channels. In short this place was awful.More</t>
@@ -231,6 +387,66 @@
     <t>Very run down, and dirty., bugs in bathroom and kitchenette area...Garbage littered walkway and parking lots..... I picked this hotel because it was on the  Southwest airlines recommended list, very surprising since most of the other recommended hotels I stayed in the past were all great.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r589610514-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>589610514</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>They have great customer service from the manager to the housekeepers. I enjoyed my short stay at this hotel, especially on the weekends with the front desk by the name of Anabella. They have the potential to grow they just need more from the corporate office.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>They have great customer service from the manager to the housekeepers. I enjoyed my short stay at this hotel, especially on the weekends with the front desk by the name of Anabella. They have the potential to grow they just need more from the corporate office.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r588136780-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>588136780</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>I Would Skip It</t>
+  </si>
+  <si>
+    <t>I was here for two nights and the experience was less than great. Check in was easy and the clerk was friendly and helpful. That was the highlight. 
+Upon entering my room, I noticed there were no pillows. I walked back to the lobby and was given two pillows. After unpacking, I wanted to hang up a shirt. No hangers. Went to blow my nose, no toilet paper. Went to get a drink of water, no cups. In fact, no plates, pans, or utensils—all of which I expect to see at an extended stay type property. I called the desk and, though it took two trips, was brought hangers, cups, and toilet paper. 
+I was in a single queen “deluxe” studio. Apart from the missing elements the room DID have a couch—foldout, I believe—a two burner stove, a 3/4 size fridge with freezer, and a microwave. A roomy enough space, maybe slightly larger than a normal motel room. It also had a nice sized desk with an office-style chair. For a single person alone, the space worked fine. A couple might find it a bit crowded. 
+On the plus side, the location is very convenient. Lots of very nearby restaurants, bars, and retail. A McDonalds and Taco Bell are a block away if you want less formal. A convenience store is within easy walking distance as well. About a half mile or so away is another retail area with more...I was here for two nights and the experience was less than great. Check in was easy and the clerk was friendly and helpful. That was the highlight. Upon entering my room, I noticed there were no pillows. I walked back to the lobby and was given two pillows. After unpacking, I wanted to hang up a shirt. No hangers. Went to blow my nose, no toilet paper. Went to get a drink of water, no cups. In fact, no plates, pans, or utensils—all of which I expect to see at an extended stay type property. I called the desk and, though it took two trips, was brought hangers, cups, and toilet paper. I was in a single queen “deluxe” studio. Apart from the missing elements the room DID have a couch—foldout, I believe—a two burner stove, a 3/4 size fridge with freezer, and a microwave. A roomy enough space, maybe slightly larger than a normal motel room. It also had a nice sized desk with an office-style chair. For a single person alone, the space worked fine. A couple might find it a bit crowded. On the plus side, the location is very convenient. Lots of very nearby restaurants, bars, and retail. A McDonalds and Taco Bell are a block away if you want less formal. A convenience store is within easy walking distance as well. About a half mile or so away is another retail area with more restaurants and retail, as well as a liquor store. The neighborhood itself seems quiet and mostly medium upscale commercial. All in all, the place is okay. But for the money, Denver has better options and I’m not likely to stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2018</t>
+  </si>
+  <si>
+    <t>I was here for two nights and the experience was less than great. Check in was easy and the clerk was friendly and helpful. That was the highlight. 
+Upon entering my room, I noticed there were no pillows. I walked back to the lobby and was given two pillows. After unpacking, I wanted to hang up a shirt. No hangers. Went to blow my nose, no toilet paper. Went to get a drink of water, no cups. In fact, no plates, pans, or utensils—all of which I expect to see at an extended stay type property. I called the desk and, though it took two trips, was brought hangers, cups, and toilet paper. 
+I was in a single queen “deluxe” studio. Apart from the missing elements the room DID have a couch—foldout, I believe—a two burner stove, a 3/4 size fridge with freezer, and a microwave. A roomy enough space, maybe slightly larger than a normal motel room. It also had a nice sized desk with an office-style chair. For a single person alone, the space worked fine. A couple might find it a bit crowded. 
+On the plus side, the location is very convenient. Lots of very nearby restaurants, bars, and retail. A McDonalds and Taco Bell are a block away if you want less formal. A convenience store is within easy walking distance as well. About a half mile or so away is another retail area with more...I was here for two nights and the experience was less than great. Check in was easy and the clerk was friendly and helpful. That was the highlight. Upon entering my room, I noticed there were no pillows. I walked back to the lobby and was given two pillows. After unpacking, I wanted to hang up a shirt. No hangers. Went to blow my nose, no toilet paper. Went to get a drink of water, no cups. In fact, no plates, pans, or utensils—all of which I expect to see at an extended stay type property. I called the desk and, though it took two trips, was brought hangers, cups, and toilet paper. I was in a single queen “deluxe” studio. Apart from the missing elements the room DID have a couch—foldout, I believe—a two burner stove, a 3/4 size fridge with freezer, and a microwave. A roomy enough space, maybe slightly larger than a normal motel room. It also had a nice sized desk with an office-style chair. For a single person alone, the space worked fine. A couple might find it a bit crowded. On the plus side, the location is very convenient. Lots of very nearby restaurants, bars, and retail. A McDonalds and Taco Bell are a block away if you want less formal. A convenience store is within easy walking distance as well. About a half mile or so away is another retail area with more restaurants and retail, as well as a liquor store. The neighborhood itself seems quiet and mostly medium upscale commercial. All in all, the place is okay. But for the money, Denver has better options and I’m not likely to stay here again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r587920317-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -246,18 +462,6 @@
     <t>This place is TRASHED! Trash under stairways trash on the ground and trash in the room. We should of walked out when a gentleman walked in saying his room he just checked into was dirty and had no toilet paper. When we checked in they told us they had no towels and they they had to wash some. Then when we got to our room, avoiding all the nasty stuff on the stairs we walked in to a dirty room with cigarette burns in the sheets and it smelt very strong of smoke. Granted it was a NON SMOKING room after all. Then to top it off.....a condom wrapper...didn’t want to look farther for any more so we left MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 17, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 17, 2018</t>
-  </si>
-  <si>
     <t>This place is TRASHED! Trash under stairways trash on the ground and trash in the room. We should of walked out when a gentleman walked in saying his room he just checked into was dirty and had no toilet paper. When we checked in they told us they had no towels and they they had to wash some. Then when we got to our room, avoiding all the nasty stuff on the stairs we walked in to a dirty room with cigarette burns in the sheets and it smelt very strong of smoke. Granted it was a NON SMOKING room after all. Then to top it off.....a condom wrapper...didn’t want to look farther for any more so we left More</t>
   </si>
   <si>
@@ -300,12 +504,6 @@
     <t>This was one of the more pleasant extended stays ive been too.. Especially if ive been to 30 in the last year for my job. The front desk worker Brittney is also a help she was always there with the right help if i ever needed somethings.... Need more workers like herMoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded May 31, 2018</t>
   </si>
   <si>
@@ -315,6 +513,45 @@
     <t>This was one of the more pleasant extended stays ive been too.. Especially if ive been to 30 in the last year for my job. The front desk worker Brittney is also a help she was always there with the right help if i ever needed somethings.... Need more workers like herMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r584213166-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>584213166</t>
+  </si>
+  <si>
+    <t>Wonderful, do come again</t>
+  </si>
+  <si>
+    <t>It was wonderful. Great location, really pleasant and clean rooms, but the thing that makes this such a good place to stay are the staff. All of the people are incredibly helpful and generous with their time and advice.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was wonderful. Great location, really pleasant and clean rooms, but the thing that makes this such a good place to stay are the staff. All of the people are incredibly helpful and generous with their time and advice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r578690848-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>578690848</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>RIDICULOUS!!!! AVOID</t>
+  </si>
+  <si>
+    <t>Staff are nice and friendly but I’m sure they know they work for a hotel that does not care about their customers. The first room we were placed in smelled like animal urine really bad so we were switched to a second room. I checked the room before moving and the mattress was against the wall, the room looked like it was under construction. The girl working the front desk apologized repeatedly and moved me to another room. This third room looked clean but has white powder all over the carpet and bed skirt. The same white powder was all over the chair and air conditioning unit, this room didn’t have any toilet paper and when I asked for some I was told the hotel had run out and had ordered some. We will be looking into a refund first thing in the morning, this hotel needs to be shut down, save yourself some time and book somewhere else,MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Staff are nice and friendly but I’m sure they know they work for a hotel that does not care about their customers. The first room we were placed in smelled like animal urine really bad so we were switched to a second room. I checked the room before moving and the mattress was against the wall, the room looked like it was under construction. The girl working the front desk apologized repeatedly and moved me to another room. This third room looked clean but has white powder all over the carpet and bed skirt. The same white powder was all over the chair and air conditioning unit, this room didn’t have any toilet paper and when I asked for some I was told the hotel had run out and had ordered some. We will be looking into a refund first thing in the morning, this hotel needs to be shut down, save yourself some time and book somewhere else,More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r576537250-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -393,6 +630,57 @@
     <t>I usually read reviews before I book, but it was late and we were in a hurry.  Big mistake.  We tried - and rejected - four rooms, then left and stayed at another hotel nearby, even though the room was pre-paid and non-refundable.Filthiest property I've ever seen:  three of the non-smoking rooms smelled of smoke and/or strong chemicals.  There were cigarette burns in the linen and hair in the showers.  Save yourself a disgusting experience and skip this property.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r568176870-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>568176870</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>Stayed here for a work trip. Its in a good location close to everything. Provides everything you need good value. I took advantage of the on the go breakfast in the mornings. Would stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for a work trip. Its in a good location close to everything. Provides everything you need good value. I took advantage of the on the go breakfast in the mornings. Would stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r559234941-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>559234941</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel stay I have ever had</t>
+  </si>
+  <si>
+    <t>Where do I start, my family and I booked a room for the month because we are looking for a new house. We walked in and there was a line if people waiting for service. The first couple in line looked irritated about the length of time it took the clerk to get there room situated. They ended up cancelling the reservation because of the amount of time it took, so I already had a bad feeling about the hotel. When our turn had arrived to be helped we got our key and went to look at our room. When we walked in I was shocked. Not only was it filthy but exposed wires in the ceiling where the smoke detector was supposed to be. Torn furniture stains on bed (I have pictures of all of this.) The list could go on and on. I went back to the hotel office and told the lady this was unnaceptable. They got us a new room which was  not clean either and guess what? Smoke detector was present but just hanging by wires. We decided this was as good as it gets and went on unpacking. We put our daughter in the bath and turned it on. After testing the temp of the water of course. After 1 minute I tested the water again and it was on the cold setting the water however was scorching hot. The tub mainifold cartridge is...Where do I start, my family and I booked a room for the month because we are looking for a new house. We walked in and there was a line if people waiting for service. The first couple in line looked irritated about the length of time it took the clerk to get there room situated. They ended up cancelling the reservation because of the amount of time it took, so I already had a bad feeling about the hotel. When our turn had arrived to be helped we got our key and went to look at our room. When we walked in I was shocked. Not only was it filthy but exposed wires in the ceiling where the smoke detector was supposed to be. Torn furniture stains on bed (I have pictures of all of this.) The list could go on and on. I went back to the hotel office and told the lady this was unnaceptable. They got us a new room which was  not clean either and guess what? Smoke detector was present but just hanging by wires. We decided this was as good as it gets and went on unpacking. We put our daughter in the bath and turned it on. After testing the temp of the water of course. After 1 minute I tested the water again and it was on the cold setting the water however was scorching hot. The tub mainifold cartridge is in backwards meaning hot is cold and cold is hot. This has burned almost everyone in our family now. We then got ready for bed and pulled out the sofa sleeper and found crumbs and other Nasty items such as dead spiders. Needless to say it had not been cleaned in a long time. We are in awe of this slum of a property taking advantage of people in need of a temporary living space. At 1500 a month I expect way better. I would like management to contact me as soon as possibleMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Where do I start, my family and I booked a room for the month because we are looking for a new house. We walked in and there was a line if people waiting for service. The first couple in line looked irritated about the length of time it took the clerk to get there room situated. They ended up cancelling the reservation because of the amount of time it took, so I already had a bad feeling about the hotel. When our turn had arrived to be helped we got our key and went to look at our room. When we walked in I was shocked. Not only was it filthy but exposed wires in the ceiling where the smoke detector was supposed to be. Torn furniture stains on bed (I have pictures of all of this.) The list could go on and on. I went back to the hotel office and told the lady this was unnaceptable. They got us a new room which was  not clean either and guess what? Smoke detector was present but just hanging by wires. We decided this was as good as it gets and went on unpacking. We put our daughter in the bath and turned it on. After testing the temp of the water of course. After 1 minute I tested the water again and it was on the cold setting the water however was scorching hot. The tub mainifold cartridge is...Where do I start, my family and I booked a room for the month because we are looking for a new house. We walked in and there was a line if people waiting for service. The first couple in line looked irritated about the length of time it took the clerk to get there room situated. They ended up cancelling the reservation because of the amount of time it took, so I already had a bad feeling about the hotel. When our turn had arrived to be helped we got our key and went to look at our room. When we walked in I was shocked. Not only was it filthy but exposed wires in the ceiling where the smoke detector was supposed to be. Torn furniture stains on bed (I have pictures of all of this.) The list could go on and on. I went back to the hotel office and told the lady this was unnaceptable. They got us a new room which was  not clean either and guess what? Smoke detector was present but just hanging by wires. We decided this was as good as it gets and went on unpacking. We put our daughter in the bath and turned it on. After testing the temp of the water of course. After 1 minute I tested the water again and it was on the cold setting the water however was scorching hot. The tub mainifold cartridge is in backwards meaning hot is cold and cold is hot. This has burned almost everyone in our family now. We then got ready for bed and pulled out the sofa sleeper and found crumbs and other Nasty items such as dead spiders. Needless to say it had not been cleaned in a long time. We are in awe of this slum of a property taking advantage of people in need of a temporary living space. At 1500 a month I expect way better. I would like management to contact me as soon as possibleMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r557648644-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -408,9 +696,6 @@
     <t>We just recently moved to Colorado from Ohio. The extended stay is wonderful! It's a perfect location and everything is only a few mins away. We will be staying here for at least 6 months and we really enjoy it here. MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded February 1, 2018</t>
   </si>
   <si>
@@ -465,9 +750,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded November 16, 2017</t>
   </si>
   <si>
@@ -475,6 +757,48 @@
   </si>
   <si>
     <t>Hotel room was musty needed to be aired out. Severely out of date. Only redeeming factor close to highway and next to Papadeaux.A bit noisey. Personnel were very good. Overall could not recommend and I have good luck other locations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r540931562-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>540931562</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Dirty unkept hotel</t>
+  </si>
+  <si>
+    <t>the NON smoking room smelled like a bar. It was dirty, no phone no towels and used soap. I will not be staying here again. I arrived at night, morning could see it was not well kept. and you think it would be next to a LEXUS dealership. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>the NON smoking room smelled like a bar. It was dirty, no phone no towels and used soap. I will not be staying here again. I arrived at night, morning could see it was not well kept. and you think it would be next to a LEXUS dealership. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r540791866-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>540791866</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>My Experience</t>
+  </si>
+  <si>
+    <t>My stay was an excellent one at ESA DTC Central, great management and staff. I never had a problem with the rooms, everything was in working order. Grab and go finished quite quickly but the team had no control over that, all in all, it was great being here.MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay was an excellent one at ESA DTC Central, great management and staff. I never had a problem with the rooms, everything was in working order. Grab and go finished quite quickly but the team had no control over that, all in all, it was great being here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r540191250-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
@@ -556,6 +880,53 @@
     <t>Gross, filthy, terrible bed, smelly, broken down...UGLY WORST PLACE AWARD!!!  No wash cloths.  Large dark stains on carpet.  Electric outlets exposed, no cover plates with dry wall crumbling underneath.  Smeary sticky TV remote.  Chair seat with large stains. OMG recent patched ceiling in large areas, will the ceiling cave in next??More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r533526211-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>533526211</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Do NOT Stay here</t>
+  </si>
+  <si>
+    <t>This is the most disgusting motel I have ever stepped foot in. I booked a room for 3 adults - 1 queen bed and 1 sofa bed. I took the sofa bed. The room did not have any sheets for the sofa bed so I had to go down to the reception desk to get sheets. The lady at the desk, Sam, said they don't put sheets in the room for the sofa bed since not everyone uses it. I booked a room for 3 adults, common sense tells you I would need sheets for the sofa bed. I also asked for a pillow and was told they don't have any pillows. 
+The room smelled terribly of burnt food, the floors were stained, the ceiling looked as though a piped has burst and they never fixed it, the bathtub was dirty and cracked, the bed had hairs in the sheets, the sofa bed mattress had numerous big disgusting stains, and the lights on the wall did not work. I asked for a new room and was informed that they did not have any. Needless to say, we left this place and stayed somewhere a bit cleaner and accommodating. I called extended stay and asked for my money back and was told no. This was the biggest waste of my money I have ever experienced. Do not be like me, save your money for somewhere with better service and cleaner rooms....This is the most disgusting motel I have ever stepped foot in. I booked a room for 3 adults - 1 queen bed and 1 sofa bed. I took the sofa bed. The room did not have any sheets for the sofa bed so I had to go down to the reception desk to get sheets. The lady at the desk, Sam, said they don't put sheets in the room for the sofa bed since not everyone uses it. I booked a room for 3 adults, common sense tells you I would need sheets for the sofa bed. I also asked for a pillow and was told they don't have any pillows. The room smelled terribly of burnt food, the floors were stained, the ceiling looked as though a piped has burst and they never fixed it, the bathtub was dirty and cracked, the bed had hairs in the sheets, the sofa bed mattress had numerous big disgusting stains, and the lights on the wall did not work. I asked for a new room and was informed that they did not have any. Needless to say, we left this place and stayed somewhere a bit cleaner and accommodating. I called extended stay and asked for my money back and was told no. This was the biggest waste of my money I have ever experienced. Do not be like me, save your money for somewhere with better service and cleaner rooms. I am genuinely surprised that this place is still operating.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the most disgusting motel I have ever stepped foot in. I booked a room for 3 adults - 1 queen bed and 1 sofa bed. I took the sofa bed. The room did not have any sheets for the sofa bed so I had to go down to the reception desk to get sheets. The lady at the desk, Sam, said they don't put sheets in the room for the sofa bed since not everyone uses it. I booked a room for 3 adults, common sense tells you I would need sheets for the sofa bed. I also asked for a pillow and was told they don't have any pillows. 
+The room smelled terribly of burnt food, the floors were stained, the ceiling looked as though a piped has burst and they never fixed it, the bathtub was dirty and cracked, the bed had hairs in the sheets, the sofa bed mattress had numerous big disgusting stains, and the lights on the wall did not work. I asked for a new room and was informed that they did not have any. Needless to say, we left this place and stayed somewhere a bit cleaner and accommodating. I called extended stay and asked for my money back and was told no. This was the biggest waste of my money I have ever experienced. Do not be like me, save your money for somewhere with better service and cleaner rooms....This is the most disgusting motel I have ever stepped foot in. I booked a room for 3 adults - 1 queen bed and 1 sofa bed. I took the sofa bed. The room did not have any sheets for the sofa bed so I had to go down to the reception desk to get sheets. The lady at the desk, Sam, said they don't put sheets in the room for the sofa bed since not everyone uses it. I booked a room for 3 adults, common sense tells you I would need sheets for the sofa bed. I also asked for a pillow and was told they don't have any pillows. The room smelled terribly of burnt food, the floors were stained, the ceiling looked as though a piped has burst and they never fixed it, the bathtub was dirty and cracked, the bed had hairs in the sheets, the sofa bed mattress had numerous big disgusting stains, and the lights on the wall did not work. I asked for a new room and was informed that they did not have any. Needless to say, we left this place and stayed somewhere a bit cleaner and accommodating. I called extended stay and asked for my money back and was told no. This was the biggest waste of my money I have ever experienced. Do not be like me, save your money for somewhere with better service and cleaner rooms. I am genuinely surprised that this place is still operating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r516336060-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>516336060</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Excellent customer service!!!</t>
+  </si>
+  <si>
+    <t>I have stayed at the Extended Stay America-Denver-Tech Center S-Greenwood Village many times traveling for work. I had to cancel a trip last minute and had no issues, got refunded with no hassle. Thank you so much for making a stressful trip less stressful Extended Stay America Family!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at the Extended Stay America-Denver-Tech Center S-Greenwood Village many times traveling for work. I had to cancel a trip last minute and had no issues, got refunded with no hassle. Thank you so much for making a stressful trip less stressful Extended Stay America Family!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r510094537-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -571,9 +942,6 @@
     <t>My wife and I booked a room here via Hotwire but didn't end up staying here. I have to say the only pleasant part of the trip was the excellent service we received from Hotwire support who came through with a booking at another hotel after we decided we could not stay here and the amazing service we received at our alternate hotel. The first red flag was the drive in when we noticed piles of trash everywhere. Next was the sign on the wall next to the front desk stating that our information and IDs would be retained for Law Enforcement. Watching as the front desk lady slowly compared our IDs to a pile of photocopied driver’s licenses, I'm assuming to see if we were on some sort of a no go list, was at the very least disconcerting. The girl at the front desk was at least very pleasant but that far outweighs the feeling of uneasiness that only became worse as our stay marched on towards it's inevitable end. We eventually were given a room and handed a pair of room keys. Leaving the lobby, we were greeted in the parking lot by two police officers entering the lobby for what reasons we weren't sure but decided to make our way to the room. Walking up the stairs to the outdoor entry rooms and hallway was a tour through some of the most disgusting sights and smells...My wife and I booked a room here via Hotwire but didn't end up staying here. I have to say the only pleasant part of the trip was the excellent service we received from Hotwire support who came through with a booking at another hotel after we decided we could not stay here and the amazing service we received at our alternate hotel. The first red flag was the drive in when we noticed piles of trash everywhere. Next was the sign on the wall next to the front desk stating that our information and IDs would be retained for Law Enforcement. Watching as the front desk lady slowly compared our IDs to a pile of photocopied driver’s licenses, I'm assuming to see if we were on some sort of a no go list, was at the very least disconcerting. The girl at the front desk was at least very pleasant but that far outweighs the feeling of uneasiness that only became worse as our stay marched on towards it's inevitable end. We eventually were given a room and handed a pair of room keys. Leaving the lobby, we were greeted in the parking lot by two police officers entering the lobby for what reasons we weren't sure but decided to make our way to the room. Walking up the stairs to the outdoor entry rooms and hallway was a tour through some of the most disgusting sights and smells we've ever seen. The unknown goo oozing down the stairwell may have made for an interesting forensics examination, and admittedly was a fun recreation of an Indiana Jones movie as we carefully stepped around it but all in all was pretty gross. Finding our room was easy enough thanks to the map provided by the front desk girl. Opening the door was a little more difficult. Big shout out to that sticky door for trying to keep us out of that disgusting room… The room smelled of too much air freshener desperately trying to mask the odor of stale cigarette smoke, sweat and filth. Quite honestly we didn’t spend much time in the room itself and didn’t closely examine what our senses were telling us might actually be a crime scene and not a hotel room. Going back to the lobby to ask for a different room, one that is preferably clean and doesn’t come with the overwhelming smell of ashtray, we noticed an increased police presence in the parking lot. There was now another police car sitting there as if waiting for a crime they knew was coming soon. We handed in our keys to the first room and gained access to the second. The girl at the desk seemed unfazed by our wanting another room. Making me think that this happens often. The second room we saw was equally as horrible as the first but included some very unusual stains on the carpet. sofa, bedding and walls. We paused briefly to wonder if you could get an STD from breathing the air in the room before leaving and calling Hotwire support. As we exited the second room we were once again greeted by an increased police presence as more police cars were now in the lot, lying in wait for some seemingly inevitable crime. I asked my wife (an officer herself in a police department across the state), How many police cars are too many for a hotel? She commented grimly that she has seen fewer at her police station. Needless to say we refused to stay in the hotel that night so can’t comment about the overnight experience or the breakfast included with the stay. As we drove away from the post-apocalyptic hotel we finally saw what the police were after that night as they led several scantily clad women away in hand cuffs. “Prostitution round up” my wife murmured as we made our way out of the lot, with the sort of certainty that comes only from experience and leaves little room for doubt.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 10, 2017</t>
   </si>
   <si>
@@ -634,6 +1002,54 @@
     <t>Room was dirty, housekeeping never came to clean the room. Property itself was run down and there was trash and cigarette butts everywhere. Diss appointed with the overall experience, especially for the price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r507613456-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>507613456</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Staying at extended stay, the staff were wonderful and did an amazing job when checking in. I would recommend this place</t>
+  </si>
+  <si>
+    <t>Staying at extended stay was wonderful. The staff exceeded my expectations. They did a wonderful job at check-in, I was really impressed with Ayub. He made sure things were done smoothly and I was happy to see a friendly face. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Staying at extended stay was wonderful. The staff exceeded my expectations. They did a wonderful job at check-in, I was really impressed with Ayub. He made sure things were done smoothly and I was happy to see a friendly face. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r506755764-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>506755764</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel</t>
+  </si>
+  <si>
+    <t>It was nothing but a hassle since first walked un the door, got nothing but a run around on my clc account, when ive been using my account for my firefighters no problem anywhere else in the country, except for thus hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>It was nothing but a hassle since first walked un the door, got nothing but a run around on my clc account, when ive been using my account for my firefighters no problem anywhere else in the country, except for thus hotelMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r506456966-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -709,6 +1125,54 @@
     <t>Please stay away? unless you can put up with dirts and the smell. We checked in 2 adults and two children. 8 and 10 years old. And they gave us two pillows and two towels only. And I called the front desk for additional two more pillows and two more towel. And the service never provided. Ekkkkk! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r502222763-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>502222763</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Dirty Dirty</t>
+  </si>
+  <si>
+    <t>The cleanliness of facilities was terrible. The guest rooms appeared dirty and sheets looked dingy. When requested new sheets none were available.  We had to wait for clean towels daily so limited on the amount. The pull out couch matress was stained and lumpy and the arm rests were torn. The cRpet was soo stained amd there was dog hair everywhere.  There seems to be guest that are residents there. There was questionable activity and the police frequent the facility. Would not recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>The cleanliness of facilities was terrible. The guest rooms appeared dirty and sheets looked dingy. When requested new sheets none were available.  We had to wait for clean towels daily so limited on the amount. The pull out couch matress was stained and lumpy and the arm rests were torn. The cRpet was soo stained amd there was dog hair everywhere.  There seems to be guest that are residents there. There was questionable activity and the police frequent the facility. Would not recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r498110036-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>498110036</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel ever</t>
+  </si>
+  <si>
+    <t>The room was very dirty. Bathroom sink was not even wiped out between guests, There was a was of chewing gum on the shower curtain. None of the electrical outlets in the kitchen worked. It took 3 days to get sheets and a blanket for the sofa bed. There were people fighting outside the room at 3 am. Worst hotel I have stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>The room was very dirty. Bathroom sink was not even wiped out between guests, There was a was of chewing gum on the shower curtain. None of the electrical outlets in the kitchen worked. It took 3 days to get sheets and a blanket for the sofa bed. There were people fighting outside the room at 3 am. Worst hotel I have stayed at.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r497525564-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -724,12 +1188,6 @@
     <t>Great  Service loves going there would highly recommend it  would really come back employees are great service is good check in is always good lovely place great location all my friends about it  thank you for the great serviceMoreShow less</t>
   </si>
   <si>
-    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 4, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 4, 2017</t>
-  </si>
-  <si>
     <t>Great  Service loves going there would highly recommend it  would really come back employees are great service is good check in is always good lovely place great location all my friends about it  thank you for the great serviceMore</t>
   </si>
   <si>
@@ -781,6 +1239,51 @@
     <t>Check in was friendly but marred by being assigned to an occupied room and being reassigned.Room not very clean.  No smoking room smells heavily of cigarette smoke.  Lots of minor room damage, stained carpet and broken fixtures (heater wall mount, electrical socket cover plate, smoke detector hanging by a wire).  Amenities included kitchenette, super SLOW internet (0.85 up, 0.41 down measured by Ookla Speedtest).  Room price is around $115 USD.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r495537317-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>495537317</t>
+  </si>
+  <si>
+    <t>Ran away after 2 nights at this hotel</t>
+  </si>
+  <si>
+    <t>I ran away after two nights at this hotel. I could not stand the awful smell in the room. It smelled like old tobacco mixed in with some awful perfume, or cleaning agent. The appearance of everything in the room also left a lot to be desired. Everything looked cheap, and highly used. I understand that it is not a 5 star hotel, but the price is not that cheap. The only reason I booked it because all other hotels in the area were sold out, but I found another hotel during part of my stay, and ran away over there as quickly as I could.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>I ran away after two nights at this hotel. I could not stand the awful smell in the room. It smelled like old tobacco mixed in with some awful perfume, or cleaning agent. The appearance of everything in the room also left a lot to be desired. Everything looked cheap, and highly used. I understand that it is not a 5 star hotel, but the price is not that cheap. The only reason I booked it because all other hotels in the area were sold out, but I found another hotel during part of my stay, and ran away over there as quickly as I could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r495295446-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>495295446</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Smells like an airplane toilet</t>
+  </si>
+  <si>
+    <t>$130 a night got me a room that smelled like the inside of an airplane toilet. It was absolutely repulsive. The room had layers of dust over some articles. The floor was covered with layers of stains. I felt uncomfortable getting into bed to rest, but ultimately gave into the overwhelming fatigue that I had. I couldn't wait until the next morning to check out. Never again Denver Tech...never again. I cringe at even writing this review as the staff was wonderful, but the room was absolutely gross.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>$130 a night got me a room that smelled like the inside of an airplane toilet. It was absolutely repulsive. The room had layers of dust over some articles. The floor was covered with layers of stains. I felt uncomfortable getting into bed to rest, but ultimately gave into the overwhelming fatigue that I had. I couldn't wait until the next morning to check out. Never again Denver Tech...never again. I cringe at even writing this review as the staff was wonderful, but the room was absolutely gross.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r493663739-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -856,6 +1359,57 @@
     <t>It has been a privilege I love this hotel everyone here the staff the management the maintenance is wonderful and the property is always clean I recommend everyone to this hotel and I always sleep very well More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r485100598-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>485100598</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Should have read the reviews before trying to stay there...</t>
+  </si>
+  <si>
+    <t>Scheduled a nights stay.  The phone rep was efficient and believeable.  I gave my name, personal info, and CC over the phone.  She emailed me back right away with the confirmation right away.  Got to the hotel and wandered around the lobby for 15mins shouting "hello". Finally a kid comes to the desk and informs me that the room had been triple booked and there was nothing he could do.  Fortunately (or so I thought) there was another Extended Stay location close by.  Went there and told them of the experience at the other location.  This clerk was nice and got me a room.  I asked about my CC information at the other location and was told if "he didn't run the card, nothing would happen."  I got to the room to find a room from hell.  Extremely dirty and unkept. Carpet was disgusting and soiled.  Zero plates, untinsils or ANYTHING in the kitchen. One half roll of TP, unfolded towels, and filthy toilet in the bathroom.  TV turned on...but no volume.  Condoms in the nightstand. Clothes in the dresser.  Thought I might be staying in an occupied room and slept on top of the covers with my clothes on.  I really wish I would have checked the reviews.  After contacting customer service at the headquarters (45 minutes on hold), they told me essentially too bad and hung up.  How do companies like this stay in business.  I can assure...Scheduled a nights stay.  The phone rep was efficient and believeable.  I gave my name, personal info, and CC over the phone.  She emailed me back right away with the confirmation right away.  Got to the hotel and wandered around the lobby for 15mins shouting "hello". Finally a kid comes to the desk and informs me that the room had been triple booked and there was nothing he could do.  Fortunately (or so I thought) there was another Extended Stay location close by.  Went there and told them of the experience at the other location.  This clerk was nice and got me a room.  I asked about my CC information at the other location and was told if "he didn't run the card, nothing would happen."  I got to the room to find a room from hell.  Extremely dirty and unkept. Carpet was disgusting and soiled.  Zero plates, untinsils or ANYTHING in the kitchen. One half roll of TP, unfolded towels, and filthy toilet in the bathroom.  TV turned on...but no volume.  Condoms in the nightstand. Clothes in the dresser.  Thought I might be staying in an occupied room and slept on top of the covers with my clothes on.  I really wish I would have checked the reviews.  After contacting customer service at the headquarters (45 minutes on hold), they told me essentially too bad and hung up.  How do companies like this stay in business.  I can assure you it is from first time customers and not repeat business.  Disgusting place and terrible customer service on both the local and corporate level.  Run away from this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Scheduled a nights stay.  The phone rep was efficient and believeable.  I gave my name, personal info, and CC over the phone.  She emailed me back right away with the confirmation right away.  Got to the hotel and wandered around the lobby for 15mins shouting "hello". Finally a kid comes to the desk and informs me that the room had been triple booked and there was nothing he could do.  Fortunately (or so I thought) there was another Extended Stay location close by.  Went there and told them of the experience at the other location.  This clerk was nice and got me a room.  I asked about my CC information at the other location and was told if "he didn't run the card, nothing would happen."  I got to the room to find a room from hell.  Extremely dirty and unkept. Carpet was disgusting and soiled.  Zero plates, untinsils or ANYTHING in the kitchen. One half roll of TP, unfolded towels, and filthy toilet in the bathroom.  TV turned on...but no volume.  Condoms in the nightstand. Clothes in the dresser.  Thought I might be staying in an occupied room and slept on top of the covers with my clothes on.  I really wish I would have checked the reviews.  After contacting customer service at the headquarters (45 minutes on hold), they told me essentially too bad and hung up.  How do companies like this stay in business.  I can assure...Scheduled a nights stay.  The phone rep was efficient and believeable.  I gave my name, personal info, and CC over the phone.  She emailed me back right away with the confirmation right away.  Got to the hotel and wandered around the lobby for 15mins shouting "hello". Finally a kid comes to the desk and informs me that the room had been triple booked and there was nothing he could do.  Fortunately (or so I thought) there was another Extended Stay location close by.  Went there and told them of the experience at the other location.  This clerk was nice and got me a room.  I asked about my CC information at the other location and was told if "he didn't run the card, nothing would happen."  I got to the room to find a room from hell.  Extremely dirty and unkept. Carpet was disgusting and soiled.  Zero plates, untinsils or ANYTHING in the kitchen. One half roll of TP, unfolded towels, and filthy toilet in the bathroom.  TV turned on...but no volume.  Condoms in the nightstand. Clothes in the dresser.  Thought I might be staying in an occupied room and slept on top of the covers with my clothes on.  I really wish I would have checked the reviews.  After contacting customer service at the headquarters (45 minutes on hold), they told me essentially too bad and hung up.  How do companies like this stay in business.  I can assure you it is from first time customers and not repeat business.  Disgusting place and terrible customer service on both the local and corporate level.  Run away from this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r480257101-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>480257101</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Budget hotel</t>
+  </si>
+  <si>
+    <t>Room was halfway cleaned. They could not keep hotel with clean linen and towels. I'm glad I only had to do 2 nights cause I would not choose to stay here for an extended stay. Nice location just needs to be kept better. Front desk staff was friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Room was halfway cleaned. They could not keep hotel with clean linen and towels. I'm glad I only had to do 2 nights cause I would not choose to stay here for an extended stay. Nice location just needs to be kept better. Front desk staff was friendly. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r465588961-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -932,6 +1486,55 @@
   </si>
   <si>
     <t>A new place tkc call home. Since I have been here the staff has been wonderful helping me in any way they can to make my stay comfortable. I just moved from new York and this is a perfect temporary home. The front desk and manager Priscilla are exceptional. Always quick to help anyone in need. Mr. DAI DAI as well always helps me out with anything. This place is great because of them. If you are in need of a place for the night or long term I would highly suggest you stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r458581729-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>458581729</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Awful property - avoid!</t>
+  </si>
+  <si>
+    <t>The room number placards are impossible to see from the street.  I asked for a map to the location of my room, but was informed that they were not available.  As a single woman travelling alone, I found this disconcerting.  I had to drive around the buidling several times (with men litering about) before I was able to locate my room. 
+The first room reeked of cigarette smoke. I called the front desk and was promptly relocated.  I also asked the front desk attendant to show me the exact location of my room. The second room was filthy.  It was very stale and again smelled of cigarettes.  The microwave oven still had time programmed on it.  There were no batteries in the remote. There was no phone to call the front desk, so I walked over.  I was politely provided with two AA batteries, they were the wrong size as the remote requitred AAA's.  I again walked over to the lobby where I was then I was given a new remote and informed that I could call.  I replied that I could not call, as there was no phone in the room.  I was asked to wait and then handed a phone to install in my room.  
+After returning again to my room, I discovered there was no hot water with which to shower.  Upon checking out a day early the next morning, I was informed by the front desk...The room number placards are impossible to see from the street.  I asked for a map to the location of my room, but was informed that they were not available.  As a single woman travelling alone, I found this disconcerting.  I had to drive around the buidling several times (with men litering about) before I was able to locate my room. The first room reeked of cigarette smoke. I called the front desk and was promptly relocated.  I also asked the front desk attendant to show me the exact location of my room. The second room was filthy.  It was very stale and again smelled of cigarettes.  The microwave oven still had time programmed on it.  There were no batteries in the remote. There was no phone to call the front desk, so I walked over.  I was politely provided with two AA batteries, they were the wrong size as the remote requitred AAA's.  I again walked over to the lobby where I was then I was given a new remote and informed that I could call.  I replied that I could not call, as there was no phone in the room.  I was asked to wait and then handed a phone to install in my room.  After returning again to my room, I discovered there was no hot water with which to shower.  Upon checking out a day early the next morning, I was informed by the front desk clerk that indeed the building I had been roomed in did not have hot water and that it should be rectified later that afternoon.  I then asked why I had been given a room in a building that knowingly had no hot water.This experience was extremely upsetting.  I will never stay in an Extended Stay property again and will be very vocal in relaying my awful experience with your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>The room number placards are impossible to see from the street.  I asked for a map to the location of my room, but was informed that they were not available.  As a single woman travelling alone, I found this disconcerting.  I had to drive around the buidling several times (with men litering about) before I was able to locate my room. 
+The first room reeked of cigarette smoke. I called the front desk and was promptly relocated.  I also asked the front desk attendant to show me the exact location of my room. The second room was filthy.  It was very stale and again smelled of cigarettes.  The microwave oven still had time programmed on it.  There were no batteries in the remote. There was no phone to call the front desk, so I walked over.  I was politely provided with two AA batteries, they were the wrong size as the remote requitred AAA's.  I again walked over to the lobby where I was then I was given a new remote and informed that I could call.  I replied that I could not call, as there was no phone in the room.  I was asked to wait and then handed a phone to install in my room.  
+After returning again to my room, I discovered there was no hot water with which to shower.  Upon checking out a day early the next morning, I was informed by the front desk...The room number placards are impossible to see from the street.  I asked for a map to the location of my room, but was informed that they were not available.  As a single woman travelling alone, I found this disconcerting.  I had to drive around the buidling several times (with men litering about) before I was able to locate my room. The first room reeked of cigarette smoke. I called the front desk and was promptly relocated.  I also asked the front desk attendant to show me the exact location of my room. The second room was filthy.  It was very stale and again smelled of cigarettes.  The microwave oven still had time programmed on it.  There were no batteries in the remote. There was no phone to call the front desk, so I walked over.  I was politely provided with two AA batteries, they were the wrong size as the remote requitred AAA's.  I again walked over to the lobby where I was then I was given a new remote and informed that I could call.  I replied that I could not call, as there was no phone in the room.  I was asked to wait and then handed a phone to install in my room.  After returning again to my room, I discovered there was no hot water with which to shower.  Upon checking out a day early the next morning, I was informed by the front desk clerk that indeed the building I had been roomed in did not have hot water and that it should be rectified later that afternoon.  I then asked why I had been given a room in a building that knowingly had no hot water.This experience was extremely upsetting.  I will never stay in an Extended Stay property again and will be very vocal in relaying my awful experience with your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r458539643-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>458539643</t>
+  </si>
+  <si>
+    <t>Highly recommend</t>
+  </si>
+  <si>
+    <t>Great staff. Very helpful and kind! Will return in the future. Breakfast could be improved. I would highly recommend to friends and family. Great location near the light rail and plenty of places to eatMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Great staff. Very helpful and kind! Will return in the future. Breakfast could be improved. I would highly recommend to friends and family. Great location near the light rail and plenty of places to eatMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r455753276-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
@@ -1030,6 +1633,60 @@
 4. The smoke detector in my first room on the third floor malfunctioned at around 1:00 AM and there was no one at the property or that could be reached capable of disabling it, repairing or otherwise taking action...Let me start with some positive feedback: 1. The staff (not management) is friendly and I believe are trying to provide good service. 2. The location of the property is convenient to most of Southern Denver3. Parking is adequate and well lit. Don't get the wrong idea though, those are about all of the positive features of this hotel, because this is a warning not a review.  The Problems:1. The elevator was out of service during my entire stay and other guests of longer term have reported that the elevator's performance has been spotty at best to non-existent over the past two months. 2. Guests on the third floor are commonly short changed in terms of cleaning and fresh towels because the clean towels are on the first floor and housekeeping is delayed in bringing them up for service. My room upon checkin only had one towel in the entire room.3. Maintenance is either being deferred, not being performed or projects are beginning but not being completed, there are radiator parts in the hall ways, HVAC components are laying on the floor in guest rooms and wiring is exposed from the front of the unit in the room. 4. The smoke detector in my first room on the third floor malfunctioned at around 1:00 AM and there was no one at the property or that could be reached capable of disabling it, repairing or otherwise taking action to stop it. The front desk attendant was actually a housekeeper (which may explain the cleanliness issues on the premises) and was not familiar with how to change rooms. The attendant attempted to contact the General Manager who did not respond during the 45-minutes I was standing in the lobby, finally I was able to get a Reservation line supervisor to walk the employee at the front desk through the process of changing rooms. This was done at my own initiative because the Property's general manager was unresponsive. 5. I left a note at the front desk requesting that the General Manager of the property get in touch with me the next day. As of the writing of this post this has not occurred. 6. I generally have little confidence that l will hear anything back from the General Manager as when I was checking-in to the property, I asked to speak to the General manager, who slammed the office door adjacent to the front desk so as to avoid having to converse with me. 7. I have contacted the guest relations hotline, which is apparently woefully understaffed or the quality (or lack thereof) has led to a huge volume of calls as it took over 25 minutes to speak to a representative and my hold-time for a supervisor was longer still. 8. Finally, while waiting for the general manager during the early morning hours, I was able to look at the staff communication manual, I was interested in a note that read: DO NOT GIVE EXTRA TOWELS TO GUESTS, EVER. This message went on to explain that they would only exchange towels. So remember this hotel is one towel per room so every time you take a shower, wash your face, your hands you'll need to walk from the third floor to the front desk to exchange your towel. Have fun!I hope that this review serves as a warning to any one thinking of staying at this property, I would advise you stay elsewhere there are multiple hotels adjacent with comparable rates. These issues are endemic of terrible management at the hotel that neither values or supports its employees, the maintenance of its property or providing outstanding service to its guests.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r437632803-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>437632803</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>The staff was great and helpful close to outdoors mall quite hotel !!!!!!!!!!!!!!!!!! If only the had a pool and more plants I think this would be perfect for the area of hotel. !!!!!!!!! A few crazies but what would the world be w/o themMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2016</t>
+  </si>
+  <si>
+    <t>The staff was great and helpful close to outdoors mall quite hotel !!!!!!!!!!!!!!!!!! If only the had a pool and more plants I think this would be perfect for the area of hotel. !!!!!!!!! A few crazies but what would the world be w/o themMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r437214966-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>437214966</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>You can only do so much</t>
+  </si>
+  <si>
+    <t>This place was last minute choice with hesitation I was actually surprised staff is Friendly Jacque was a great help and the room wasn't bad could use updated floor other than that I'd lodge here againMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>This place was last minute choice with hesitation I was actually surprised staff is Friendly Jacque was a great help and the room wasn't bad could use updated floor other than that I'd lodge here againMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r434692766-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1069,9 +1726,6 @@
     <t>The assistant manager Andre has been great during my stay here. In the process of moving and he and his staff have done a great job making the environment feel like home. I would recommend you stay here if you are needing an extended hotel stay. The rooms were always clean and plus it close to the light rail station. Also great resutrsnts nearby in the area. Thank you Andre and your staff.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded October 10, 2016</t>
   </si>
   <si>
@@ -1105,6 +1759,57 @@
     <t>Staff was horrible, bad attitudes, didnt know what they were doing. Checked in was given key cards to wrong room, then was given key to someone else's room and finally was given a room that smelled so bad of smoke and was DIRTY.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r404571039-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>404571039</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Staff Needs Attitude Adjustment</t>
+  </si>
+  <si>
+    <t>If you smoke, this is place is fine.  If you don't smoke, your non-smoking room may smell of smoke.  If you complain, the staff may tell you you can check out if you don't like it.  It is a standard Extended Stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2016</t>
+  </si>
+  <si>
+    <t>If you smoke, this is place is fine.  If you don't smoke, your non-smoking room may smell of smoke.  If you complain, the staff may tell you you can check out if you don't like it.  It is a standard Extended Stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r397324372-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>397324372</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>Stayed with wife and kids. Pretty close to everything you need. Clean and comfortable for the price.  Nice restaurants just east and close to the train. We stayed in the double queen with pull out couch and none of the kids complained.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Stayed with wife and kids. Pretty close to everything you need. Clean and comfortable for the price.  Nice restaurants just east and close to the train. We stayed in the double queen with pull out couch and none of the kids complained.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r396641215-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1183,6 +1888,45 @@
     <t>This was by far the most pleasant stay away from home that my family has ever had!! We have stayed at several extended stays throughout Denver, such as Crossland, Intown, ect and this extended stay of America by far surpasses them all!! Amazing hospitality through and through!! During our stay Andre and Alicia made us feel like "family" and were more than happy to make us feel at home!! From the cleanliness of the room and property to the convenience of location, this place won't let you down!! Exceptional value!! We will never stay anywhere else!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r391482546-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>391482546</t>
+  </si>
+  <si>
+    <t>Wonderful, attentive staff &amp; great location</t>
+  </si>
+  <si>
+    <t>I've been pleasantly surprised by my stay here... not only are the staff great, but even the other guests seem nice. The room is decorated in an up-to-date way, has more storage than I would expect &amp; is layed out really nicely.  Having a good stay so far and plan to stay longer!MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been pleasantly surprised by my stay here... not only are the staff great, but even the other guests seem nice. The room is decorated in an up-to-date way, has more storage than I would expect &amp; is layed out really nicely.  Having a good stay so far and plan to stay longer!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r389420296-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>389420296</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Better extended stays in the area</t>
+  </si>
+  <si>
+    <t>We had to move into an extended stay while waiting on our apt...we loved the location of this one, you can literally walk 5 minutes and be at the shops and restaurants at the Landmark.  However, the room is extremely small and dirty.  Our floor was sticky, we had 1 towel upon checking in, the sink drained soo slowly, a few light bulbs were out, very dark room, oh and we kept smelling weed.  Cops were here nightly.  There was even some huge heroin drug bust while we were here.  Like 20 cop cars, guys in full SWAT uniform, huge guns, kinda scary.  They were taking evidence from some room and even searching a car parked outside.  you can search greenwood village police log and see about 5 drug offenses at this location in the past month.  I give it two stars because the woman who works the front desk was always very nice and as helpful as she could be.  But yeah, I would stay elsewhere.  The hotel is in a nice area so we were both very surprised to find out what a drug den this place is. Oh and the wifi is PAINFULLY slow, even when you pay for upgraded Internet. The fitness center is literally 1 elliptical and 1 treadmill.  No pool.  I've had my car for 2 years and have gotten no door dings or major scratches yet parking here for two weeks my car...We had to move into an extended stay while waiting on our apt...we loved the location of this one, you can literally walk 5 minutes and be at the shops and restaurants at the Landmark.  However, the room is extremely small and dirty.  Our floor was sticky, we had 1 towel upon checking in, the sink drained soo slowly, a few light bulbs were out, very dark room, oh and we kept smelling weed.  Cops were here nightly.  There was even some huge heroin drug bust while we were here.  Like 20 cop cars, guys in full SWAT uniform, huge guns, kinda scary.  They were taking evidence from some room and even searching a car parked outside.  you can search greenwood village police log and see about 5 drug offenses at this location in the past month.  I give it two stars because the woman who works the front desk was always very nice and as helpful as she could be.  But yeah, I would stay elsewhere.  The hotel is in a nice area so we were both very surprised to find out what a drug den this place is. Oh and the wifi is PAINFULLY slow, even when you pay for upgraded Internet. The fitness center is literally 1 elliptical and 1 treadmill.  No pool.  I've had my car for 2 years and have gotten no door dings or major scratches yet parking here for two weeks my car is now full of scratches and door dings.  Very annoyed. Says a lot about the type of ppl who stay here (and live here full time it seems).MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>We had to move into an extended stay while waiting on our apt...we loved the location of this one, you can literally walk 5 minutes and be at the shops and restaurants at the Landmark.  However, the room is extremely small and dirty.  Our floor was sticky, we had 1 towel upon checking in, the sink drained soo slowly, a few light bulbs were out, very dark room, oh and we kept smelling weed.  Cops were here nightly.  There was even some huge heroin drug bust while we were here.  Like 20 cop cars, guys in full SWAT uniform, huge guns, kinda scary.  They were taking evidence from some room and even searching a car parked outside.  you can search greenwood village police log and see about 5 drug offenses at this location in the past month.  I give it two stars because the woman who works the front desk was always very nice and as helpful as she could be.  But yeah, I would stay elsewhere.  The hotel is in a nice area so we were both very surprised to find out what a drug den this place is. Oh and the wifi is PAINFULLY slow, even when you pay for upgraded Internet. The fitness center is literally 1 elliptical and 1 treadmill.  No pool.  I've had my car for 2 years and have gotten no door dings or major scratches yet parking here for two weeks my car...We had to move into an extended stay while waiting on our apt...we loved the location of this one, you can literally walk 5 minutes and be at the shops and restaurants at the Landmark.  However, the room is extremely small and dirty.  Our floor was sticky, we had 1 towel upon checking in, the sink drained soo slowly, a few light bulbs were out, very dark room, oh and we kept smelling weed.  Cops were here nightly.  There was even some huge heroin drug bust while we were here.  Like 20 cop cars, guys in full SWAT uniform, huge guns, kinda scary.  They were taking evidence from some room and even searching a car parked outside.  you can search greenwood village police log and see about 5 drug offenses at this location in the past month.  I give it two stars because the woman who works the front desk was always very nice and as helpful as she could be.  But yeah, I would stay elsewhere.  The hotel is in a nice area so we were both very surprised to find out what a drug den this place is. Oh and the wifi is PAINFULLY slow, even when you pay for upgraded Internet. The fitness center is literally 1 elliptical and 1 treadmill.  No pool.  I've had my car for 2 years and have gotten no door dings or major scratches yet parking here for two weeks my car is now full of scratches and door dings.  Very annoyed. Says a lot about the type of ppl who stay here (and live here full time it seems).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r381454962-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1258,6 +2002,45 @@
     <t>Checking in here was a breeze and and supprisingly enjoyable. After a long day the staff were all so friendly and eager to help you settle in comfortably. Ayub in particular was a joy to work with but the entire staff was pleasant.Our room was very spacious and homie with a full fridge, stove and dish washer! I was pleased to wake up to muffins and coffee provided by the office and watch the news. BEST EXTENDED STAY LOCATION!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r353092670-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>353092670</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Unbelievably poor hotel</t>
+  </si>
+  <si>
+    <t>Pulling into the parking lot had me questioning where I booked. When I reached my room (had to park far away due to somebody with a smoker in the parking spot by my room) I opened the door and was overwhelmed by stale cigarette smell. I turned on the lights saw how disgusting the room was and went back to the registration desk and got a full refund. I can say that the staff was excellent just not a place I felt safe nor would I ever risk taking a family here.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r350514120-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>350514120</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Horrible.  Do not stay here.  Almost better to stay in your car during your stay</t>
+  </si>
+  <si>
+    <t>This is the most ridiculous hotel I have ever stayed at.  I would not recommend this hotel to a homeless person because their outdoor conditions might be as good or better.Checking in is a good luck situation.  I checked in and was told you need to come back in at least a hour because your room isn't ready.  I was already 1 hour after check in time and my room isn't ready.  Fully stocked kitchenette, I don't think so.  Breakfast bar.  Only if you request items because if they run low, they don't check and when they do run low take 5 - 10 minutes to restockSTAY HERE AT YOUR OWN RISKMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This is the most ridiculous hotel I have ever stayed at.  I would not recommend this hotel to a homeless person because their outdoor conditions might be as good or better.Checking in is a good luck situation.  I checked in and was told you need to come back in at least a hour because your room isn't ready.  I was already 1 hour after check in time and my room isn't ready.  Fully stocked kitchenette, I don't think so.  Breakfast bar.  Only if you request items because if they run low, they don't check and when they do run low take 5 - 10 minutes to restockSTAY HERE AT YOUR OWN RISKMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r349216217-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1288,9 +2071,6 @@
     <t>I could not believe how terrible this hotel was. Upon opening the door we were greeted with a thick smoke smell that was almost unbearable.  The room was absolutely filthy; carpets, walls, furniture.  Everything. There was one towel in the bathroom and no soaps or anything like that. There was only one cup in the kitchen.  To top it all off we found a box of handgun ammunition between the mattress and box spring! What kind of hotel is this?! Booked through Hotwire and it wasn't cheap but not too expensive so normally I'd say , "you get what you pay for" but this was beyond bad. In order to get towels we had to walk to the main office and waited about 20 minutes to get them.  While there I had the chance to hear some other horror stories from other guest. One gentleman who was staying for an extended period of time said he had to go to the office every night because his room key would reset at 11pm and every night and lock him out. This hotel is an absolute joke. Do yourself a favor and just pay the extra money for a decent hotel in this area. Note: I don't think I'll ever use Hotwire again because of this.MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded September 3, 2015</t>
   </si>
   <si>
@@ -1318,6 +2098,42 @@
     <t>This is an extended stay hotel, that claims kitchenettes that are stocked, but aren't. If you need more than one roll of toilet paper you have to go to the office, or extra towels, go to the office, or cups, or glasses, go to the office. If you  stay less than a week there is no maid service, if you stay for personal reasons you are put on the highway side of the building. There is trash lying around the place in numerous places that hasn't bee picked up in the four days we've been here. I have pictures. For the person who says there are worse, I'll have to keep looking. The WI-FI is throttled, so you'll order the faster data rates.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r300294620-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>300294620</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>I wouldn't wish this place upon my worst enemies</t>
+  </si>
+  <si>
+    <t>This was the most miserable experience.  We stayed for 60 days and they didn't clean the room once! Upon booking and checking in, we were told we would receive a once a week cleaning.  This NEVER happened.  We have a dog so we tried scheduling multiple times and they reported they had no housekeeping services for longer stay people.  The sinks and drains were clogged and no one came to fix them.  The keys consistently deactivated and then you had to wait for the ONE attendant in the front office to check people in before getting your key to work.  Room sucked in all the smoke from people allowed to smoke nearby and was awful.  Dishwasher didn't work and no soap was provided for cleaning the dirty dishes they provided.  Everything about this place is awful.  Seriously, PLEASE save yourself the pain of staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This was the most miserable experience.  We stayed for 60 days and they didn't clean the room once! Upon booking and checking in, we were told we would receive a once a week cleaning.  This NEVER happened.  We have a dog so we tried scheduling multiple times and they reported they had no housekeeping services for longer stay people.  The sinks and drains were clogged and no one came to fix them.  The keys consistently deactivated and then you had to wait for the ONE attendant in the front office to check people in before getting your key to work.  Room sucked in all the smoke from people allowed to smoke nearby and was awful.  Dishwasher didn't work and no soap was provided for cleaning the dirty dishes they provided.  Everything about this place is awful.  Seriously, PLEASE save yourself the pain of staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r300261906-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>300261906</t>
+  </si>
+  <si>
+    <t>Attractive Price, Many Shortcomings; Wouldn't Recommend</t>
+  </si>
+  <si>
+    <t>The price is few dollars cheaper than competitors, but many things are lacking...small room, one hand towel and one washcloth only, no coffee machine and no cups to even brush your teeth with, Ac worked but couldn't leave it at one setting to get a constant temp, wifi got very slow in evening hours, shower knob loose and half off made it hard to adjust, no kitchen utensils (didn't realize you had to ask for them), no luggage carts, no ice machine, no bedding for sofa bed, bad smell, like other reviewers were saying - there were always people hanging around outside the rooms smoking and looking us over when we returned.  Not a pleasant stay, would not recommend this property and wouldn't return if coming back to the Denver area....MoreShow less</t>
+  </si>
+  <si>
+    <t>The price is few dollars cheaper than competitors, but many things are lacking...small room, one hand towel and one washcloth only, no coffee machine and no cups to even brush your teeth with, Ac worked but couldn't leave it at one setting to get a constant temp, wifi got very slow in evening hours, shower knob loose and half off made it hard to adjust, no kitchen utensils (didn't realize you had to ask for them), no luggage carts, no ice machine, no bedding for sofa bed, bad smell, like other reviewers were saying - there were always people hanging around outside the rooms smoking and looking us over when we returned.  Not a pleasant stay, would not recommend this property and wouldn't return if coming back to the Denver area....More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r298430612-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1366,12 +2182,6 @@
     <t>The customer service was awful, the room was semi-clean, and the bathroom was horrible! The toilet was not cleaned but heavily used, the water pressure was non-existent, and you either got HOT scalding water or freezing water. Also the "fitness" room was just an empty spare room with two work out machines tossed in there.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded August 11, 2015</t>
   </si>
   <si>
@@ -1381,6 +2191,51 @@
     <t>The customer service was awful, the room was semi-clean, and the bathroom was horrible! The toilet was not cleaned but heavily used, the water pressure was non-existent, and you either got HOT scalding water or freezing water. Also the "fitness" room was just an empty spare room with two work out machines tossed in there.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r288214941-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>288214941</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>No way....... not even if you paid me</t>
+  </si>
+  <si>
+    <t>This hotel is inexpensive, but you get what you pay for. For a hotel with a mini kitchen, you expect to be able to USE said kitchen. Nope, you have to go down to the front desk and ASK for the utensils for the kitchen. Without planning out your meals, you have no idea what exactly you need. Utensils should be already in the room. No soap for washing dishes, no scrub pad or anything to wash them with-we had to buy those things. By that time, I could have paid to stay at a nicer hotel! The toilet had that nasty ring look in it, as if it never gets clean and just re flushed or not flushed at all... gross!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is inexpensive, but you get what you pay for. For a hotel with a mini kitchen, you expect to be able to USE said kitchen. Nope, you have to go down to the front desk and ASK for the utensils for the kitchen. Without planning out your meals, you have no idea what exactly you need. Utensils should be already in the room. No soap for washing dishes, no scrub pad or anything to wash them with-we had to buy those things. By that time, I could have paid to stay at a nicer hotel! The toilet had that nasty ring look in it, as if it never gets clean and just re flushed or not flushed at all... gross!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r284831039-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>284831039</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>TERRIBLE experience!</t>
+  </si>
+  <si>
+    <t>This hotel was recommended to me by someone in Denver.  I was shocked when I arrived and saw the deplorable room I had reserved.  The check in area was not well maintained.  That should have been my first clue.  When I entered the assigned room, a foul smell and dingy appearance were the first things I noticed.  Upon entering, I saw that the wall lamp by the bed was hanging by one bolt....the other three bolts were not attached to the wall.  I called the front desk and asked for another room.  The clerk was apologetic and said she would be right down.  After waiting for ten minutes, I went to the front desk to see about another room.  The second room I was given was not any better!  Same foul odor when I opened the door, same dingy appearance in general.  The bedside lamp was however, attached to the wall.  I was horrified to find plaster along the baseboards (never vacuumed, I guess!), debris on the grungy carpet, a computer chair in the kitchen with so many sweaty/dirty areas that I would not sit on it, hair in the BED, a tear in the sheet, dirty top blanket, hair in the tub and sink, water on the bathroom floor, stains on the white towels, a grungy hairdryer.  I actually cried because it was late and raining and I felt I had no alternative but to stay in this pit!...This hotel was recommended to me by someone in Denver.  I was shocked when I arrived and saw the deplorable room I had reserved.  The check in area was not well maintained.  That should have been my first clue.  When I entered the assigned room, a foul smell and dingy appearance were the first things I noticed.  Upon entering, I saw that the wall lamp by the bed was hanging by one bolt....the other three bolts were not attached to the wall.  I called the front desk and asked for another room.  The clerk was apologetic and said she would be right down.  After waiting for ten minutes, I went to the front desk to see about another room.  The second room I was given was not any better!  Same foul odor when I opened the door, same dingy appearance in general.  The bedside lamp was however, attached to the wall.  I was horrified to find plaster along the baseboards (never vacuumed, I guess!), debris on the grungy carpet, a computer chair in the kitchen with so many sweaty/dirty areas that I would not sit on it, hair in the BED, a tear in the sheet, dirty top blanket, hair in the tub and sink, water on the bathroom floor, stains on the white towels, a grungy hairdryer.  I actually cried because it was late and raining and I felt I had no alternative but to stay in this pit!  I cannot believe that people actually think this kind of accommodation is acceptable!!!!  While it was a bit cheaper, I did not expect to find a place this deplorable in the Denver Tech Center.  Needless to say, I found another hotel after the first night of my stay.  The difference in the accommodations was night and day!  This hotel is not worth HALF of what I was charged!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was recommended to me by someone in Denver.  I was shocked when I arrived and saw the deplorable room I had reserved.  The check in area was not well maintained.  That should have been my first clue.  When I entered the assigned room, a foul smell and dingy appearance were the first things I noticed.  Upon entering, I saw that the wall lamp by the bed was hanging by one bolt....the other three bolts were not attached to the wall.  I called the front desk and asked for another room.  The clerk was apologetic and said she would be right down.  After waiting for ten minutes, I went to the front desk to see about another room.  The second room I was given was not any better!  Same foul odor when I opened the door, same dingy appearance in general.  The bedside lamp was however, attached to the wall.  I was horrified to find plaster along the baseboards (never vacuumed, I guess!), debris on the grungy carpet, a computer chair in the kitchen with so many sweaty/dirty areas that I would not sit on it, hair in the BED, a tear in the sheet, dirty top blanket, hair in the tub and sink, water on the bathroom floor, stains on the white towels, a grungy hairdryer.  I actually cried because it was late and raining and I felt I had no alternative but to stay in this pit!...This hotel was recommended to me by someone in Denver.  I was shocked when I arrived and saw the deplorable room I had reserved.  The check in area was not well maintained.  That should have been my first clue.  When I entered the assigned room, a foul smell and dingy appearance were the first things I noticed.  Upon entering, I saw that the wall lamp by the bed was hanging by one bolt....the other three bolts were not attached to the wall.  I called the front desk and asked for another room.  The clerk was apologetic and said she would be right down.  After waiting for ten minutes, I went to the front desk to see about another room.  The second room I was given was not any better!  Same foul odor when I opened the door, same dingy appearance in general.  The bedside lamp was however, attached to the wall.  I was horrified to find plaster along the baseboards (never vacuumed, I guess!), debris on the grungy carpet, a computer chair in the kitchen with so many sweaty/dirty areas that I would not sit on it, hair in the BED, a tear in the sheet, dirty top blanket, hair in the tub and sink, water on the bathroom floor, stains on the white towels, a grungy hairdryer.  I actually cried because it was late and raining and I felt I had no alternative but to stay in this pit!  I cannot believe that people actually think this kind of accommodation is acceptable!!!!  While it was a bit cheaper, I did not expect to find a place this deplorable in the Denver Tech Center.  Needless to say, I found another hotel after the first night of my stay.  The difference in the accommodations was night and day!  This hotel is not worth HALF of what I was charged!!!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r281841358-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1396,9 +2251,6 @@
     <t>I called to speak with someone about getting my discounts applied after checkout. The woman at the front desk was rude to me and hung up on me and wouldn't let me talk to the manager. So who knows if I'll ever get my discounts.</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r277817947-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1438,6 +2290,51 @@
     <t>First, let me start by saying, all of these negative reviews seem to have NO effect on management, because this "hotel" is still terribly run! I was looking forward to staying at this location because they claim to be "recently renovated." Riiiight. I guess putting in a flat-screen tv(that only has small a handful of channels)qualifies as "renovated." I'm not sure if every ESA is managed like this location, but if so, my family will NEVER give our business to another one. Unfortunately, we're currently stuck here, waiting for our new home to be ready. However we will be checking out in a couple days, and finding a cleaner, better managed hotel to stay in. The day after our arrival, my husband noticed we were already charged for the room, when they clearly state credit cards will be charged upon check-out. We were also overcharged. When questioning this, the girl at the front desk gave him the run-around, &amp; said we were mistaken about the price. Customer service at its finest! ESA states every room comes equipped with cutlery, cookware &amp; utensils. What they Don't say is you have to hunt someone down for this stuff, &amp; lug it back to your room yourself! I tried calling "0" on the in-room phone for assistance, &amp; after 10 mins of silence (I had to make sure a few times someone was still on the other end), I was told,"I made a...First, let me start by saying, all of these negative reviews seem to have NO effect on management, because this "hotel" is still terribly run! I was looking forward to staying at this location because they claim to be "recently renovated." Riiiight. I guess putting in a flat-screen tv(that only has small a handful of channels)qualifies as "renovated." I'm not sure if every ESA is managed like this location, but if so, my family will NEVER give our business to another one. Unfortunately, we're currently stuck here, waiting for our new home to be ready. However we will be checking out in a couple days, and finding a cleaner, better managed hotel to stay in. The day after our arrival, my husband noticed we were already charged for the room, when they clearly state credit cards will be charged upon check-out. We were also overcharged. When questioning this, the girl at the front desk gave him the run-around, &amp; said we were mistaken about the price. Customer service at its finest! ESA states every room comes equipped with cutlery, cookware &amp; utensils. What they Don't say is you have to hunt someone down for this stuff, &amp; lug it back to your room yourself! I tried calling "0" on the in-room phone for assistance, &amp; after 10 mins of silence (I had to make sure a few times someone was still on the other end), I was told,"I made a ticket for you, &amp; when someone returns to the front desk, they will help you." 3 days later, I'm still waiting! However, given the old &amp; dirty condition of everything else here, im no longer interested in using any cookware from this place! I'm questioning whether our room was even cleaned before our arrival, because there are long black hairs around the kitchen &amp; bathroom sinks &amp; in the bathtub-along with a nasty shower head &amp; dirty ring around the drain! There's old spaghetti on the floor, near the fridge that has dents all over it. Dirty counters &amp; kitchen table, vinyl pull-out couch with stains on back cushions(I won't pull out the bed due to fear of what I'll find)! The "Free" WiFi is straight from the dial-up days, but we can upgrade "for a fee." Carpets are stained, we have to get our own towels, &amp; toiletries consist of 2 small bars of soap! Breakfast consists of 2 kinds of crunchy granola bars, oatmeal packets, an apple or orange, muffins before 7 a.m., &amp; coffee without real milk to put in it. Also, the police were 2 doors down 3 times in 1 day(restraining order issues &amp; drug interrogation), resulting in 2 arrests. When my husband brought our concerns to the front desk, he was told, "That was just a one-time occurrence." Not from other reviews I'm now reading about this place!  The saddest part of all this: I don't expect ANY kind of attention, resolution or refund from Management. Unless you count the "apology" response from "Management" after every poor review on this site, as a resolution...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r264318506-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>264318506</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Sal P</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at Extended Stay America-Denver-Tech Center, I have no complaints and I had no problems, my room was clean and in very nice condition, staff was very helpful and polite, staff helped with locating restaurants in the area and places to view for personal interest.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r254736456-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>254736456</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Worst Hotel Experience- Do Not Book Here</t>
+  </si>
+  <si>
+    <t>Me and My fiancé booked a room here a few days in advance for Valentine’s day. When we showed up on Valentine’s Day to check in, the lady at the front desk rudely told us that their hotel was OVERBOOKED and that they didn't have a room for us and we would have to leave and stay somewhere else. When we asked how this was possible the lady at the front desk was incredibly rude saying she doesn’t know, it’s not her problem and that we would have to deal with “Hotels.com.” First I couldn’t believe that they had someone like this representing their hotel, turning us away with zero empathy and zero solutions. Since it was obvious that she couldn’t care less about us and our special day, we then called “Hotels.com” to find out where another hotel was in the area and the wait time to speak with a representative was 4 hours. We then went back in to ask what other hotels are in the area and saw 3 other couples being turned away for the same thing, again the front desk unapologetically saying “Sorry, it’s not our fault or problem, you have to talk to Hotels.com.” It was obvious that Management at the hotel dropped the ball and over sold their hotel by leaving the OTA’s open (which is the way that hotels allow Outside Travel Agencies to book rooms at their hotel) thereby leaving multiple...Me and My fiancé booked a room here a few days in advance for Valentine’s day. When we showed up on Valentine’s Day to check in, the lady at the front desk rudely told us that their hotel was OVERBOOKED and that they didn't have a room for us and we would have to leave and stay somewhere else. When we asked how this was possible the lady at the front desk was incredibly rude saying she doesn’t know, it’s not her problem and that we would have to deal with “Hotels.com.” First I couldn’t believe that they had someone like this representing their hotel, turning us away with zero empathy and zero solutions. Since it was obvious that she couldn’t care less about us and our special day, we then called “Hotels.com” to find out where another hotel was in the area and the wait time to speak with a representative was 4 hours. We then went back in to ask what other hotels are in the area and saw 3 other couples being turned away for the same thing, again the front desk unapologetically saying “Sorry, it’s not our fault or problem, you have to talk to Hotels.com.” It was obvious that Management at the hotel dropped the ball and over sold their hotel by leaving the OTA’s open (which is the way that hotels allow Outside Travel Agencies to book rooms at their hotel) thereby leaving multiple people stranded on a holiday weekend which is their fault since it’s their hotel! When we asked the lady what are other hotels in the area she again said “You have to call Hotels.com for that information, I can’t help you.” I was in disbelief that not only did “Extended Stay” overbook their hotel but they were unwilling to help us at all.  Having worked in a hotel for over two years now in the reservations department I know that is not how you are supposed to treat guests when you oversell the hotel, you are supposed to offer them options, WALK them to another hotel and Cover ALL the room charges and maybe even a little extra as a way of apology perhaps purchase breakfast as well or offer a credit for them to return on a future stay!  Because the incompetent front desk staffer was unwilling to assist not only myself but all the other guests that were turned away due to their hotels oversight we were now out the money we had already placed as a deposit on the room as well as a place to stay as I am sure all the other guests were as well.  For some people spending $200 between the two hotels might not affect them that much, however it drastically affects my fiancé and I.  Now we were out the money that the hotel already charged as we wait to speak to Hotels.com for a refund. You can imagine this is not how we planned to spend our Valentine’s Day weekend, first not having a room to stay in since they oversold their hotel, secondly being treated so rudely by the lady at the front desk, and thirdly now being out the money and having to drive around looking for other accommodations in an unfamiliar area. We then drove around and eventually found DOUBLETREE hotel Denver Tech(7801 E Orchard Road, Greenwood Village, CO 80111) and their great staff understood our frustration and were so kind as to help us out anyway they could. I highly suggest staying at the DoubleTree and to NEVER book with Extended Stay since most likely you will show up without a room to stay in.  Many of you reading this may think well maybe it was because it was Valentine’s day which is a crazy day for hotels and that this is a onetime occurrence I urge you to think of it this way, if their management and staff don’t care or have the wherewithal to monitor their availability over one of the busiest days for hotels in a year then what do you think they pay attention to the rest of the year?MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Tech Center - North, responded to this reviewResponded March 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2015</t>
+  </si>
+  <si>
+    <t>Me and My fiancé booked a room here a few days in advance for Valentine’s day. When we showed up on Valentine’s Day to check in, the lady at the front desk rudely told us that their hotel was OVERBOOKED and that they didn't have a room for us and we would have to leave and stay somewhere else. When we asked how this was possible the lady at the front desk was incredibly rude saying she doesn’t know, it’s not her problem and that we would have to deal with “Hotels.com.” First I couldn’t believe that they had someone like this representing their hotel, turning us away with zero empathy and zero solutions. Since it was obvious that she couldn’t care less about us and our special day, we then called “Hotels.com” to find out where another hotel was in the area and the wait time to speak with a representative was 4 hours. We then went back in to ask what other hotels are in the area and saw 3 other couples being turned away for the same thing, again the front desk unapologetically saying “Sorry, it’s not our fault or problem, you have to talk to Hotels.com.” It was obvious that Management at the hotel dropped the ball and over sold their hotel by leaving the OTA’s open (which is the way that hotels allow Outside Travel Agencies to book rooms at their hotel) thereby leaving multiple...Me and My fiancé booked a room here a few days in advance for Valentine’s day. When we showed up on Valentine’s Day to check in, the lady at the front desk rudely told us that their hotel was OVERBOOKED and that they didn't have a room for us and we would have to leave and stay somewhere else. When we asked how this was possible the lady at the front desk was incredibly rude saying she doesn’t know, it’s not her problem and that we would have to deal with “Hotels.com.” First I couldn’t believe that they had someone like this representing their hotel, turning us away with zero empathy and zero solutions. Since it was obvious that she couldn’t care less about us and our special day, we then called “Hotels.com” to find out where another hotel was in the area and the wait time to speak with a representative was 4 hours. We then went back in to ask what other hotels are in the area and saw 3 other couples being turned away for the same thing, again the front desk unapologetically saying “Sorry, it’s not our fault or problem, you have to talk to Hotels.com.” It was obvious that Management at the hotel dropped the ball and over sold their hotel by leaving the OTA’s open (which is the way that hotels allow Outside Travel Agencies to book rooms at their hotel) thereby leaving multiple people stranded on a holiday weekend which is their fault since it’s their hotel! When we asked the lady what are other hotels in the area she again said “You have to call Hotels.com for that information, I can’t help you.” I was in disbelief that not only did “Extended Stay” overbook their hotel but they were unwilling to help us at all.  Having worked in a hotel for over two years now in the reservations department I know that is not how you are supposed to treat guests when you oversell the hotel, you are supposed to offer them options, WALK them to another hotel and Cover ALL the room charges and maybe even a little extra as a way of apology perhaps purchase breakfast as well or offer a credit for them to return on a future stay!  Because the incompetent front desk staffer was unwilling to assist not only myself but all the other guests that were turned away due to their hotels oversight we were now out the money we had already placed as a deposit on the room as well as a place to stay as I am sure all the other guests were as well.  For some people spending $200 between the two hotels might not affect them that much, however it drastically affects my fiancé and I.  Now we were out the money that the hotel already charged as we wait to speak to Hotels.com for a refund. You can imagine this is not how we planned to spend our Valentine’s Day weekend, first not having a room to stay in since they oversold their hotel, secondly being treated so rudely by the lady at the front desk, and thirdly now being out the money and having to drive around looking for other accommodations in an unfamiliar area. We then drove around and eventually found DOUBLETREE hotel Denver Tech(7801 E Orchard Road, Greenwood Village, CO 80111) and their great staff understood our frustration and were so kind as to help us out anyway they could. I highly suggest staying at the DoubleTree and to NEVER book with Extended Stay since most likely you will show up without a room to stay in.  Many of you reading this may think well maybe it was because it was Valentine’s day which is a crazy day for hotels and that this is a onetime occurrence I urge you to think of it this way, if their management and staff don’t care or have the wherewithal to monitor their availability over one of the busiest days for hotels in a year then what do you think they pay attention to the rest of the year?More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r254305769-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1471,9 +2368,6 @@
     <t>Don't stay at this hotel, danger danger, warning. Upon attempting to check into this hotel I was informed by the manager that they had been overbooked and that she had to give my room to another patron which was as good as saying I'm getting a higher price from this other reservation. She told me to sit on the couch and call Expedia and that they would take care of my problem in a few minutes. Two and half hours later, fuming, and really thinking why was this my problem I had a confirmed reservation and confirmation number. The manager of the hotel flitted off and left her employee to the mercy of my dissatisfaction. If you want to be certain of a reservation with a confirmation number from a travel service use another hotel. This experience was atrocious.MoreShow less</t>
   </si>
   <si>
-    <t>February 2015</t>
-  </si>
-  <si>
     <t>Don't stay at this hotel, danger danger, warning. Upon attempting to check into this hotel I was informed by the manager that they had been overbooked and that she had to give my room to another patron which was as good as saying I'm getting a higher price from this other reservation. She told me to sit on the couch and call Expedia and that they would take care of my problem in a few minutes. Two and half hours later, fuming, and really thinking why was this my problem I had a confirmed reservation and confirmation number. The manager of the hotel flitted off and left her employee to the mercy of my dissatisfaction. If you want to be certain of a reservation with a confirmation number from a travel service use another hotel. This experience was atrocious.More</t>
   </si>
   <si>
@@ -1492,6 +2386,45 @@
     <t>I highly recommend this location; the rooms were IMMACULATELY clean; do NOT make the mistake of going to the other one down the road. I was extremely impressed with the Extended Stay manager - BRANDI TANNER. She was patient with us as we changed our mind about room size after we already "moved in" to a room; she never showed anything but a POSITIVE attitude; I witnessed her many times show compassion to a few of the residents; Brandi is the quality manager example that all others should be measured by - TRUTH</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r244919882-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>244919882</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Excellent location for business traveler</t>
+  </si>
+  <si>
+    <t>This place is located right in front of BelleView RTD station..... very convenient for short term/long term visitor.... Rooms are equipped with kitchenette - utensils are given from front desk on request - FREE - need to wait for a day to get them in room......Breakfast is not OK... just grab and go.....</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r241967032-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>241967032</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Horrid experience!!! Dont do it!</t>
+  </si>
+  <si>
+    <t>A third party had paid for the stay with a CC authorization. Upon check in the 2 people in the lobby had no clue how to deal with it so I had to give them a CC to check in (no charge yet). 3 days later my card is charged almost $1000 leaving that account overdrawn. Left stranded with no money for thanksgiving weekend there was a small attempt to correct. However, it was too little too late (thank goodness my bank gave me credit so we could enjoy dinner). The bathroom upon check in had urine on and around the toilet and used soap in the tub. Maids were using profanity loudly and consistently, we could hear it through our walls and so could my 8 year old daughter. So much more to say........ 2 week stay was cut to 4 days.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>A third party had paid for the stay with a CC authorization. Upon check in the 2 people in the lobby had no clue how to deal with it so I had to give them a CC to check in (no charge yet). 3 days later my card is charged almost $1000 leaving that account overdrawn. Left stranded with no money for thanksgiving weekend there was a small attempt to correct. However, it was too little too late (thank goodness my bank gave me credit so we could enjoy dinner). The bathroom upon check in had urine on and around the toilet and used soap in the tub. Maids were using profanity loudly and consistently, we could hear it through our walls and so could my 8 year old daughter. So much more to say........ 2 week stay was cut to 4 days.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r227769627-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
   </si>
   <si>
@@ -1507,9 +2440,6 @@
     <t>Started with reservations... we wanted a nonsmoking right from the start, when made reservations through a 3rd party about 1 month before travel, was smoking &amp;  NOT Nonsmoking as requested. Called the hotel directly to correct immediately , was told it would cost more, complained and then was hung up on at the hotel. Did not get the room promised, filed a complaint with corporate and was upgraded to an even better room at the same rate.We called and confirmed 13 hrs. prior to arrival and they could have said something then! But when we arrived, they first put us into a filthy room that was not what was promised, the bed was made, but counters were dirty, dried food on the couch and MOLD in the ice maker Room 213. Put us in a smoking room and promised to make things right the next day (this was around midnight and we had been driving 13 hrs) Brandi tried to make things right, but in fact could not give us the room promised. She comped to room stay for which I appreciate her efforts. But the condition of this hotel is just too dilapidated and needs a complete refurbishing. The microwave didn't work , you have to make your own ice as they don't have an ice machine, and you have to ask for and tote any kitchen utensils, glasses  or plates, cups yourself. The internet is free - but...Started with reservations... we wanted a nonsmoking right from the start, when made reservations through a 3rd party about 1 month before travel, was smoking &amp;  NOT Nonsmoking as requested. Called the hotel directly to correct immediately , was told it would cost more, complained and then was hung up on at the hotel. Did not get the room promised, filed a complaint with corporate and was upgraded to an even better room at the same rate.We called and confirmed 13 hrs. prior to arrival and they could have said something then! But when we arrived, they first put us into a filthy room that was not what was promised, the bed was made, but counters were dirty, dried food on the couch and MOLD in the ice maker Room 213. Put us in a smoking room and promised to make things right the next day (this was around midnight and we had been driving 13 hrs) Brandi tried to make things right, but in fact could not give us the room promised. She comped to room stay for which I appreciate her efforts. But the condition of this hotel is just too dilapidated and needs a complete refurbishing. The microwave didn't work , you have to make your own ice as they don't have an ice machine, and you have to ask for and tote any kitchen utensils, glasses  or plates, cups yourself. The internet is free - but it's slower than dial up- but they will "upgrade" for a fee!!! The grab and go breakfast is a ?? didn't use but only very little bit.. don't think you get a "free breakfast". WE were in Denver to move our son into his freshman dorm. He "escaped" on day two... but we were unable to get out of this "deal".  I would recommend another hotel by any means.MoreShow less</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>Started with reservations... we wanted a nonsmoking right from the start, when made reservations through a 3rd party about 1 month before travel, was smoking &amp;  NOT Nonsmoking as requested. Called the hotel directly to correct immediately , was told it would cost more, complained and then was hung up on at the hotel. Did not get the room promised, filed a complaint with corporate and was upgraded to an even better room at the same rate.We called and confirmed 13 hrs. prior to arrival and they could have said something then! But when we arrived, they first put us into a filthy room that was not what was promised, the bed was made, but counters were dirty, dried food on the couch and MOLD in the ice maker Room 213. Put us in a smoking room and promised to make things right the next day (this was around midnight and we had been driving 13 hrs) Brandi tried to make things right, but in fact could not give us the room promised. She comped to room stay for which I appreciate her efforts. But the condition of this hotel is just too dilapidated and needs a complete refurbishing. The microwave didn't work , you have to make your own ice as they don't have an ice machine, and you have to ask for and tote any kitchen utensils, glasses  or plates, cups yourself. The internet is free - but...Started with reservations... we wanted a nonsmoking right from the start, when made reservations through a 3rd party about 1 month before travel, was smoking &amp;  NOT Nonsmoking as requested. Called the hotel directly to correct immediately , was told it would cost more, complained and then was hung up on at the hotel. Did not get the room promised, filed a complaint with corporate and was upgraded to an even better room at the same rate.We called and confirmed 13 hrs. prior to arrival and they could have said something then! But when we arrived, they first put us into a filthy room that was not what was promised, the bed was made, but counters were dirty, dried food on the couch and MOLD in the ice maker Room 213. Put us in a smoking room and promised to make things right the next day (this was around midnight and we had been driving 13 hrs) Brandi tried to make things right, but in fact could not give us the room promised. She comped to room stay for which I appreciate her efforts. But the condition of this hotel is just too dilapidated and needs a complete refurbishing. The microwave didn't work , you have to make your own ice as they don't have an ice machine, and you have to ask for and tote any kitchen utensils, glasses  or plates, cups yourself. The internet is free - but it's slower than dial up- but they will "upgrade" for a fee!!! The grab and go breakfast is a ?? didn't use but only very little bit.. don't think you get a "free breakfast". WE were in Denver to move our son into his freshman dorm. He "escaped" on day two... but we were unable to get out of this "deal".  I would recommend another hotel by any means.More</t>
   </si>
   <si>
@@ -1550,6 +2480,39 @@
   </si>
   <si>
     <t>I am a college student from Milwaukee attending school here in CO. My mom and I arrived at the hotel (of which I had not picked no offense to my parents) and the check in process took a long time due to inexperienced employees. We get our room and go to the second floor with our luggage. Upon opening the door a deep stale smell of cigarette smoke came from the room. Cabinets were left open, the AC only blasted hot air, and the pull out bed was one of the grossest and poorly maintained beds of all time. So we finally went back to the desk and requested a new room. A lot of hassle and it's just not worth the price. Very bad experience here, pay a little extra to not stay at this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r223211533-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>223211533</t>
+  </si>
+  <si>
+    <t>Terrible management- look elsewhere for a room</t>
+  </si>
+  <si>
+    <t>They advertise "newly renovated" but new couch and few new TVs doesn't make this a place to stay. Upon check-in, we had to call to have someone come clean the toilets, and carpet needed to be vacuumed. Bathroom and kitchen floor were dirty. All the dishes in the place were dirty, pots and pans were all old and unusable. There were no towels, hand towels, or wash cloths. Had to go get some. Even these were all stained and nasty looking. Their bedding was questionable. We will never stay here again.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r221463145-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>221463145</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Never again....</t>
+  </si>
+  <si>
+    <t>The only thing going for this hotel is that there are two great parks near it.  If it weren't for having my dog with me, I would have left much earlier.  The rooms are very small, stains on the carpet, cabinets stick in the kitchen area due to grease I assume.  I emptied a container of Clorox wipes cleaning the place.  A lot of the cliental is construction workers and smokers, so if you don't mind beer drinking guys hanging around outside and the smell of smoke.....cops were in the parking lot so many times I lost count.  The linens are worn, need to be replaced.  When I changed the sheets on the bed, the mattress was stained, it was covered up with a blanket.  Internet connection is a joke.  Management needs to step up to the plate!  It really is a shame because the hotel is in a great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>The only thing going for this hotel is that there are two great parks near it.  If it weren't for having my dog with me, I would have left much earlier.  The rooms are very small, stains on the carpet, cabinets stick in the kitchen area due to grease I assume.  I emptied a container of Clorox wipes cleaning the place.  A lot of the cliental is construction workers and smokers, so if you don't mind beer drinking guys hanging around outside and the smell of smoke.....cops were in the parking lot so many times I lost count.  The linens are worn, need to be replaced.  When I changed the sheets on the bed, the mattress was stained, it was covered up with a blanket.  Internet connection is a joke.  Management needs to step up to the plate!  It really is a shame because the hotel is in a great location.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r220846907-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
@@ -1599,12 +2562,51 @@
 Unfortunately, the story didn't end there.  I needed toiletries, and they were out for the entire hotel.  Toiletries seems like a minor thing, and it is,...Arrive early morning with a reservation from the night before to find that my reservation has already been filled by someone else and using my credit card information.  The front desk staff asks what I think she should do and I say, of course, 'Call the police'.  That doesn't happen.  She gets me a different room and then proceeds to disbelieve the total on my reservation, and so charges me the wrong amount for my stay.  I will have to wait for a chargeback to fix the problem apparently.  This alone would make for a terrible rating.I get into the room, and find through the course of that night that the air conditioner doesn't work and it's the hottest week in July.  We end up spending the night with the door open to try and get cool air in.  At least the place was clean.  The next day we report the air conditioning problem to the front desk and they say they'll have someone come look at it, and the man came by and reported through broken english that it was fixed.  It was not.  At the front desk they then moved us into a different room which finally had working air conditioning.  At least that night I was able to get sleep.  Unfortunately, the story didn't end there.  I needed toiletries, and they were out for the entire hotel.  Toiletries seems like a minor thing, and it is, but I would point out that they're not exactly perishable.  For an entire hotel to run out of toiletries speaks to a level of incompetence that is downright bizarre.  Finally after it was all said and done, I find that the chargeback for the previous wrong amount, was also at an incorrect amount.  They still owe me money.MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>Arrive early morning with a reservation from the night before to find that my reservation has already been filled by someone else and using my credit card information.  The front desk staff asks what I think she should do and I say, of course, 'Call the police'.  That doesn't happen.  She gets me a different room and then proceeds to disbelieve the total on my reservation, and so charges me the wrong amount for my stay.  I will have to wait for a chargeback to fix the problem apparently.  This alone would make for a terrible rating.
 I get into the room, and find through the course of that night that the air conditioner doesn't work and it's the hottest week in July.  We end up spending the night with the door open to try and get cool air in.  At least the place was clean.  The next day we report the air conditioning problem to the front desk and they say they'll have someone come look at it, and the man came by and reported through broken english that it was fixed.  It was not.  At the front desk they then moved us into a different room which finally had working air conditioning.  At least that night I was able to get sleep.  
 Unfortunately, the story didn't end there.  I needed toiletries, and they were out for the entire hotel.  Toiletries seems like a minor thing, and it is,...Arrive early morning with a reservation from the night before to find that my reservation has already been filled by someone else and using my credit card information.  The front desk staff asks what I think she should do and I say, of course, 'Call the police'.  That doesn't happen.  She gets me a different room and then proceeds to disbelieve the total on my reservation, and so charges me the wrong amount for my stay.  I will have to wait for a chargeback to fix the problem apparently.  This alone would make for a terrible rating.I get into the room, and find through the course of that night that the air conditioner doesn't work and it's the hottest week in July.  We end up spending the night with the door open to try and get cool air in.  At least the place was clean.  The next day we report the air conditioning problem to the front desk and they say they'll have someone come look at it, and the man came by and reported through broken english that it was fixed.  It was not.  At the front desk they then moved us into a different room which finally had working air conditioning.  At least that night I was able to get sleep.  Unfortunately, the story didn't end there.  I needed toiletries, and they were out for the entire hotel.  Toiletries seems like a minor thing, and it is, but I would point out that they're not exactly perishable.  For an entire hotel to run out of toiletries speaks to a level of incompetence that is downright bizarre.  Finally after it was all said and done, I find that the chargeback for the previous wrong amount, was also at an incorrect amount.  They still owe me money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r216395278-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>216395278</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>WHAT A DISSAPOINTMENT !</t>
+  </si>
+  <si>
+    <t>Last year, I stayed here several times, with horrible stays, but I tried to give them a break because they would always give me a huge discount for my problems. It seemed they were trying, but there must be a really bad work force pool to draw from in this area. How could they continue to hire people so inept. I gave them a good review once because with the discounts it was a good deal. I can deal with problems if  my rates are cut in half, but in some kind of socialism economics, when they started construction work they actually raised the rates. So now you have constant noise, marijuana smoke flowing through the vents, " there is a reason they call it skunk weed !  and "the normal horrible service, I could not take it any more. I have not stayed there in a long time, and I will not until they make major changes. I guess in Denver, it is a sellers market, because you can do everything wrong and still have people stay in your hotel. I have a feeling infrequent travelers rarely read trip advisor. This is good for EXTENDED STAY.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Last year, I stayed here several times, with horrible stays, but I tried to give them a break because they would always give me a huge discount for my problems. It seemed they were trying, but there must be a really bad work force pool to draw from in this area. How could they continue to hire people so inept. I gave them a good review once because with the discounts it was a good deal. I can deal with problems if  my rates are cut in half, but in some kind of socialism economics, when they started construction work they actually raised the rates. So now you have constant noise, marijuana smoke flowing through the vents, " there is a reason they call it skunk weed !  and "the normal horrible service, I could not take it any more. I have not stayed there in a long time, and I will not until they make major changes. I guess in Denver, it is a sellers market, because you can do everything wrong and still have people stay in your hotel. I have a feeling infrequent travelers rarely read trip advisor. This is good for EXTENDED STAY.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r212820088-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
+  </si>
+  <si>
+    <t>212820088</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Dont do it!</t>
+  </si>
+  <si>
+    <t>No one was available at check in, even though the laundry room door (is always) was open. There was no bell to ring. There was only a piece of paper saying they would be back momentarily. There was a phone to call 0 to get help, but who was I talking to? There was no one in the office?!  I stood around foe 10 minutes before I tried the phone. I got someone who sounded very distant and unconcerned, very vague about how the desk person would be notified. I waited another 5 minutes or more when more people began showing up to check in. Another lady tried calling the 0 number and the person on the other end said it would be soon, someone was on their way. Another patron spoke up and said "they have to multitask" , what does this mean, the receptionist also has to clean the rooms?!  The girl, who I don't blame, showed up finally apologizing. I was checking in first,which she did. I had reserved a non-smoking room on the first floor. I had called the day before just to make I was getting what I had asked for and was told yes, that was what was reserved. I asked this girl if this was a ground floor room when she explained where to find my room and she said no, there were no rooms like that left. I was very upset because...No one was available at check in, even though the laundry room door (is always) was open. There was no bell to ring. There was only a piece of paper saying they would be back momentarily. There was a phone to call 0 to get help, but who was I talking to? There was no one in the office?!  I stood around foe 10 minutes before I tried the phone. I got someone who sounded very distant and unconcerned, very vague about how the desk person would be notified. I waited another 5 minutes or more when more people began showing up to check in. Another lady tried calling the 0 number and the person on the other end said it would be soon, someone was on their way. Another patron spoke up and said "they have to multitask" , what does this mean, the receptionist also has to clean the rooms?!  The girl, who I don't blame, showed up finally apologizing. I was checking in first,which she did. I had reserved a non-smoking room on the first floor. I had called the day before just to make I was getting what I had asked for and was told yes, that was what was reserved. I asked this girl if this was a ground floor room when she explained where to find my room and she said no, there were no rooms like that left. I was very upset because my son would be having surgery while we were there, so it was essential! I said I would have to take a room in the smoking section or handicapped room. She gave me one that was both......what a mistake. This side of the building is disgusting. Loud families, smoking everywhere, so much chalk drawing on the ground I couldn't see the handicap sign on the parking space, kids rolling around on rollerblades outside and upstairs! The room reeks of smoke. There were no bath rug towels toe seen. There was no bedding for the sofa bed. The tv/ drawers had to be moved around quite a bit to accomidate the sofa bed. The 'fully stocked' kitchen lacked paper towels, an oven, more than two of each silver ware, ANY pots, pans, or skillets! No coffee maker??!! Seriously, ALL rooms have one!!  So, I had to go retrieve all these things myself, not wanting to wait on inefficiency of taking away the receptionist! I stood in the lobby for 10-15 minutes while the same girl had to go in the laundry room and clean two pans to give me. Then she had to show me the 'stain' on one of the pans. Back in the room, one kitchen drawer was semi-stuck, when I pulled it open, there were old chips scattered around....like it had never been cleaned! One of the forks was dirty, made me not want to use any of it! The breakfast was pitiful! Coffee, oatmeal you could make,a handful of wrapped granola bars, and three oranges (one day there was no fruit!).....very misleading if you look on the website! Gym had one treadmill, one bike....wow. I asked if I needed to do anything special to check out and felt like I was being a bother....this woman seemed like the manager, didn't ask how my stay was...very disappointing! Will never go back! Should not be charging $89 a night! Been in $40 hotels that were better! 0 starsMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>No one was available at check in, even though the laundry room door (is always) was open. There was no bell to ring. There was only a piece of paper saying they would be back momentarily. There was a phone to call 0 to get help, but who was I talking to? There was no one in the office?!  I stood around foe 10 minutes before I tried the phone. I got someone who sounded very distant and unconcerned, very vague about how the desk person would be notified. I waited another 5 minutes or more when more people began showing up to check in. Another lady tried calling the 0 number and the person on the other end said it would be soon, someone was on their way. Another patron spoke up and said "they have to multitask" , what does this mean, the receptionist also has to clean the rooms?!  The girl, who I don't blame, showed up finally apologizing. I was checking in first,which she did. I had reserved a non-smoking room on the first floor. I had called the day before just to make I was getting what I had asked for and was told yes, that was what was reserved. I asked this girl if this was a ground floor room when she explained where to find my room and she said no, there were no rooms like that left. I was very upset because...No one was available at check in, even though the laundry room door (is always) was open. There was no bell to ring. There was only a piece of paper saying they would be back momentarily. There was a phone to call 0 to get help, but who was I talking to? There was no one in the office?!  I stood around foe 10 minutes before I tried the phone. I got someone who sounded very distant and unconcerned, very vague about how the desk person would be notified. I waited another 5 minutes or more when more people began showing up to check in. Another lady tried calling the 0 number and the person on the other end said it would be soon, someone was on their way. Another patron spoke up and said "they have to multitask" , what does this mean, the receptionist also has to clean the rooms?!  The girl, who I don't blame, showed up finally apologizing. I was checking in first,which she did. I had reserved a non-smoking room on the first floor. I had called the day before just to make I was getting what I had asked for and was told yes, that was what was reserved. I asked this girl if this was a ground floor room when she explained where to find my room and she said no, there were no rooms like that left. I was very upset because my son would be having surgery while we were there, so it was essential! I said I would have to take a room in the smoking section or handicapped room. She gave me one that was both......what a mistake. This side of the building is disgusting. Loud families, smoking everywhere, so much chalk drawing on the ground I couldn't see the handicap sign on the parking space, kids rolling around on rollerblades outside and upstairs! The room reeks of smoke. There were no bath rug towels toe seen. There was no bedding for the sofa bed. The tv/ drawers had to be moved around quite a bit to accomidate the sofa bed. The 'fully stocked' kitchen lacked paper towels, an oven, more than two of each silver ware, ANY pots, pans, or skillets! No coffee maker??!! Seriously, ALL rooms have one!!  So, I had to go retrieve all these things myself, not wanting to wait on inefficiency of taking away the receptionist! I stood in the lobby for 10-15 minutes while the same girl had to go in the laundry room and clean two pans to give me. Then she had to show me the 'stain' on one of the pans. Back in the room, one kitchen drawer was semi-stuck, when I pulled it open, there were old chips scattered around....like it had never been cleaned! One of the forks was dirty, made me not want to use any of it! The breakfast was pitiful! Coffee, oatmeal you could make,a handful of wrapped granola bars, and three oranges (one day there was no fruit!).....very misleading if you look on the website! Gym had one treadmill, one bike....wow. I asked if I needed to do anything special to check out and felt like I was being a bother....this woman seemed like the manager, didn't ask how my stay was...very disappointing! Will never go back! Should not be charging $89 a night! Been in $40 hotels that were better! 0 starsMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33456-d123338-r206973550-Extended_Stay_America_Denver_Tech_Center_North-Greenwood_Village_Colorado.html</t>
@@ -2187,7 +3189,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2195,12 +3197,16 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2248,27 +3254,33 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2284,31 +3296,35 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -2319,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
         <v>70</v>
@@ -2362,7 +3378,7 @@
         <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>76</v>
@@ -2380,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" t="s">
         <v>78</v>
-      </c>
-      <c r="X5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2402,41 +3418,47 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>85</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -2484,14 +3506,10 @@
         <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2502,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2524,31 +3542,35 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
       <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -2559,13 +3581,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -2581,62 +3603,48 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
         <v>107</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>108</v>
       </c>
-      <c r="J9" t="s">
+      <c r="X9" t="s">
         <v>109</v>
       </c>
-      <c r="K9" t="s">
+      <c r="Y9" t="s">
         <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>113</v>
-      </c>
-      <c r="X9" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -2652,7 +3660,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2661,47 +3669,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -2717,7 +3717,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2726,25 +3726,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2778,62 +3778,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
         <v>134</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>139</v>
-      </c>
-      <c r="O12" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
-      <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>140</v>
-      </c>
-      <c r="X12" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13">
@@ -2849,7 +3839,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2858,25 +3848,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2888,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2910,7 +3900,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2919,25 +3909,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2949,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -2971,7 +3961,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2980,49 +3970,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -3038,7 +4022,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3047,43 +4031,49 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s">
         <v>77</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -3099,7 +4089,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3108,49 +4098,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -3166,7 +4150,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3175,53 +4159,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>183</v>
-      </c>
-      <c r="O18" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -3237,7 +4207,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3246,53 +4216,53 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
@@ -3308,7 +4278,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3317,53 +4287,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -3379,7 +4343,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3388,53 +4352,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>149</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
@@ -3450,7 +4404,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3459,34 +4413,34 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3499,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
@@ -3521,7 +4475,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3530,53 +4484,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="K23" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s">
-        <v>95</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="X23" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -3592,7 +4536,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3601,43 +4545,53 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
@@ -3653,7 +4607,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3662,25 +4616,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3692,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -3714,7 +4668,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3723,53 +4677,53 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="X26" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
@@ -3785,7 +4739,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3794,35 +4748,29 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
         <v>5</v>
       </c>
@@ -3834,13 +4782,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="X27" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28">
@@ -3856,7 +4804,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3865,53 +4813,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="X28" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="Y28" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
@@ -3927,7 +4865,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3936,30 +4874,30 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="J29" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K29" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>1</v>
@@ -3972,13 +4910,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="X29" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
@@ -3994,7 +4932,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4003,47 +4941,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="X30" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="Y30" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31">
@@ -4059,7 +4993,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4068,43 +5002,47 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
@@ -4120,7 +5058,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4129,43 +5067,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="O32" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="X32" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="Y32" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
@@ -4181,7 +5125,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4190,39 +5134,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="X33" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="Y33" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
@@ -4238,7 +5192,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4247,25 +5201,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="O34" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4273,8 +5227,12 @@
       <c r="Q34" t="n">
         <v>1</v>
       </c>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>1</v>
@@ -4283,13 +5241,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
@@ -4305,7 +5263,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4314,39 +5272,53 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>314</v>
+      </c>
+      <c r="O35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
         <v>5</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="X35" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="Y35" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
@@ -4362,7 +5334,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4371,43 +5343,53 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>149</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="X36" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="Y36" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
@@ -4423,7 +5405,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4432,43 +5414,53 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="J37" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="X37" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="Y37" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38">
@@ -4484,7 +5476,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4493,49 +5485,53 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="J38" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="O38" t="s">
-        <v>95</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="X38" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="Y38" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
@@ -4551,7 +5547,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4560,39 +5556,53 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="J39" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>314</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="X39" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="Y39" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
@@ -4608,7 +5618,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4617,43 +5627,53 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="O40" t="s">
-        <v>149</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="X40" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="Y40" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41">
@@ -4669,7 +5689,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4678,43 +5698,53 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="K41" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s">
-        <v>149</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="X41" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="Y41" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
@@ -4730,7 +5760,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4739,47 +5769,53 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="J42" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="K42" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="O42" t="s">
-        <v>149</v>
-      </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="X42" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="Y42" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -4795,7 +5831,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4804,29 +5840,35 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>394</v>
+        <v>226</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -4838,13 +5880,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="X43" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="Y43" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44">
@@ -4860,7 +5902,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4869,22 +5911,26 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="J44" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="K44" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>339</v>
+      </c>
+      <c r="O44" t="s">
+        <v>85</v>
+      </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
@@ -4894,10 +5940,14 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>386</v>
+      </c>
+      <c r="X44" t="s">
+        <v>387</v>
+      </c>
       <c r="Y44" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45">
@@ -4913,7 +5963,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4922,47 +5972,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>416</v>
+        <v>226</v>
       </c>
       <c r="O45" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s"/>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>1</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="X45" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="Y45" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46">
@@ -4978,7 +6024,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4987,31 +6033,35 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="K46" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>416</v>
+        <v>226</v>
       </c>
       <c r="O46" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
       <c r="S46" t="n">
         <v>1</v>
       </c>
@@ -5022,10 +6072,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>401</v>
+      </c>
+      <c r="X46" t="s">
+        <v>402</v>
+      </c>
       <c r="Y46" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47">
@@ -5041,7 +6095,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5050,39 +6104,53 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="J47" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="K47" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="L47" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>416</v>
+        <v>226</v>
       </c>
       <c r="O47" t="s">
-        <v>95</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>409</v>
+      </c>
+      <c r="X47" t="s">
+        <v>410</v>
+      </c>
       <c r="Y47" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
@@ -5098,7 +6166,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5107,45 +6175,53 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>416</v>
+        <v>226</v>
       </c>
       <c r="O48" t="s">
         <v>77</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>417</v>
+      </c>
+      <c r="X48" t="s">
+        <v>418</v>
+      </c>
       <c r="Y48" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
@@ -5161,7 +6237,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5170,49 +6246,53 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>442</v>
+        <v>226</v>
       </c>
       <c r="O49" t="s">
-        <v>443</v>
+        <v>85</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="X49" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="Y49" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50">
@@ -5228,7 +6308,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5237,39 +6317,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="J50" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="K50" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="O50" t="s">
-        <v>149</v>
-      </c>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>434</v>
+      </c>
+      <c r="X50" t="s">
+        <v>435</v>
+      </c>
       <c r="Y50" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51">
@@ -5285,7 +6379,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5294,39 +6388,47 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="J51" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="K51" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="L51" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="O51" t="s">
-        <v>149</v>
-      </c>
-      <c r="P51" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>443</v>
+      </c>
+      <c r="X51" t="s">
+        <v>444</v>
+      </c>
       <c r="Y51" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52">
@@ -5342,7 +6444,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5351,43 +6453,43 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="J52" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="K52" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="L52" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>464</v>
+        <v>339</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
+      <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>1</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>451</v>
+      </c>
+      <c r="X52" t="s">
+        <v>452</v>
+      </c>
       <c r="Y52" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53">
@@ -5403,7 +6505,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5412,45 +6514,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="J53" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="K53" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="L53" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+      <c r="N53" t="s">
+        <v>459</v>
+      </c>
+      <c r="O53" t="s">
+        <v>123</v>
+      </c>
       <c r="P53" t="n">
         <v>1</v>
       </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>460</v>
+      </c>
+      <c r="X53" t="s">
+        <v>461</v>
+      </c>
       <c r="Y53" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54">
@@ -5466,7 +6572,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5475,39 +6581,47 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="J54" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="K54" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L54" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="O54" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>469</v>
+      </c>
+      <c r="X54" t="s">
+        <v>470</v>
+      </c>
       <c r="Y54" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55">
@@ -5523,7 +6637,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5532,22 +6646,26 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J55" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K55" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L55" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
+      <c r="N55" t="s">
+        <v>468</v>
+      </c>
+      <c r="O55" t="s">
+        <v>123</v>
+      </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
@@ -5557,10 +6675,14 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>477</v>
+      </c>
+      <c r="X55" t="s">
+        <v>478</v>
+      </c>
       <c r="Y55" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56">
@@ -5576,54 +6698,58 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
+        <v>480</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>481</v>
+      </c>
+      <c r="J56" t="s">
+        <v>482</v>
+      </c>
+      <c r="K56" t="s">
+        <v>483</v>
+      </c>
+      <c r="L56" t="s">
         <v>484</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
-        <v>485</v>
-      </c>
-      <c r="J56" t="s">
-        <v>486</v>
-      </c>
-      <c r="K56" t="s">
-        <v>487</v>
-      </c>
-      <c r="L56" t="s">
-        <v>488</v>
-      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="O56" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
       </c>
       <c r="Q56" t="s"/>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>485</v>
+      </c>
+      <c r="X56" t="s">
+        <v>486</v>
+      </c>
       <c r="Y56" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57">
@@ -5639,52 +6765,52 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>489</v>
+      </c>
+      <c r="J57" t="s">
+        <v>482</v>
+      </c>
+      <c r="K57" t="s">
+        <v>490</v>
+      </c>
+      <c r="L57" t="s">
         <v>491</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
-        <v>492</v>
-      </c>
-      <c r="J57" t="s">
-        <v>493</v>
-      </c>
-      <c r="K57" t="s">
-        <v>494</v>
-      </c>
-      <c r="L57" t="s">
-        <v>495</v>
-      </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="O57" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="P57" t="s"/>
-      <c r="Q57" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>1</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>492</v>
+      </c>
+      <c r="X57" t="s">
+        <v>493</v>
+      </c>
       <c r="Y57" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58">
@@ -5700,34 +6826,34 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
+        <v>495</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>496</v>
+      </c>
+      <c r="J58" t="s">
+        <v>497</v>
+      </c>
+      <c r="K58" t="s">
         <v>498</v>
       </c>
-      <c r="G58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="L58" t="s">
         <v>499</v>
       </c>
-      <c r="J58" t="s">
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
         <v>500</v>
       </c>
-      <c r="K58" t="s">
-        <v>501</v>
-      </c>
-      <c r="L58" t="s">
-        <v>502</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="s">
-        <v>496</v>
-      </c>
       <c r="O58" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5738,8 +6864,12 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>501</v>
+      </c>
+      <c r="X58" t="s">
+        <v>502</v>
+      </c>
       <c r="Y58" t="s">
         <v>503</v>
       </c>
@@ -5778,31 +6908,27 @@
         <v>508</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="s">
-        <v>496</v>
-      </c>
-      <c r="O59" t="s">
-        <v>95</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>3</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>509</v>
+      </c>
+      <c r="X59" t="s">
+        <v>510</v>
+      </c>
       <c r="Y59" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60">
@@ -5818,7 +6944,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5827,45 +6953,49 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="J60" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K60" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="L60" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
+      <c r="N60" t="s">
+        <v>517</v>
+      </c>
+      <c r="O60" t="s">
+        <v>77</v>
+      </c>
       <c r="P60" t="n">
         <v>1</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
       </c>
-      <c r="R60" t="n">
-        <v>2</v>
-      </c>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>518</v>
+      </c>
+      <c r="X60" t="s">
+        <v>519</v>
+      </c>
       <c r="Y60" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="61">
@@ -5881,7 +7011,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5890,43 +7020,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="J61" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K61" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L61" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="O61" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>1</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>527</v>
+      </c>
+      <c r="X61" t="s">
+        <v>528</v>
+      </c>
       <c r="Y61" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62">
@@ -5942,7 +7072,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5951,45 +7081,43 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="J62" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="K62" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="L62" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2</v>
-      </c>
-      <c r="R62" t="n">
-        <v>3</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>535</v>
+      </c>
+      <c r="O62" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>3</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>536</v>
+      </c>
+      <c r="X62" t="s">
+        <v>537</v>
+      </c>
       <c r="Y62" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="63">
@@ -6005,7 +7133,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6014,43 +7142,2895 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="J63" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="K63" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="L63" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="s">
-        <v>531</v>
-      </c>
-      <c r="O63" t="s">
-        <v>95</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
       <c r="P63" t="s"/>
-      <c r="Q63" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>544</v>
+      </c>
+      <c r="X63" t="s">
+        <v>545</v>
+      </c>
       <c r="Y63" t="s">
-        <v>532</v>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>547</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>548</v>
+      </c>
+      <c r="J64" t="s">
+        <v>549</v>
+      </c>
+      <c r="K64" t="s">
+        <v>550</v>
+      </c>
+      <c r="L64" t="s">
+        <v>551</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>535</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>552</v>
+      </c>
+      <c r="X64" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>555</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>556</v>
+      </c>
+      <c r="J65" t="s">
+        <v>557</v>
+      </c>
+      <c r="K65" t="s">
+        <v>558</v>
+      </c>
+      <c r="L65" t="s">
+        <v>559</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>500</v>
+      </c>
+      <c r="O65" t="s">
+        <v>85</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>560</v>
+      </c>
+      <c r="X65" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>563</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>564</v>
+      </c>
+      <c r="J66" t="s">
+        <v>565</v>
+      </c>
+      <c r="K66" t="s">
+        <v>566</v>
+      </c>
+      <c r="L66" t="s">
+        <v>567</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>500</v>
+      </c>
+      <c r="O66" t="s">
+        <v>77</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>568</v>
+      </c>
+      <c r="X66" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>571</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>572</v>
+      </c>
+      <c r="J67" t="s">
+        <v>573</v>
+      </c>
+      <c r="K67" t="s">
+        <v>574</v>
+      </c>
+      <c r="L67" t="s">
+        <v>575</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>576</v>
+      </c>
+      <c r="O67" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>577</v>
+      </c>
+      <c r="X67" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>580</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>581</v>
+      </c>
+      <c r="J68" t="s">
+        <v>582</v>
+      </c>
+      <c r="K68" t="s">
+        <v>583</v>
+      </c>
+      <c r="L68" t="s">
+        <v>584</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>585</v>
+      </c>
+      <c r="O68" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>586</v>
+      </c>
+      <c r="X68" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>589</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>590</v>
+      </c>
+      <c r="J69" t="s">
+        <v>591</v>
+      </c>
+      <c r="K69" t="s">
+        <v>592</v>
+      </c>
+      <c r="L69" t="s">
+        <v>593</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>594</v>
+      </c>
+      <c r="X69" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>597</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>598</v>
+      </c>
+      <c r="J70" t="s">
+        <v>599</v>
+      </c>
+      <c r="K70" t="s">
+        <v>600</v>
+      </c>
+      <c r="L70" t="s">
+        <v>601</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>602</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>603</v>
+      </c>
+      <c r="X70" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>606</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>607</v>
+      </c>
+      <c r="J71" t="s">
+        <v>599</v>
+      </c>
+      <c r="K71" t="s">
+        <v>608</v>
+      </c>
+      <c r="L71" t="s">
+        <v>609</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>585</v>
+      </c>
+      <c r="O71" t="s">
+        <v>123</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>603</v>
+      </c>
+      <c r="X71" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>611</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>612</v>
+      </c>
+      <c r="J72" t="s">
+        <v>613</v>
+      </c>
+      <c r="K72" t="s">
+        <v>614</v>
+      </c>
+      <c r="L72" t="s">
+        <v>615</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>602</v>
+      </c>
+      <c r="O72" t="s">
+        <v>85</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>616</v>
+      </c>
+      <c r="X72" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>619</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>620</v>
+      </c>
+      <c r="J73" t="s">
+        <v>621</v>
+      </c>
+      <c r="K73" t="s">
+        <v>622</v>
+      </c>
+      <c r="L73" t="s">
+        <v>623</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>602</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>624</v>
+      </c>
+      <c r="X73" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>627</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>628</v>
+      </c>
+      <c r="J74" t="s">
+        <v>629</v>
+      </c>
+      <c r="K74" t="s">
+        <v>630</v>
+      </c>
+      <c r="L74" t="s">
+        <v>631</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>632</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>633</v>
+      </c>
+      <c r="X74" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>636</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>637</v>
+      </c>
+      <c r="J75" t="s">
+        <v>638</v>
+      </c>
+      <c r="K75" t="s">
+        <v>639</v>
+      </c>
+      <c r="L75" t="s">
+        <v>640</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>632</v>
+      </c>
+      <c r="O75" t="s">
+        <v>85</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>641</v>
+      </c>
+      <c r="X75" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>644</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>645</v>
+      </c>
+      <c r="J76" t="s">
+        <v>646</v>
+      </c>
+      <c r="K76" t="s">
+        <v>647</v>
+      </c>
+      <c r="L76" t="s">
+        <v>648</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>649</v>
+      </c>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>650</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>651</v>
+      </c>
+      <c r="J77" t="s">
+        <v>652</v>
+      </c>
+      <c r="K77" t="s">
+        <v>653</v>
+      </c>
+      <c r="L77" t="s">
+        <v>654</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>655</v>
+      </c>
+      <c r="O77" t="s">
+        <v>77</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>657</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>658</v>
+      </c>
+      <c r="J78" t="s">
+        <v>659</v>
+      </c>
+      <c r="K78" t="s">
+        <v>660</v>
+      </c>
+      <c r="L78" t="s">
+        <v>661</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>662</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>663</v>
+      </c>
+      <c r="J79" t="s">
+        <v>664</v>
+      </c>
+      <c r="K79" t="s">
+        <v>665</v>
+      </c>
+      <c r="L79" t="s">
+        <v>666</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>576</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>667</v>
+      </c>
+      <c r="X79" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>670</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>671</v>
+      </c>
+      <c r="J80" t="s">
+        <v>672</v>
+      </c>
+      <c r="K80" t="s">
+        <v>673</v>
+      </c>
+      <c r="L80" t="s">
+        <v>674</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>576</v>
+      </c>
+      <c r="O80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>676</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>677</v>
+      </c>
+      <c r="J81" t="s">
+        <v>678</v>
+      </c>
+      <c r="K81" t="s">
+        <v>679</v>
+      </c>
+      <c r="L81" t="s">
+        <v>680</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>681</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>683</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>684</v>
+      </c>
+      <c r="J82" t="s">
+        <v>678</v>
+      </c>
+      <c r="K82" t="s">
+        <v>685</v>
+      </c>
+      <c r="L82" t="s">
+        <v>686</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>576</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>688</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>689</v>
+      </c>
+      <c r="J83" t="s">
+        <v>690</v>
+      </c>
+      <c r="K83" t="s">
+        <v>691</v>
+      </c>
+      <c r="L83" t="s">
+        <v>692</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>576</v>
+      </c>
+      <c r="O83" t="s">
+        <v>77</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>693</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>694</v>
+      </c>
+      <c r="J84" t="s">
+        <v>695</v>
+      </c>
+      <c r="K84" t="s">
+        <v>696</v>
+      </c>
+      <c r="L84" t="s">
+        <v>697</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>576</v>
+      </c>
+      <c r="O84" t="s">
+        <v>123</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>699</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>700</v>
+      </c>
+      <c r="J85" t="s">
+        <v>701</v>
+      </c>
+      <c r="K85" t="s">
+        <v>702</v>
+      </c>
+      <c r="L85" t="s">
+        <v>703</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>681</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>704</v>
+      </c>
+      <c r="X85" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>707</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>708</v>
+      </c>
+      <c r="J86" t="s">
+        <v>709</v>
+      </c>
+      <c r="K86" t="s">
+        <v>710</v>
+      </c>
+      <c r="L86" t="s">
+        <v>711</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>681</v>
+      </c>
+      <c r="O86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>713</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>714</v>
+      </c>
+      <c r="J87" t="s">
+        <v>715</v>
+      </c>
+      <c r="K87" t="s">
+        <v>716</v>
+      </c>
+      <c r="L87" t="s">
+        <v>717</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>718</v>
+      </c>
+      <c r="O87" t="s">
+        <v>123</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>719</v>
+      </c>
+      <c r="X87" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>722</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>723</v>
+      </c>
+      <c r="J88" t="s">
+        <v>724</v>
+      </c>
+      <c r="K88" t="s">
+        <v>725</v>
+      </c>
+      <c r="L88" t="s">
+        <v>726</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>718</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>727</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>728</v>
+      </c>
+      <c r="J89" t="s">
+        <v>729</v>
+      </c>
+      <c r="K89" t="s">
+        <v>730</v>
+      </c>
+      <c r="L89" t="s">
+        <v>731</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>718</v>
+      </c>
+      <c r="O89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>733</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>734</v>
+      </c>
+      <c r="J90" t="s">
+        <v>735</v>
+      </c>
+      <c r="K90" t="s">
+        <v>736</v>
+      </c>
+      <c r="L90" t="s">
+        <v>737</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>738</v>
+      </c>
+      <c r="O90" t="s">
+        <v>62</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>740</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>741</v>
+      </c>
+      <c r="J91" t="s">
+        <v>742</v>
+      </c>
+      <c r="K91" t="s">
+        <v>743</v>
+      </c>
+      <c r="L91" t="s">
+        <v>744</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>745</v>
+      </c>
+      <c r="O91" t="s">
+        <v>85</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>746</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>747</v>
+      </c>
+      <c r="J92" t="s">
+        <v>748</v>
+      </c>
+      <c r="K92" t="s">
+        <v>749</v>
+      </c>
+      <c r="L92" t="s">
+        <v>750</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>751</v>
+      </c>
+      <c r="O92" t="s">
+        <v>85</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>752</v>
+      </c>
+      <c r="X92" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>755</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>756</v>
+      </c>
+      <c r="J93" t="s">
+        <v>757</v>
+      </c>
+      <c r="K93" t="s">
+        <v>758</v>
+      </c>
+      <c r="L93" t="s">
+        <v>759</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>761</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>762</v>
+      </c>
+      <c r="J94" t="s">
+        <v>763</v>
+      </c>
+      <c r="K94" t="s">
+        <v>764</v>
+      </c>
+      <c r="L94" t="s">
+        <v>765</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>751</v>
+      </c>
+      <c r="O94" t="s">
+        <v>77</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>767</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>768</v>
+      </c>
+      <c r="J95" t="s">
+        <v>769</v>
+      </c>
+      <c r="K95" t="s">
+        <v>770</v>
+      </c>
+      <c r="L95" t="s">
+        <v>771</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>772</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>773</v>
+      </c>
+      <c r="J96" t="s">
+        <v>774</v>
+      </c>
+      <c r="K96" t="s">
+        <v>775</v>
+      </c>
+      <c r="L96" t="s">
+        <v>776</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>777</v>
+      </c>
+      <c r="O96" t="s">
+        <v>77</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>778</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>779</v>
+      </c>
+      <c r="J97" t="s">
+        <v>780</v>
+      </c>
+      <c r="K97" t="s">
+        <v>781</v>
+      </c>
+      <c r="L97" t="s">
+        <v>782</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>783</v>
+      </c>
+      <c r="O97" t="s">
+        <v>77</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>785</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>786</v>
+      </c>
+      <c r="J98" t="s">
+        <v>787</v>
+      </c>
+      <c r="K98" t="s">
+        <v>788</v>
+      </c>
+      <c r="L98" t="s">
+        <v>789</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>777</v>
+      </c>
+      <c r="O98" t="s">
+        <v>62</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>791</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>792</v>
+      </c>
+      <c r="J99" t="s">
+        <v>793</v>
+      </c>
+      <c r="K99" t="s">
+        <v>794</v>
+      </c>
+      <c r="L99" t="s">
+        <v>795</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>796</v>
+      </c>
+      <c r="O99" t="s">
+        <v>62</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>798</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>799</v>
+      </c>
+      <c r="J100" t="s">
+        <v>800</v>
+      </c>
+      <c r="K100" t="s">
+        <v>801</v>
+      </c>
+      <c r="L100" t="s">
+        <v>802</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>796</v>
+      </c>
+      <c r="O100" t="s">
+        <v>62</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>804</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>805</v>
+      </c>
+      <c r="J101" t="s">
+        <v>800</v>
+      </c>
+      <c r="K101" t="s">
+        <v>806</v>
+      </c>
+      <c r="L101" t="s">
+        <v>807</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>808</v>
+      </c>
+      <c r="O101" t="s">
+        <v>62</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>809</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>810</v>
+      </c>
+      <c r="J102" t="s">
+        <v>811</v>
+      </c>
+      <c r="K102" t="s">
+        <v>812</v>
+      </c>
+      <c r="L102" t="s">
+        <v>813</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>796</v>
+      </c>
+      <c r="O102" t="s">
+        <v>77</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>815</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>816</v>
+      </c>
+      <c r="J103" t="s">
+        <v>817</v>
+      </c>
+      <c r="K103" t="s">
+        <v>818</v>
+      </c>
+      <c r="L103" t="s">
+        <v>819</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>796</v>
+      </c>
+      <c r="O103" t="s">
+        <v>77</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>820</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>821</v>
+      </c>
+      <c r="J104" t="s">
+        <v>822</v>
+      </c>
+      <c r="K104" t="s">
+        <v>823</v>
+      </c>
+      <c r="L104" t="s">
+        <v>824</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>825</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>826</v>
+      </c>
+      <c r="J105" t="s">
+        <v>827</v>
+      </c>
+      <c r="K105" t="s">
+        <v>828</v>
+      </c>
+      <c r="L105" t="s">
+        <v>829</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>808</v>
+      </c>
+      <c r="O105" t="s">
+        <v>77</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>831</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>832</v>
+      </c>
+      <c r="J106" t="s">
+        <v>833</v>
+      </c>
+      <c r="K106" t="s">
+        <v>834</v>
+      </c>
+      <c r="L106" t="s">
+        <v>835</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>836</v>
+      </c>
+      <c r="O106" t="s">
+        <v>77</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>838</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>839</v>
+      </c>
+      <c r="J107" t="s">
+        <v>840</v>
+      </c>
+      <c r="K107" t="s">
+        <v>841</v>
+      </c>
+      <c r="L107" t="s">
+        <v>842</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>843</v>
+      </c>
+      <c r="O107" t="s">
+        <v>62</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>845</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>846</v>
+      </c>
+      <c r="J108" t="s">
+        <v>847</v>
+      </c>
+      <c r="K108" t="s">
+        <v>848</v>
+      </c>
+      <c r="L108" t="s">
+        <v>849</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>36024</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>850</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>851</v>
+      </c>
+      <c r="J109" t="s">
+        <v>852</v>
+      </c>
+      <c r="K109" t="s">
+        <v>853</v>
+      </c>
+      <c r="L109" t="s">
+        <v>854</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
+        <v>855</v>
+      </c>
+      <c r="O109" t="s">
+        <v>77</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>856</v>
       </c>
     </row>
   </sheetData>
